--- a/Project/Work breakdown structure.xlsx
+++ b/Project/Work breakdown structure.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophia\Desktop\Sophia\Faculdade\ES\GanttProject\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21F3E3F2-A074-4D1E-83A1-BCC068985E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102F5BB9-0E14-43ED-8D11-EB809315320F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B8192C47-A09E-4BA8-B0FD-1F9525E819C1}"/>
   </bookViews>
@@ -1034,7 +1034,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="pt-PT"/>
-            <a:t>Identify 3 GoF design patterns</a:t>
+            <a:t>Identify #1 GoF design pattern</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -1070,7 +1070,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="pt-PT"/>
-            <a:t>Identify 3 GoF design patterns</a:t>
+            <a:t>Identify #2 GoF design pattern</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -1106,7 +1106,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="pt-PT"/>
-            <a:t>Identify 3 GoF design patterns</a:t>
+            <a:t>Identify #3 GoF design pattern</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -1142,7 +1142,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="pt-PT"/>
-            <a:t>Identify 3 GoF design patterns</a:t>
+            <a:t>Identify #4 GoF design pattern</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -1178,7 +1178,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="pt-PT"/>
-            <a:t>Identify 3 GoF design patterns</a:t>
+            <a:t>Identify #5 GoF design pattern</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -1214,7 +1214,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="pt-PT"/>
-            <a:t>Identify 3 code smells</a:t>
+            <a:t>Identify #1 code smell</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -1250,7 +1250,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="pt-PT"/>
-            <a:t>Identify 3 code smells</a:t>
+            <a:t>Identify #2 code smell</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -1286,7 +1286,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="pt-PT"/>
-            <a:t>Identify 3 code smells</a:t>
+            <a:t>Identify #3 code smell</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -1313,7 +1313,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{130FFC3E-4D72-4CD5-A272-E5C13B5D7796}">
+    <dgm:pt modelId="{6CB22C70-F67C-4AB5-96D8-3B0D55E4B444}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -1322,43 +1322,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="pt-PT"/>
-            <a:t>Identify 3 code smells</a:t>
-          </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{CF99659C-0341-431F-836B-ADA8DB060E5D}" type="parTrans" cxnId="{4039C010-5D22-4C2C-B524-B39ECD4213E8}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="pt-PT"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{5263ADBB-4CB2-4724-AB3E-2EC30F833B17}" type="sibTrans" cxnId="{4039C010-5D22-4C2C-B524-B39ECD4213E8}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="pt-PT"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{6CB22C70-F67C-4AB5-96D8-3B0D55E4B444}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="pt-PT"/>
-            <a:t>Identify 3 code smells</a:t>
+            <a:t>Identify #5 code smell</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -1411,6 +1375,762 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{5A1C91CE-ECE3-4D1C-950D-924635E43BBF}" type="sibTrans" cxnId="{1CF593CD-30CE-4928-9DDD-614BEF30F6E5}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{79845260-82E1-4302-ADB8-E3548D6C9EA0}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Identify #6 GoF design pattern</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0ACEB9D5-75E1-4AAE-9D0D-C745E34D7DEA}" type="parTrans" cxnId="{2794CDA9-06BE-47D4-8D57-BB4938F91899}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{60661C48-E73E-4B77-8A0D-5C1B66B7447F}" type="sibTrans" cxnId="{2794CDA9-06BE-47D4-8D57-BB4938F91899}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D5A72B32-950B-470B-84BF-D727D560272F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Identify #7 GoF design pattern</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4453BA53-2066-434B-AA54-E2AB0B04C80E}" type="parTrans" cxnId="{AD46D6A9-D740-4CA3-9C9E-FEB6B62F19B8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0C256E06-16AC-467B-8EA2-96C0E63EE679}" type="sibTrans" cxnId="{AD46D6A9-D740-4CA3-9C9E-FEB6B62F19B8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{003AD82E-1CD4-40E1-807D-E799EE8CC72A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Identify #8 GoF design pattern</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8D6E5929-CA5C-4404-9CC7-F775EACFE012}" type="parTrans" cxnId="{63F5D9B3-933F-4285-8309-14EBF01088BD}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6CD9C108-8626-4ACC-8AF9-C9A8EE73597A}" type="sibTrans" cxnId="{63F5D9B3-933F-4285-8309-14EBF01088BD}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E4704C8A-763D-4A72-A874-9D77E155837B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Identify #9 GoF design pattern</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CCB16EC1-4F8A-4FB4-BD33-8E4F25872644}" type="parTrans" cxnId="{AC04CE18-55F4-4E05-B225-9EFC5F8A75FD}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{85A913C8-5278-463D-838F-4B9EB9E8A116}" type="sibTrans" cxnId="{AC04CE18-55F4-4E05-B225-9EFC5F8A75FD}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BF4338EB-29BE-4A08-A7F2-66BB67ACBCD1}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Identify #10 GoF design pattern</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C26ADEE5-7AA8-4774-B683-AEB91F04A02F}" type="parTrans" cxnId="{31CE903D-DE0A-4103-A407-E9795E92A0FE}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B72BFD68-95F2-4038-ACA6-7534DC7835C6}" type="sibTrans" cxnId="{31CE903D-DE0A-4103-A407-E9795E92A0FE}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7FC4E244-860C-49B9-93EB-D304D2B2DE46}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Identify #11 GoF design pattern</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6393D3BC-DD67-4CFC-95FA-0E2F1B9AB123}" type="parTrans" cxnId="{83359469-AC66-4EC8-9584-0337101AA05D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A07A3FBB-856E-4EB8-B375-95F45F22125E}" type="sibTrans" cxnId="{83359469-AC66-4EC8-9584-0337101AA05D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{10E10364-03F8-45C9-A5AA-8B95424FE183}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Identify #12 GoF design pattern</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A0134DC4-F4F7-4837-ACEB-1EF157331388}" type="parTrans" cxnId="{D6377592-5745-4570-91AE-47FA0842CEBB}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0D31D0BA-4A54-4C5D-A779-88960034A964}" type="sibTrans" cxnId="{D6377592-5745-4570-91AE-47FA0842CEBB}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D42998D8-E553-4702-840E-4A0D5A8AB09F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Identify #13 GoF design pattern</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{ADC38089-320B-4900-907B-73C31EB12659}" type="parTrans" cxnId="{92A0F56A-B2B3-4C71-A338-DFDB56FC2B5A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{ED541A2E-6B37-4FBE-9A40-4A76A7A07C69}" type="sibTrans" cxnId="{92A0F56A-B2B3-4C71-A338-DFDB56FC2B5A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C614CB23-24F1-4DAF-9C9A-9CE38E3C2221}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Identify #14 GoF design pattern</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{02096D74-B1E3-4BFA-8DB2-EB35871A2D4A}" type="parTrans" cxnId="{38819E3C-27EF-46E9-A1E5-1260FD640A13}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D3776FCB-88E5-4DE1-8314-ACF334AF1CB9}" type="sibTrans" cxnId="{38819E3C-27EF-46E9-A1E5-1260FD640A13}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9D2E271C-5369-40A0-A112-E9E5291E9458}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Identify #15 GoF design pattern</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5E29698D-4A46-4836-87B3-719525376E6B}" type="parTrans" cxnId="{1A3D5A98-70FC-4B4F-9928-B44247163262}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C7855E20-FD3B-47D8-8044-BE98C371AFF6}" type="sibTrans" cxnId="{1A3D5A98-70FC-4B4F-9928-B44247163262}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{130FFC3E-4D72-4CD5-A272-E5C13B5D7796}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Identify #4 code smell</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5263ADBB-4CB2-4724-AB3E-2EC30F833B17}" type="sibTrans" cxnId="{4039C010-5D22-4C2C-B524-B39ECD4213E8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CF99659C-0341-431F-836B-ADA8DB060E5D}" type="parTrans" cxnId="{4039C010-5D22-4C2C-B524-B39ECD4213E8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3BB78B12-0C6E-4103-85DC-D5A0CE315834}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Identify #6 code smell</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B9D3841F-2FF1-4089-AFDB-51D3FF22D0EA}" type="parTrans" cxnId="{C6E91938-7A1F-488A-B634-1D435457E4B1}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D8B10476-310E-422D-BEE0-A3B46718BEFD}" type="sibTrans" cxnId="{C6E91938-7A1F-488A-B634-1D435457E4B1}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{72A1D041-04F5-42AC-A70B-D51C0A35F5A9}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Identify #7 code smell</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FD40F59B-D27D-4EB2-AEDB-04F47CFD701D}" type="parTrans" cxnId="{750A7591-98F1-46BE-B923-660B6F5A1C11}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AEF85A08-18C7-46F9-86BB-83DCD71782BD}" type="sibTrans" cxnId="{750A7591-98F1-46BE-B923-660B6F5A1C11}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{98DBA7AD-A966-4778-9993-FFC58FFD443A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Identify #8 code smell</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7A3AE139-21E2-4591-87F2-E3CBE92F276E}" type="parTrans" cxnId="{AEF9A387-01A8-4091-A33D-4F847CC9C4A0}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F53A6D15-50E9-413F-9FA9-995F5503A7F8}" type="sibTrans" cxnId="{AEF9A387-01A8-4091-A33D-4F847CC9C4A0}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1856585C-F496-4D1A-91D4-9C6049A3D5CC}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Identify #9 code smell</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{51563709-27B5-4AAE-A213-7CDEAD1C97F0}" type="parTrans" cxnId="{D71121C1-36A7-43D7-BBF2-30EE9E6E9FBB}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B68FFCA6-6789-438D-98E2-53D8E3032456}" type="sibTrans" cxnId="{D71121C1-36A7-43D7-BBF2-30EE9E6E9FBB}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A993B3C9-2A80-4321-BC4C-F66E40511F31}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Identify #10 code smell</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7EEAE3D9-5BAA-4E17-988E-BEC0378600F5}" type="parTrans" cxnId="{A15427C3-A55F-4ED3-9CB3-FC9EDC37733C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A6B96823-FE10-4541-AB02-16E7528379B4}" type="sibTrans" cxnId="{A15427C3-A55F-4ED3-9CB3-FC9EDC37733C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2FB1E12B-2D65-4907-B713-0B3B9455EC30}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Identify #11 code smell</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{64E0F66F-F44C-42CC-BA32-324CB741F2DE}" type="parTrans" cxnId="{F4A936E8-F4A7-4402-9787-3EA0564E2AE8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E29F66BC-036C-46F8-A37E-C5F387F02F3B}" type="sibTrans" cxnId="{F4A936E8-F4A7-4402-9787-3EA0564E2AE8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C56DA5EB-3B6C-4EE9-999F-2D0CA885CA78}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Identify #12 code smell</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5195346B-D9DC-46E7-B8C8-002F9B402FB9}" type="parTrans" cxnId="{004B882F-E060-4AB7-8461-DCAF5A07F3DF}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8FD9F22F-A1BB-4C0C-8A6C-C7D25FBEF767}" type="sibTrans" cxnId="{004B882F-E060-4AB7-8461-DCAF5A07F3DF}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{46A6D132-0F91-49DA-A655-3A343510E1AD}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Identify #13 code smell</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B754C592-056A-404F-8918-5D9D0C0358EE}" type="parTrans" cxnId="{D20D3E7A-1879-46BC-960B-8E3333AC5069}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BD7087C4-AEB7-48D0-94C6-E93C1BFCBEB9}" type="sibTrans" cxnId="{D20D3E7A-1879-46BC-960B-8E3333AC5069}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{93EBB6C3-0A97-4EEA-9F8C-C1BD4DBEB527}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Identify #14 code smell</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BACCC757-8088-4F27-B4E7-A0D59010AB54}" type="parTrans" cxnId="{D97BE80C-3AD3-43A4-8959-3F815A747EA3}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{35A3CBB7-65D0-442F-945E-4E439C77FC47}" type="sibTrans" cxnId="{D97BE80C-3AD3-43A4-8959-3F815A747EA3}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E08C5A2D-CDC6-4E99-AD8F-202C0ADDE0EB}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Identify #15 code smell</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7022A028-8762-4A50-84DE-0A316521A2FF}" type="parTrans" cxnId="{94B9C977-71EF-49B4-994B-43CBBCB59580}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{042879A2-EDB0-4DF5-8C20-B5AFB6319BB0}" type="sibTrans" cxnId="{94B9C977-71EF-49B4-994B-43CBBCB59580}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -1515,7 +2235,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E03FCB79-5957-4BFF-8C3B-3C0CE92394BB}" type="pres">
-      <dgm:prSet presAssocID="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" presName="rootText" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="2" custLinFactNeighborX="769" custLinFactNeighborY="9224">
+      <dgm:prSet presAssocID="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" presName="rootText" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="2">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1531,7 +2251,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{940A1E40-786E-44D3-90E8-46DF581ADBFA}" type="pres">
-      <dgm:prSet presAssocID="{83AEE348-8605-4779-AA27-DF1CEF81FD88}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{83AEE348-8605-4779-AA27-DF1CEF81FD88}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="30"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C618B627-74A1-4A79-9931-779DBFD2087F}" type="pres">
@@ -1547,7 +2267,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4C822B57-F4AE-4BC3-8827-C7BDF0FF9A91}" type="pres">
-      <dgm:prSet presAssocID="{F77484B1-1710-466C-BBBF-BE25AA5DCF90}" presName="rootText" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="10" custLinFactNeighborX="-769" custLinFactNeighborY="15373">
+      <dgm:prSet presAssocID="{F77484B1-1710-466C-BBBF-BE25AA5DCF90}" presName="rootText" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="30">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1555,7 +2275,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B709B488-D8CB-4A6C-9CA0-6F3DC6B8704D}" type="pres">
-      <dgm:prSet presAssocID="{F77484B1-1710-466C-BBBF-BE25AA5DCF90}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{F77484B1-1710-466C-BBBF-BE25AA5DCF90}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="30"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{3D0E19A6-052F-4216-AE14-6A8BBB16D59A}" type="pres">
@@ -1567,7 +2287,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B7168AA4-DF23-402D-9C33-ADF72BD610B8}" type="pres">
-      <dgm:prSet presAssocID="{C86234D4-5FE8-4C2C-A8D7-F97FE16952E5}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{C86234D4-5FE8-4C2C-A8D7-F97FE16952E5}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="30"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{ED2D1B57-A6EF-4F86-8BBE-9164801F51D4}" type="pres">
@@ -1583,7 +2303,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E279A844-45D4-4FC6-87B7-72440F5D5DA0}" type="pres">
-      <dgm:prSet presAssocID="{E0316E49-B6C8-493D-A28E-E0B961FBC6AD}" presName="rootText" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="10" custLinFactNeighborX="-769" custLinFactNeighborY="15373">
+      <dgm:prSet presAssocID="{E0316E49-B6C8-493D-A28E-E0B961FBC6AD}" presName="rootText" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="30">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1591,7 +2311,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{AE0DEA63-392C-44D5-B780-12E5FF435E47}" type="pres">
-      <dgm:prSet presAssocID="{E0316E49-B6C8-493D-A28E-E0B961FBC6AD}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{E0316E49-B6C8-493D-A28E-E0B961FBC6AD}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="30"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{0F702727-E4E9-4E31-BF1E-6B6F2287223E}" type="pres">
@@ -1603,7 +2323,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4AA820E4-032C-4190-969E-7D835E7A14E7}" type="pres">
-      <dgm:prSet presAssocID="{808161B4-43C6-4363-AC59-E7CF58667E6E}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{808161B4-43C6-4363-AC59-E7CF58667E6E}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="30"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B191146A-A6F7-4380-AB1F-664B7B79CB7A}" type="pres">
@@ -1619,7 +2339,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2F674596-BD6E-400E-A2B8-07B718E1D21B}" type="pres">
-      <dgm:prSet presAssocID="{580E3BE0-46C0-45E0-8D39-9B982A586825}" presName="rootText" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="10" custLinFactNeighborX="-769" custLinFactNeighborY="15373">
+      <dgm:prSet presAssocID="{580E3BE0-46C0-45E0-8D39-9B982A586825}" presName="rootText" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="30">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1627,7 +2347,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{9368456D-39DC-467B-B356-2A7E651352A3}" type="pres">
-      <dgm:prSet presAssocID="{580E3BE0-46C0-45E0-8D39-9B982A586825}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{580E3BE0-46C0-45E0-8D39-9B982A586825}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="30"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B91243A3-8A6D-4F6A-9262-E86C24C3E45C}" type="pres">
@@ -1639,7 +2359,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{0B2C122B-DFD5-4E81-B4E6-2B33CEE66F49}" type="pres">
-      <dgm:prSet presAssocID="{8A2156E5-B58E-48A6-AF7C-DE799F9AAB53}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{8A2156E5-B58E-48A6-AF7C-DE799F9AAB53}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="30"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B949FB1A-6401-49B1-98D0-48B7F58CA9AA}" type="pres">
@@ -1655,7 +2375,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E8B7B306-E273-4F92-813D-28C9D79D62C9}" type="pres">
-      <dgm:prSet presAssocID="{664BFA91-1A05-4A8A-B942-6B39BAF0BA4D}" presName="rootText" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="10" custLinFactNeighborX="-769" custLinFactNeighborY="15373">
+      <dgm:prSet presAssocID="{664BFA91-1A05-4A8A-B942-6B39BAF0BA4D}" presName="rootText" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="30">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1663,7 +2383,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B323526E-6A0D-4642-8371-A6F3A1016B6A}" type="pres">
-      <dgm:prSet presAssocID="{664BFA91-1A05-4A8A-B942-6B39BAF0BA4D}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{664BFA91-1A05-4A8A-B942-6B39BAF0BA4D}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="30"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{89D16630-B4E6-4C68-8D20-71863381B530}" type="pres">
@@ -1675,7 +2395,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{6A072927-7888-40AD-9FC9-50DEDA31C956}" type="pres">
-      <dgm:prSet presAssocID="{A89EC362-FEE0-4A8A-A4CD-8EE30E3C2232}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="4" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{A89EC362-FEE0-4A8A-A4CD-8EE30E3C2232}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="4" presStyleCnt="30"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{132F11FF-6A47-4BDF-9875-BE011FDEB1F7}" type="pres">
@@ -1691,7 +2411,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B3D64B41-2F22-4E34-821C-D2D72D776A03}" type="pres">
-      <dgm:prSet presAssocID="{8759AA84-0801-4D9B-B148-C36A20201E7C}" presName="rootText" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="10" custLinFactNeighborX="-769" custLinFactNeighborY="15373">
+      <dgm:prSet presAssocID="{8759AA84-0801-4D9B-B148-C36A20201E7C}" presName="rootText" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="30">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1699,7 +2419,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4C2BDFFE-5460-49E7-A00C-22DC65BE4CB9}" type="pres">
-      <dgm:prSet presAssocID="{8759AA84-0801-4D9B-B148-C36A20201E7C}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{8759AA84-0801-4D9B-B148-C36A20201E7C}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="30"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{7661E66F-97B8-4696-8262-D6B7E005F6C3}" type="pres">
@@ -1708,6 +2428,366 @@
     </dgm:pt>
     <dgm:pt modelId="{2C99C696-8C19-45C1-AF73-BA67DB01C337}" type="pres">
       <dgm:prSet presAssocID="{8759AA84-0801-4D9B-B148-C36A20201E7C}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{40666CB8-443B-4687-B175-159697E79960}" type="pres">
+      <dgm:prSet presAssocID="{0ACEB9D5-75E1-4AAE-9D0D-C745E34D7DEA}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="5" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EC3AD8F9-59E1-49AC-A2B3-581020AD38BB}" type="pres">
+      <dgm:prSet presAssocID="{79845260-82E1-4302-ADB8-E3548D6C9EA0}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EF50B638-D736-4DBE-B1E7-99B125276D01}" type="pres">
+      <dgm:prSet presAssocID="{79845260-82E1-4302-ADB8-E3548D6C9EA0}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{034202E5-A306-411D-AC1D-AFA685DA16BC}" type="pres">
+      <dgm:prSet presAssocID="{79845260-82E1-4302-ADB8-E3548D6C9EA0}" presName="rootText" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="30">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B7D46C13-CE0D-43D1-8695-E9A2E0815BB2}" type="pres">
+      <dgm:prSet presAssocID="{79845260-82E1-4302-ADB8-E3548D6C9EA0}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F37EE3BB-F09B-4F8A-A5A6-7FA29FB17775}" type="pres">
+      <dgm:prSet presAssocID="{79845260-82E1-4302-ADB8-E3548D6C9EA0}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{76DB5495-8014-4A5F-ABAC-F7ABCC1E67EE}" type="pres">
+      <dgm:prSet presAssocID="{79845260-82E1-4302-ADB8-E3548D6C9EA0}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CA773655-A037-4E8E-A76E-21A662BD015A}" type="pres">
+      <dgm:prSet presAssocID="{4453BA53-2066-434B-AA54-E2AB0B04C80E}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D1753D48-81B9-431F-BE3F-08D1CC0D195F}" type="pres">
+      <dgm:prSet presAssocID="{D5A72B32-950B-470B-84BF-D727D560272F}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{83DF2F15-575F-4241-8505-AA906B4140FB}" type="pres">
+      <dgm:prSet presAssocID="{D5A72B32-950B-470B-84BF-D727D560272F}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D1CC369E-8336-4F75-B1B8-B4E38C873EE7}" type="pres">
+      <dgm:prSet presAssocID="{D5A72B32-950B-470B-84BF-D727D560272F}" presName="rootText" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="30">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4CD7D1EF-FE25-4DDC-89BB-AEC0F5371D44}" type="pres">
+      <dgm:prSet presAssocID="{D5A72B32-950B-470B-84BF-D727D560272F}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{42629045-484A-49F7-9DC7-6750C9C7FEE7}" type="pres">
+      <dgm:prSet presAssocID="{D5A72B32-950B-470B-84BF-D727D560272F}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8D79D3FE-1335-4756-9C27-BF7418E4B666}" type="pres">
+      <dgm:prSet presAssocID="{D5A72B32-950B-470B-84BF-D727D560272F}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{151E8BD4-FDD6-4D74-A379-314B53D2EB0F}" type="pres">
+      <dgm:prSet presAssocID="{8D6E5929-CA5C-4404-9CC7-F775EACFE012}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="7" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{56E17140-A16C-4858-809E-1265AF85386B}" type="pres">
+      <dgm:prSet presAssocID="{003AD82E-1CD4-40E1-807D-E799EE8CC72A}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{831A44AB-B9C6-411D-914C-A81C93BC9277}" type="pres">
+      <dgm:prSet presAssocID="{003AD82E-1CD4-40E1-807D-E799EE8CC72A}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B80A723C-D81E-4E81-9860-5C59F1C7A590}" type="pres">
+      <dgm:prSet presAssocID="{003AD82E-1CD4-40E1-807D-E799EE8CC72A}" presName="rootText" presStyleLbl="node4" presStyleIdx="7" presStyleCnt="30">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EBBDAC5D-D760-4C4D-B064-844F62EC27B2}" type="pres">
+      <dgm:prSet presAssocID="{003AD82E-1CD4-40E1-807D-E799EE8CC72A}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="7" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5D207032-4730-47DB-B686-E7BFB80AA3BC}" type="pres">
+      <dgm:prSet presAssocID="{003AD82E-1CD4-40E1-807D-E799EE8CC72A}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4886B3EC-99CC-4EBA-B47A-3A66CBACB6DD}" type="pres">
+      <dgm:prSet presAssocID="{003AD82E-1CD4-40E1-807D-E799EE8CC72A}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EB561D55-C797-403E-9247-227290E720A2}" type="pres">
+      <dgm:prSet presAssocID="{CCB16EC1-4F8A-4FB4-BD33-8E4F25872644}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="8" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8B72C670-973D-4733-A75D-F06BCBDBCAC7}" type="pres">
+      <dgm:prSet presAssocID="{E4704C8A-763D-4A72-A874-9D77E155837B}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7EA10259-8212-4BFB-8F7F-A03DB53FC53F}" type="pres">
+      <dgm:prSet presAssocID="{E4704C8A-763D-4A72-A874-9D77E155837B}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BE4AF244-EA91-4ACD-991D-8DF8AA207614}" type="pres">
+      <dgm:prSet presAssocID="{E4704C8A-763D-4A72-A874-9D77E155837B}" presName="rootText" presStyleLbl="node4" presStyleIdx="8" presStyleCnt="30">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EA8B48C8-06D0-48E0-A5CC-38637E884C2D}" type="pres">
+      <dgm:prSet presAssocID="{E4704C8A-763D-4A72-A874-9D77E155837B}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="8" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3EF4B1B9-4152-4E01-8D2B-5329CDCA740B}" type="pres">
+      <dgm:prSet presAssocID="{E4704C8A-763D-4A72-A874-9D77E155837B}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{66B3F7DC-16FF-4A9E-A6CC-31DD5907C6D4}" type="pres">
+      <dgm:prSet presAssocID="{E4704C8A-763D-4A72-A874-9D77E155837B}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{62FAA317-6055-4A11-9FD2-B8D29D23F76D}" type="pres">
+      <dgm:prSet presAssocID="{C26ADEE5-7AA8-4774-B683-AEB91F04A02F}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="9" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FECA7A43-FBDB-4924-B7CB-5F062465D704}" type="pres">
+      <dgm:prSet presAssocID="{BF4338EB-29BE-4A08-A7F2-66BB67ACBCD1}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{82D11F6E-646E-4D4B-89D9-B26309372B88}" type="pres">
+      <dgm:prSet presAssocID="{BF4338EB-29BE-4A08-A7F2-66BB67ACBCD1}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5C55D77A-EB93-4208-9812-124CF844F7EB}" type="pres">
+      <dgm:prSet presAssocID="{BF4338EB-29BE-4A08-A7F2-66BB67ACBCD1}" presName="rootText" presStyleLbl="node4" presStyleIdx="9" presStyleCnt="30">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{36DB12A0-2BA3-4C52-B707-C9B9CFC04BC4}" type="pres">
+      <dgm:prSet presAssocID="{BF4338EB-29BE-4A08-A7F2-66BB67ACBCD1}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="9" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{558366EA-CE93-4FE8-A8F2-F499302A8805}" type="pres">
+      <dgm:prSet presAssocID="{BF4338EB-29BE-4A08-A7F2-66BB67ACBCD1}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BB523726-5571-4DEC-941E-11003346F0EF}" type="pres">
+      <dgm:prSet presAssocID="{BF4338EB-29BE-4A08-A7F2-66BB67ACBCD1}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6C75879E-F76F-4938-8C16-05E3D54DA322}" type="pres">
+      <dgm:prSet presAssocID="{6393D3BC-DD67-4CFC-95FA-0E2F1B9AB123}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="10" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B39400EC-2AC7-4197-9A99-F4B43E1E0666}" type="pres">
+      <dgm:prSet presAssocID="{7FC4E244-860C-49B9-93EB-D304D2B2DE46}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{70EA24C2-292B-4CDA-B250-CBB1122CF6D8}" type="pres">
+      <dgm:prSet presAssocID="{7FC4E244-860C-49B9-93EB-D304D2B2DE46}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9CF4861E-0245-4BB7-AD7A-1C9E6435BFA9}" type="pres">
+      <dgm:prSet presAssocID="{7FC4E244-860C-49B9-93EB-D304D2B2DE46}" presName="rootText" presStyleLbl="node4" presStyleIdx="10" presStyleCnt="30">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3D0A6FE5-1124-4551-927A-CC9F79EC8E85}" type="pres">
+      <dgm:prSet presAssocID="{7FC4E244-860C-49B9-93EB-D304D2B2DE46}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="10" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{707A11BC-3DED-4B9C-8830-9B213B716EB4}" type="pres">
+      <dgm:prSet presAssocID="{7FC4E244-860C-49B9-93EB-D304D2B2DE46}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A8FEEC58-2205-4386-B7DD-EDDCF444541E}" type="pres">
+      <dgm:prSet presAssocID="{7FC4E244-860C-49B9-93EB-D304D2B2DE46}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6A9F99C6-1206-4AE2-93C0-56DFA7D723B6}" type="pres">
+      <dgm:prSet presAssocID="{A0134DC4-F4F7-4837-ACEB-1EF157331388}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="11" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E15CC92F-4133-49A0-8E55-EC20D63AC85D}" type="pres">
+      <dgm:prSet presAssocID="{10E10364-03F8-45C9-A5AA-8B95424FE183}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1655C103-0D61-482A-A359-724BBC95EFF0}" type="pres">
+      <dgm:prSet presAssocID="{10E10364-03F8-45C9-A5AA-8B95424FE183}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{668CF092-263E-4AF6-BBAF-62CD650BA2A1}" type="pres">
+      <dgm:prSet presAssocID="{10E10364-03F8-45C9-A5AA-8B95424FE183}" presName="rootText" presStyleLbl="node4" presStyleIdx="11" presStyleCnt="30">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9509858C-DA6E-492F-9E1F-455B716B18D5}" type="pres">
+      <dgm:prSet presAssocID="{10E10364-03F8-45C9-A5AA-8B95424FE183}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="11" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{87FD18BC-6DAC-4476-BFBF-480C15B4F170}" type="pres">
+      <dgm:prSet presAssocID="{10E10364-03F8-45C9-A5AA-8B95424FE183}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{77777DC2-465C-4E6B-A48F-8786230F1E34}" type="pres">
+      <dgm:prSet presAssocID="{10E10364-03F8-45C9-A5AA-8B95424FE183}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{86FCE211-AD72-4AA4-ACC1-8FAF63AF7E4A}" type="pres">
+      <dgm:prSet presAssocID="{ADC38089-320B-4900-907B-73C31EB12659}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="12" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CC95BC31-F60E-451A-8E2E-E3E2A3143C80}" type="pres">
+      <dgm:prSet presAssocID="{D42998D8-E553-4702-840E-4A0D5A8AB09F}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BFD7D8A5-2BF6-4F5C-972E-213C23158EFB}" type="pres">
+      <dgm:prSet presAssocID="{D42998D8-E553-4702-840E-4A0D5A8AB09F}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F451FEFB-462D-4AFC-AC93-3F62D47E2DCD}" type="pres">
+      <dgm:prSet presAssocID="{D42998D8-E553-4702-840E-4A0D5A8AB09F}" presName="rootText" presStyleLbl="node4" presStyleIdx="12" presStyleCnt="30">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8F86FE10-5318-4E88-8168-A558AB2ACE82}" type="pres">
+      <dgm:prSet presAssocID="{D42998D8-E553-4702-840E-4A0D5A8AB09F}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="12" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8AD298ED-0B15-48B5-AC13-6AD1D518ACC1}" type="pres">
+      <dgm:prSet presAssocID="{D42998D8-E553-4702-840E-4A0D5A8AB09F}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DAB2ABF0-123D-4AF9-B44F-8FB083EFB2B6}" type="pres">
+      <dgm:prSet presAssocID="{D42998D8-E553-4702-840E-4A0D5A8AB09F}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4462A072-B16F-488C-B3B0-06CAB3EF066C}" type="pres">
+      <dgm:prSet presAssocID="{02096D74-B1E3-4BFA-8DB2-EB35871A2D4A}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="13" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{79BC3F2D-7FFE-44BF-913C-91B75DEB3CB7}" type="pres">
+      <dgm:prSet presAssocID="{C614CB23-24F1-4DAF-9C9A-9CE38E3C2221}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{04C074F2-F210-4763-9021-5C2BEE67612C}" type="pres">
+      <dgm:prSet presAssocID="{C614CB23-24F1-4DAF-9C9A-9CE38E3C2221}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{76678D45-A4BF-462E-AA58-A21E20C8CE3C}" type="pres">
+      <dgm:prSet presAssocID="{C614CB23-24F1-4DAF-9C9A-9CE38E3C2221}" presName="rootText" presStyleLbl="node4" presStyleIdx="13" presStyleCnt="30">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C1A96332-F86C-4B7D-8F37-655F41921BB2}" type="pres">
+      <dgm:prSet presAssocID="{C614CB23-24F1-4DAF-9C9A-9CE38E3C2221}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="13" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C5E8B958-36D5-4D11-B29A-F98C7839426F}" type="pres">
+      <dgm:prSet presAssocID="{C614CB23-24F1-4DAF-9C9A-9CE38E3C2221}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8C978A03-B9F3-4958-887B-290C6636840C}" type="pres">
+      <dgm:prSet presAssocID="{C614CB23-24F1-4DAF-9C9A-9CE38E3C2221}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DCB733CD-003C-4237-9D36-3A5D818BEA91}" type="pres">
+      <dgm:prSet presAssocID="{5E29698D-4A46-4836-87B3-719525376E6B}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="14" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{79871C20-BEF0-44B8-992F-4FBD7BF7548E}" type="pres">
+      <dgm:prSet presAssocID="{9D2E271C-5369-40A0-A112-E9E5291E9458}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{45588827-540F-4374-A7FF-644095B4DF6C}" type="pres">
+      <dgm:prSet presAssocID="{9D2E271C-5369-40A0-A112-E9E5291E9458}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F55659BF-2C7B-4384-A7C4-51928F7AF7AA}" type="pres">
+      <dgm:prSet presAssocID="{9D2E271C-5369-40A0-A112-E9E5291E9458}" presName="rootText" presStyleLbl="node4" presStyleIdx="14" presStyleCnt="30">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E856B624-FCF7-4F0F-8752-BC08C46707C9}" type="pres">
+      <dgm:prSet presAssocID="{9D2E271C-5369-40A0-A112-E9E5291E9458}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="14" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{47EA6465-9517-427B-A757-1DABFD964ACD}" type="pres">
+      <dgm:prSet presAssocID="{9D2E271C-5369-40A0-A112-E9E5291E9458}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{59EC87B7-66D4-4FF6-A44B-4D3655AC275A}" type="pres">
+      <dgm:prSet presAssocID="{9D2E271C-5369-40A0-A112-E9E5291E9458}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{9626D237-078E-4498-ADBA-AED1BB2CB49A}" type="pres">
@@ -1731,7 +2811,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2346FA80-4170-4490-B513-3B8167E9CF6D}" type="pres">
-      <dgm:prSet presAssocID="{D88CF41F-726D-45E1-8E4B-099730725CCA}" presName="rootText" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="2" custLinFactNeighborX="769" custLinFactNeighborY="9224">
+      <dgm:prSet presAssocID="{D88CF41F-726D-45E1-8E4B-099730725CCA}" presName="rootText" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="2">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1747,7 +2827,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{6B80B0A3-0517-46E5-AB59-A39BB431537D}" type="pres">
-      <dgm:prSet presAssocID="{3F018DAE-8D7C-4F2A-A954-ED40FA4322B9}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="5" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{3F018DAE-8D7C-4F2A-A954-ED40FA4322B9}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="15" presStyleCnt="30"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{7CECA452-0CAB-4626-8C64-407DEFFA209B}" type="pres">
@@ -1763,7 +2843,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A621623C-A4B4-4EFF-9DDB-919CBB13BD7D}" type="pres">
-      <dgm:prSet presAssocID="{4A0ED956-98F8-4363-A99D-AC053F9DBC1E}" presName="rootText" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="10" custLinFactNeighborX="-769" custLinFactNeighborY="15373">
+      <dgm:prSet presAssocID="{4A0ED956-98F8-4363-A99D-AC053F9DBC1E}" presName="rootText" presStyleLbl="node4" presStyleIdx="15" presStyleCnt="30">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1771,7 +2851,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{3A53013F-A20B-42E1-8453-262ECD41950C}" type="pres">
-      <dgm:prSet presAssocID="{4A0ED956-98F8-4363-A99D-AC053F9DBC1E}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{4A0ED956-98F8-4363-A99D-AC053F9DBC1E}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="15" presStyleCnt="30"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4796EE31-4A4A-4C0B-B528-C054D7AA316F}" type="pres">
@@ -1783,7 +2863,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{06A72F5E-D38A-4765-A01E-AE4BE79A3521}" type="pres">
-      <dgm:prSet presAssocID="{A0F19EB1-ECC2-44B9-BD7E-43D52B9B4076}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{A0F19EB1-ECC2-44B9-BD7E-43D52B9B4076}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="16" presStyleCnt="30"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{1FFE64C4-4DDC-4773-9390-E38C2BCEF941}" type="pres">
@@ -1799,7 +2879,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{553033C2-5876-4B8E-A890-4C0EC9B33EAE}" type="pres">
-      <dgm:prSet presAssocID="{C109E34D-7EC7-4024-898E-26028BC9080B}" presName="rootText" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="10" custLinFactNeighborX="-769" custLinFactNeighborY="15373">
+      <dgm:prSet presAssocID="{C109E34D-7EC7-4024-898E-26028BC9080B}" presName="rootText" presStyleLbl="node4" presStyleIdx="16" presStyleCnt="30">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1807,7 +2887,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{ABD147C2-88AC-4736-866F-2C8D8DD9E6D5}" type="pres">
-      <dgm:prSet presAssocID="{C109E34D-7EC7-4024-898E-26028BC9080B}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{C109E34D-7EC7-4024-898E-26028BC9080B}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="16" presStyleCnt="30"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{AB3CE4B2-855F-4108-9CB1-3950D4683844}" type="pres">
@@ -1819,7 +2899,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E9383A15-8B63-4BD2-A73C-CC0FB9076A09}" type="pres">
-      <dgm:prSet presAssocID="{E9DE5A3A-DD3A-4606-B01C-A1B55BE06261}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="7" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{E9DE5A3A-DD3A-4606-B01C-A1B55BE06261}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="17" presStyleCnt="30"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F8BB01D9-689A-446D-8769-43B40ACD8B89}" type="pres">
@@ -1835,7 +2915,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{0FDB07CF-9BC6-4BC5-A769-7BA1F59A7701}" type="pres">
-      <dgm:prSet presAssocID="{EF8D04B1-7EAE-43A7-B687-265F2F4494FE}" presName="rootText" presStyleLbl="node4" presStyleIdx="7" presStyleCnt="10" custLinFactNeighborX="-769" custLinFactNeighborY="15373">
+      <dgm:prSet presAssocID="{EF8D04B1-7EAE-43A7-B687-265F2F4494FE}" presName="rootText" presStyleLbl="node4" presStyleIdx="17" presStyleCnt="30">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1843,7 +2923,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{45C49AD3-614C-4D6A-89A6-CCF6902BB813}" type="pres">
-      <dgm:prSet presAssocID="{EF8D04B1-7EAE-43A7-B687-265F2F4494FE}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="7" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{EF8D04B1-7EAE-43A7-B687-265F2F4494FE}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="17" presStyleCnt="30"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{622AD941-ECE0-4E54-BACA-753418427098}" type="pres">
@@ -1855,7 +2935,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{9214E589-C3A8-4F61-B595-128FB6348F64}" type="pres">
-      <dgm:prSet presAssocID="{CF99659C-0341-431F-836B-ADA8DB060E5D}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="8" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{CF99659C-0341-431F-836B-ADA8DB060E5D}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="18" presStyleCnt="30"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{642A6C1F-0847-417C-88AE-C5A3B04CAA2F}" type="pres">
@@ -1871,7 +2951,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{5364C193-691C-4413-BC49-B0A7BAE63A88}" type="pres">
-      <dgm:prSet presAssocID="{130FFC3E-4D72-4CD5-A272-E5C13B5D7796}" presName="rootText" presStyleLbl="node4" presStyleIdx="8" presStyleCnt="10" custLinFactNeighborX="-769" custLinFactNeighborY="15373">
+      <dgm:prSet presAssocID="{130FFC3E-4D72-4CD5-A272-E5C13B5D7796}" presName="rootText" presStyleLbl="node4" presStyleIdx="18" presStyleCnt="30">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1879,7 +2959,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2AC9DD2D-3129-4FA5-BFB5-57CFD04F24A4}" type="pres">
-      <dgm:prSet presAssocID="{130FFC3E-4D72-4CD5-A272-E5C13B5D7796}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="8" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{130FFC3E-4D72-4CD5-A272-E5C13B5D7796}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="18" presStyleCnt="30"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A2A2F867-96C9-4C99-B804-EC542F5F5B7D}" type="pres">
@@ -1891,7 +2971,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{DCD537AB-3A0D-46B6-A3F8-E170F6B9285D}" type="pres">
-      <dgm:prSet presAssocID="{9B7DC726-2791-4BD8-B651-3966803CC371}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="9" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{9B7DC726-2791-4BD8-B651-3966803CC371}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="19" presStyleCnt="30"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{DF7052BA-D90F-4B6B-80A8-E0378BCC74AF}" type="pres">
@@ -1907,7 +2987,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8377DBF6-2C6D-4C37-8668-E4C3FA2036F3}" type="pres">
-      <dgm:prSet presAssocID="{6CB22C70-F67C-4AB5-96D8-3B0D55E4B444}" presName="rootText" presStyleLbl="node4" presStyleIdx="9" presStyleCnt="10" custLinFactNeighborX="-769" custLinFactNeighborY="15373">
+      <dgm:prSet presAssocID="{6CB22C70-F67C-4AB5-96D8-3B0D55E4B444}" presName="rootText" presStyleLbl="node4" presStyleIdx="19" presStyleCnt="30">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1915,7 +2995,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{50A81B0C-37DD-4089-B0DB-8748916AFD3F}" type="pres">
-      <dgm:prSet presAssocID="{6CB22C70-F67C-4AB5-96D8-3B0D55E4B444}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="9" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{6CB22C70-F67C-4AB5-96D8-3B0D55E4B444}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="19" presStyleCnt="30"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{80139A4E-65B8-4B0E-8F30-4EC91DB290E3}" type="pres">
@@ -1924,6 +3004,366 @@
     </dgm:pt>
     <dgm:pt modelId="{FCAC1618-280B-421F-9972-E0C1A9AF4C2F}" type="pres">
       <dgm:prSet presAssocID="{6CB22C70-F67C-4AB5-96D8-3B0D55E4B444}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{19502CEF-F15F-44D6-9949-0C5B61766BDE}" type="pres">
+      <dgm:prSet presAssocID="{B9D3841F-2FF1-4089-AFDB-51D3FF22D0EA}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="20" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{034AEA08-82AF-4FE1-9170-BD8A2EA95D1A}" type="pres">
+      <dgm:prSet presAssocID="{3BB78B12-0C6E-4103-85DC-D5A0CE315834}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F1DF6CD5-251D-4C54-AAD8-045807C06B97}" type="pres">
+      <dgm:prSet presAssocID="{3BB78B12-0C6E-4103-85DC-D5A0CE315834}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9C4FCAFC-8B23-400A-9000-BB533BBF55A4}" type="pres">
+      <dgm:prSet presAssocID="{3BB78B12-0C6E-4103-85DC-D5A0CE315834}" presName="rootText" presStyleLbl="node4" presStyleIdx="20" presStyleCnt="30">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8C09FF33-8040-4CBF-A5BA-6AA1BC5C3CDC}" type="pres">
+      <dgm:prSet presAssocID="{3BB78B12-0C6E-4103-85DC-D5A0CE315834}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="20" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{24068B70-95AC-44FF-9224-D7E4D7D1B9E1}" type="pres">
+      <dgm:prSet presAssocID="{3BB78B12-0C6E-4103-85DC-D5A0CE315834}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CF94FD72-30D2-49EF-B213-1577E48AD271}" type="pres">
+      <dgm:prSet presAssocID="{3BB78B12-0C6E-4103-85DC-D5A0CE315834}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D1867E0F-A6C1-4B3A-AE01-E50BD1D97C34}" type="pres">
+      <dgm:prSet presAssocID="{FD40F59B-D27D-4EB2-AEDB-04F47CFD701D}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="21" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{ACA59CFC-875A-4C6F-BCAE-F8774C2ABBD9}" type="pres">
+      <dgm:prSet presAssocID="{72A1D041-04F5-42AC-A70B-D51C0A35F5A9}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8C57B1D1-1A10-4BA2-BA9D-F0A1B2B81613}" type="pres">
+      <dgm:prSet presAssocID="{72A1D041-04F5-42AC-A70B-D51C0A35F5A9}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{94ADB526-A020-4BA1-997E-8EC2B6D0C51E}" type="pres">
+      <dgm:prSet presAssocID="{72A1D041-04F5-42AC-A70B-D51C0A35F5A9}" presName="rootText" presStyleLbl="node4" presStyleIdx="21" presStyleCnt="30">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{64B51C91-A3C6-443C-92DA-65AA8875F5ED}" type="pres">
+      <dgm:prSet presAssocID="{72A1D041-04F5-42AC-A70B-D51C0A35F5A9}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="21" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D6E0A11B-8E2A-494B-99F4-B5FFF187837E}" type="pres">
+      <dgm:prSet presAssocID="{72A1D041-04F5-42AC-A70B-D51C0A35F5A9}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{803C40C5-549E-4289-A905-5FE19BE2E3CA}" type="pres">
+      <dgm:prSet presAssocID="{72A1D041-04F5-42AC-A70B-D51C0A35F5A9}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E058AF84-D282-49D0-BF6A-8603F553AF8C}" type="pres">
+      <dgm:prSet presAssocID="{7A3AE139-21E2-4591-87F2-E3CBE92F276E}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="22" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{59EB3506-55C4-474F-9A2F-B75E0C2B4DA4}" type="pres">
+      <dgm:prSet presAssocID="{98DBA7AD-A966-4778-9993-FFC58FFD443A}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0CA61C14-11CA-4696-9340-3FCFE5CA9865}" type="pres">
+      <dgm:prSet presAssocID="{98DBA7AD-A966-4778-9993-FFC58FFD443A}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{92FA4009-924C-45F2-A4B2-98F3BF76A74E}" type="pres">
+      <dgm:prSet presAssocID="{98DBA7AD-A966-4778-9993-FFC58FFD443A}" presName="rootText" presStyleLbl="node4" presStyleIdx="22" presStyleCnt="30">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{90AA69BC-2A6B-42F6-8D7F-677D3A5D5712}" type="pres">
+      <dgm:prSet presAssocID="{98DBA7AD-A966-4778-9993-FFC58FFD443A}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="22" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3A971B60-0D10-415D-A677-15E4669F5959}" type="pres">
+      <dgm:prSet presAssocID="{98DBA7AD-A966-4778-9993-FFC58FFD443A}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A4DC12F5-B101-4785-B75A-26B75FB72AA0}" type="pres">
+      <dgm:prSet presAssocID="{98DBA7AD-A966-4778-9993-FFC58FFD443A}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D20AB62E-0A28-4725-A96B-DB93136DEB94}" type="pres">
+      <dgm:prSet presAssocID="{51563709-27B5-4AAE-A213-7CDEAD1C97F0}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="23" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{01B73D72-AF49-4363-B7DD-900E0B844ADB}" type="pres">
+      <dgm:prSet presAssocID="{1856585C-F496-4D1A-91D4-9C6049A3D5CC}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{87C2AC92-6BD7-495C-BAFD-6329F8B335AF}" type="pres">
+      <dgm:prSet presAssocID="{1856585C-F496-4D1A-91D4-9C6049A3D5CC}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8555AF53-E540-42F4-93F7-3DF51192CE43}" type="pres">
+      <dgm:prSet presAssocID="{1856585C-F496-4D1A-91D4-9C6049A3D5CC}" presName="rootText" presStyleLbl="node4" presStyleIdx="23" presStyleCnt="30">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5C56B04C-CE24-49ED-A215-1DDBC570C41C}" type="pres">
+      <dgm:prSet presAssocID="{1856585C-F496-4D1A-91D4-9C6049A3D5CC}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="23" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A68AA468-78D0-4C03-B517-B2470EC52EF8}" type="pres">
+      <dgm:prSet presAssocID="{1856585C-F496-4D1A-91D4-9C6049A3D5CC}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2EAB7C98-0EFC-4E44-AD66-2D20948AA8FC}" type="pres">
+      <dgm:prSet presAssocID="{1856585C-F496-4D1A-91D4-9C6049A3D5CC}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D22CEA13-A994-41AF-A767-E13A2F0BF873}" type="pres">
+      <dgm:prSet presAssocID="{7EEAE3D9-5BAA-4E17-988E-BEC0378600F5}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="24" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A22ED266-A94B-4A90-AC17-574E48B585EA}" type="pres">
+      <dgm:prSet presAssocID="{A993B3C9-2A80-4321-BC4C-F66E40511F31}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D5D04EDD-9C1E-404C-AE72-019BF1C209E1}" type="pres">
+      <dgm:prSet presAssocID="{A993B3C9-2A80-4321-BC4C-F66E40511F31}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DABCEE72-0C26-488F-A916-BEAA00793522}" type="pres">
+      <dgm:prSet presAssocID="{A993B3C9-2A80-4321-BC4C-F66E40511F31}" presName="rootText" presStyleLbl="node4" presStyleIdx="24" presStyleCnt="30">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F4D8AA2B-8239-40E2-8531-3B9B8B8631FC}" type="pres">
+      <dgm:prSet presAssocID="{A993B3C9-2A80-4321-BC4C-F66E40511F31}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="24" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{083A12C8-4DA2-411F-860E-2E47448B721C}" type="pres">
+      <dgm:prSet presAssocID="{A993B3C9-2A80-4321-BC4C-F66E40511F31}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{13C3537C-7D1B-4C58-B0DF-AD722F0574BF}" type="pres">
+      <dgm:prSet presAssocID="{A993B3C9-2A80-4321-BC4C-F66E40511F31}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DD7C3817-1535-4989-A715-ED9225A16449}" type="pres">
+      <dgm:prSet presAssocID="{64E0F66F-F44C-42CC-BA32-324CB741F2DE}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="25" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5F165F4C-9159-46C9-8A91-CF40FB58C5D0}" type="pres">
+      <dgm:prSet presAssocID="{2FB1E12B-2D65-4907-B713-0B3B9455EC30}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{239F296F-19C8-47E1-82E4-15AF15DCBD31}" type="pres">
+      <dgm:prSet presAssocID="{2FB1E12B-2D65-4907-B713-0B3B9455EC30}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{57EF05D5-DE66-42F1-A5FD-137AEAEE6520}" type="pres">
+      <dgm:prSet presAssocID="{2FB1E12B-2D65-4907-B713-0B3B9455EC30}" presName="rootText" presStyleLbl="node4" presStyleIdx="25" presStyleCnt="30">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B900FCA4-9A27-401A-9276-084788597840}" type="pres">
+      <dgm:prSet presAssocID="{2FB1E12B-2D65-4907-B713-0B3B9455EC30}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="25" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{55BEB59D-BA36-491E-A5F3-F0A4B9977058}" type="pres">
+      <dgm:prSet presAssocID="{2FB1E12B-2D65-4907-B713-0B3B9455EC30}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3C253529-3DE1-4BED-B663-975ABFA93969}" type="pres">
+      <dgm:prSet presAssocID="{2FB1E12B-2D65-4907-B713-0B3B9455EC30}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0C7A2B53-021A-45BF-893F-320B0AC1D661}" type="pres">
+      <dgm:prSet presAssocID="{5195346B-D9DC-46E7-B8C8-002F9B402FB9}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="26" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{ADF65070-9031-4980-84A6-BCD1F844FBE3}" type="pres">
+      <dgm:prSet presAssocID="{C56DA5EB-3B6C-4EE9-999F-2D0CA885CA78}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6B9B61E7-A459-4833-8C00-A852A906598C}" type="pres">
+      <dgm:prSet presAssocID="{C56DA5EB-3B6C-4EE9-999F-2D0CA885CA78}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{73837448-C5E4-47F1-AD86-405AB04C815E}" type="pres">
+      <dgm:prSet presAssocID="{C56DA5EB-3B6C-4EE9-999F-2D0CA885CA78}" presName="rootText" presStyleLbl="node4" presStyleIdx="26" presStyleCnt="30">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D14EC898-90F2-4052-BB50-26871FCEA726}" type="pres">
+      <dgm:prSet presAssocID="{C56DA5EB-3B6C-4EE9-999F-2D0CA885CA78}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="26" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9E7697A5-D588-4887-A599-58F37CE6E39A}" type="pres">
+      <dgm:prSet presAssocID="{C56DA5EB-3B6C-4EE9-999F-2D0CA885CA78}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DDF0B78C-BAE8-490F-B3D1-746AFCED89D8}" type="pres">
+      <dgm:prSet presAssocID="{C56DA5EB-3B6C-4EE9-999F-2D0CA885CA78}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D0DD37A2-E432-454B-9C01-D910FDEE8395}" type="pres">
+      <dgm:prSet presAssocID="{B754C592-056A-404F-8918-5D9D0C0358EE}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="27" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{16A9B1FB-A3C3-4948-848D-8C1CAED0BC77}" type="pres">
+      <dgm:prSet presAssocID="{46A6D132-0F91-49DA-A655-3A343510E1AD}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{04E3B5F9-C0A4-4A8C-8E93-DE71A1FF2A28}" type="pres">
+      <dgm:prSet presAssocID="{46A6D132-0F91-49DA-A655-3A343510E1AD}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6CC28567-0539-4C4C-ABA7-87CF6B5A944A}" type="pres">
+      <dgm:prSet presAssocID="{46A6D132-0F91-49DA-A655-3A343510E1AD}" presName="rootText" presStyleLbl="node4" presStyleIdx="27" presStyleCnt="30">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{530760B1-71E6-46B4-AB7F-0810A2D858A2}" type="pres">
+      <dgm:prSet presAssocID="{46A6D132-0F91-49DA-A655-3A343510E1AD}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="27" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{97E70A90-3520-44DB-8272-EC21FDA51A9A}" type="pres">
+      <dgm:prSet presAssocID="{46A6D132-0F91-49DA-A655-3A343510E1AD}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1D54E004-9ED5-4B9E-9DE9-EE0A480141A3}" type="pres">
+      <dgm:prSet presAssocID="{46A6D132-0F91-49DA-A655-3A343510E1AD}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B77D35BF-01B2-4249-A9D9-4DD7B7DD24D7}" type="pres">
+      <dgm:prSet presAssocID="{BACCC757-8088-4F27-B4E7-A0D59010AB54}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="28" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D11A3BFF-588F-43A6-9454-1EF42110E92F}" type="pres">
+      <dgm:prSet presAssocID="{93EBB6C3-0A97-4EEA-9F8C-C1BD4DBEB527}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2C252087-4D3D-40A0-9589-B8CDD8D2672B}" type="pres">
+      <dgm:prSet presAssocID="{93EBB6C3-0A97-4EEA-9F8C-C1BD4DBEB527}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{13A3E99F-5973-4CE8-9FCA-1D58D17E0A9E}" type="pres">
+      <dgm:prSet presAssocID="{93EBB6C3-0A97-4EEA-9F8C-C1BD4DBEB527}" presName="rootText" presStyleLbl="node4" presStyleIdx="28" presStyleCnt="30">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{58752E66-7507-4FD9-9F8B-77718383E39B}" type="pres">
+      <dgm:prSet presAssocID="{93EBB6C3-0A97-4EEA-9F8C-C1BD4DBEB527}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="28" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A10B7091-6DCB-4C40-842F-7A113E9A41D0}" type="pres">
+      <dgm:prSet presAssocID="{93EBB6C3-0A97-4EEA-9F8C-C1BD4DBEB527}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6CFA686B-1D62-425C-890A-BC783A877BF8}" type="pres">
+      <dgm:prSet presAssocID="{93EBB6C3-0A97-4EEA-9F8C-C1BD4DBEB527}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8D5440F9-20EB-41BF-8A9C-75EC84F9488B}" type="pres">
+      <dgm:prSet presAssocID="{7022A028-8762-4A50-84DE-0A316521A2FF}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="29" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{22699568-7250-42FB-8F89-6E8861519D72}" type="pres">
+      <dgm:prSet presAssocID="{E08C5A2D-CDC6-4E99-AD8F-202C0ADDE0EB}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{158AB39E-4F10-42D7-80E1-5E5627F003F1}" type="pres">
+      <dgm:prSet presAssocID="{E08C5A2D-CDC6-4E99-AD8F-202C0ADDE0EB}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A37CA279-8366-44BD-BE89-08D99C3AE0FD}" type="pres">
+      <dgm:prSet presAssocID="{E08C5A2D-CDC6-4E99-AD8F-202C0ADDE0EB}" presName="rootText" presStyleLbl="node4" presStyleIdx="29" presStyleCnt="30">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3CA6ACBF-AE76-47E9-8284-DABBAD1E1609}" type="pres">
+      <dgm:prSet presAssocID="{E08C5A2D-CDC6-4E99-AD8F-202C0ADDE0EB}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="29" presStyleCnt="30"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A22C39CD-585A-44BD-B1EE-269D787AB609}" type="pres">
+      <dgm:prSet presAssocID="{E08C5A2D-CDC6-4E99-AD8F-202C0ADDE0EB}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{38A819A7-F07F-4ADE-9C76-BC61F3C78B05}" type="pres">
+      <dgm:prSet presAssocID="{E08C5A2D-CDC6-4E99-AD8F-202C0ADDE0EB}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{5B3B9E92-E388-40B9-B07D-6406E18F3FF2}" type="pres">
@@ -1951,7 +3391,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{FB20A176-8702-4060-9AC0-535BADA6E841}" type="pres">
-      <dgm:prSet presAssocID="{6514F17A-9CA9-45F3-8667-9DA0345A33DC}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="1" presStyleCnt="2" custLinFactNeighborX="92536" custLinFactNeighborY="4612">
+      <dgm:prSet presAssocID="{6514F17A-9CA9-45F3-8667-9DA0345A33DC}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="1" presStyleCnt="2" custLinFactNeighborX="79880" custLinFactNeighborY="4993">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1976,62 +3416,142 @@
     <dgm:cxn modelId="{6C837404-BDF2-426D-8B7F-7B2413A0541C}" type="presOf" srcId="{6514F17A-9CA9-45F3-8667-9DA0345A33DC}" destId="{3B35491A-A0E7-47C1-8C97-C81F6EF596AF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{B7AC7307-5FE4-4059-A26B-7ABDC0E55E60}" type="presOf" srcId="{EF8D04B1-7EAE-43A7-B687-265F2F4494FE}" destId="{0FDB07CF-9BC6-4BC5-A769-7BA1F59A7701}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{CB079C0A-E96D-4215-8861-E9C8F0B88FB3}" srcId="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" destId="{8759AA84-0801-4D9B-B148-C36A20201E7C}" srcOrd="4" destOrd="0" parTransId="{A89EC362-FEE0-4A8A-A4CD-8EE30E3C2232}" sibTransId="{85F50592-2020-47EF-B511-39D5F42AD2C0}"/>
+    <dgm:cxn modelId="{184DED0B-8213-47FD-8D6F-885F394F4F8E}" type="presOf" srcId="{93EBB6C3-0A97-4EEA-9F8C-C1BD4DBEB527}" destId="{13A3E99F-5973-4CE8-9FCA-1D58D17E0A9E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{AD66020C-B502-449F-92F4-5C3CCC1B6784}" type="presOf" srcId="{A0F19EB1-ECC2-44B9-BD7E-43D52B9B4076}" destId="{06A72F5E-D38A-4765-A01E-AE4BE79A3521}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D97BE80C-3AD3-43A4-8959-3F815A747EA3}" srcId="{D88CF41F-726D-45E1-8E4B-099730725CCA}" destId="{93EBB6C3-0A97-4EEA-9F8C-C1BD4DBEB527}" srcOrd="13" destOrd="0" parTransId="{BACCC757-8088-4F27-B4E7-A0D59010AB54}" sibTransId="{35A3CBB7-65D0-442F-945E-4E439C77FC47}"/>
+    <dgm:cxn modelId="{A480190E-1800-4ACA-9052-4AD827BF9A69}" type="presOf" srcId="{C56DA5EB-3B6C-4EE9-999F-2D0CA885CA78}" destId="{D14EC898-90F2-4052-BB50-26871FCEA726}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7BFCF60E-5302-498C-9A2A-975C6A009F21}" type="presOf" srcId="{79845260-82E1-4302-ADB8-E3548D6C9EA0}" destId="{034202E5-A306-411D-AC1D-AFA685DA16BC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{463EB010-CCBC-496F-BB48-4ED73DBAF444}" type="presOf" srcId="{4453BA53-2066-434B-AA54-E2AB0B04C80E}" destId="{CA773655-A037-4E8E-A76E-21A662BD015A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{4039C010-5D22-4C2C-B524-B39ECD4213E8}" srcId="{D88CF41F-726D-45E1-8E4B-099730725CCA}" destId="{130FFC3E-4D72-4CD5-A272-E5C13B5D7796}" srcOrd="3" destOrd="0" parTransId="{CF99659C-0341-431F-836B-ADA8DB060E5D}" sibTransId="{5263ADBB-4CB2-4724-AB3E-2EC30F833B17}"/>
     <dgm:cxn modelId="{A3833513-938F-41AC-9CBC-5F255A6AFDC9}" type="presOf" srcId="{A81B9733-8A35-4CFA-922F-3E1460FB9DD1}" destId="{CC8085AC-E0BD-427E-8B14-DD29D8DF737D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{D5930514-D67B-4AD3-96E5-B2F93805854C}" srcId="{D52D180F-96AF-47C2-A602-E250A0E9F4DE}" destId="{5ECDC39F-A1F6-4D11-8EFB-7D93E98DC8AE}" srcOrd="0" destOrd="0" parTransId="{E9EE1F5C-6D28-4ABF-B21B-22A518182E07}" sibTransId="{1B511CDA-E60E-4A9D-869D-67BA3950AAFA}"/>
     <dgm:cxn modelId="{66149316-B5F5-448C-87C3-CD14927DCEDB}" type="presOf" srcId="{E9DE5A3A-DD3A-4606-B01C-A1B55BE06261}" destId="{E9383A15-8B63-4BD2-A73C-CC0FB9076A09}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{A3AC4117-7C65-4662-AD45-9409794DCCEA}" srcId="{D88CF41F-726D-45E1-8E4B-099730725CCA}" destId="{6CB22C70-F67C-4AB5-96D8-3B0D55E4B444}" srcOrd="4" destOrd="0" parTransId="{9B7DC726-2791-4BD8-B651-3966803CC371}" sibTransId="{82279076-CBC8-4F4C-B450-C772C186058C}"/>
+    <dgm:cxn modelId="{AC04CE18-55F4-4E05-B225-9EFC5F8A75FD}" srcId="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" destId="{E4704C8A-763D-4A72-A874-9D77E155837B}" srcOrd="8" destOrd="0" parTransId="{CCB16EC1-4F8A-4FB4-BD33-8E4F25872644}" sibTransId="{85A913C8-5278-463D-838F-4B9EB9E8A116}"/>
+    <dgm:cxn modelId="{2D16041C-59B0-4D1B-8059-43A5A3345E33}" type="presOf" srcId="{2FB1E12B-2D65-4907-B713-0B3B9455EC30}" destId="{57EF05D5-DE66-42F1-A5FD-137AEAEE6520}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CF8B731C-5F94-40B2-9F2A-95010E854702}" type="presOf" srcId="{E08C5A2D-CDC6-4E99-AD8F-202C0ADDE0EB}" destId="{3CA6ACBF-AE76-47E9-8284-DABBAD1E1609}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4754491F-2359-4C03-B655-2E87316B5597}" type="presOf" srcId="{003AD82E-1CD4-40E1-807D-E799EE8CC72A}" destId="{B80A723C-D81E-4E81-9860-5C59F1C7A590}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6C53FC21-06D5-447B-8138-98AFE311AF0E}" type="presOf" srcId="{6393D3BC-DD67-4CFC-95FA-0E2F1B9AB123}" destId="{6C75879E-F76F-4938-8C16-05E3D54DA322}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D214CE22-9167-44FC-8094-4F4F906D9A59}" type="presOf" srcId="{7FC4E244-860C-49B9-93EB-D304D2B2DE46}" destId="{9CF4861E-0245-4BB7-AD7A-1C9E6435BFA9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{B685C824-5725-46B3-91AE-F4C720608EBE}" type="presOf" srcId="{C86234D4-5FE8-4C2C-A8D7-F97FE16952E5}" destId="{B7168AA4-DF23-402D-9C33-ADF72BD610B8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0B51CD27-27FC-4FA9-B90B-2EC437DA4981}" type="presOf" srcId="{ADC38089-320B-4900-907B-73C31EB12659}" destId="{86FCE211-AD72-4AA4-ACC1-8FAF63AF7E4A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{D5782229-9CDA-4638-B6A3-5E39492F40DB}" type="presOf" srcId="{C4184C6B-7BC1-4A24-9C77-9D1343789F99}" destId="{7100973C-306F-4295-9C5F-44EFDDDA4312}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E536372D-9CEB-4D11-9A22-15970A2FED68}" type="presOf" srcId="{9D2E271C-5369-40A0-A112-E9E5291E9458}" destId="{F55659BF-2C7B-4384-A7C4-51928F7AF7AA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{004B882F-E060-4AB7-8461-DCAF5A07F3DF}" srcId="{D88CF41F-726D-45E1-8E4B-099730725CCA}" destId="{C56DA5EB-3B6C-4EE9-999F-2D0CA885CA78}" srcOrd="11" destOrd="0" parTransId="{5195346B-D9DC-46E7-B8C8-002F9B402FB9}" sibTransId="{8FD9F22F-A1BB-4C0C-8A6C-C7D25FBEF767}"/>
     <dgm:cxn modelId="{D8587833-2402-443A-9C31-FAC17B31573B}" type="presOf" srcId="{26A435DA-2907-44C5-BEF9-0BBDDE129E01}" destId="{9593703F-A345-419B-A57F-E3E9A1D5D9C9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{834A9B33-A3A9-481E-9342-CB660757C56E}" type="presOf" srcId="{C614CB23-24F1-4DAF-9C9A-9CE38E3C2221}" destId="{C1A96332-F86C-4B7D-8F37-655F41921BB2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{B0FBA435-6813-4AB6-86BF-0C2984816FA3}" type="presOf" srcId="{8759AA84-0801-4D9B-B148-C36A20201E7C}" destId="{4C2BDFFE-5460-49E7-A00C-22DC65BE4CB9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A482A437-03F4-4259-9B91-29CEFC1A7646}" type="presOf" srcId="{79845260-82E1-4302-ADB8-E3548D6C9EA0}" destId="{B7D46C13-CE0D-43D1-8695-E9A2E0815BB2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C6E91938-7A1F-488A-B634-1D435457E4B1}" srcId="{D88CF41F-726D-45E1-8E4B-099730725CCA}" destId="{3BB78B12-0C6E-4103-85DC-D5A0CE315834}" srcOrd="5" destOrd="0" parTransId="{B9D3841F-2FF1-4089-AFDB-51D3FF22D0EA}" sibTransId="{D8B10476-310E-422D-BEE0-A3B46718BEFD}"/>
+    <dgm:cxn modelId="{283B1F38-1ED4-4438-8998-820A7ED09671}" type="presOf" srcId="{1856585C-F496-4D1A-91D4-9C6049A3D5CC}" destId="{5C56B04C-CE24-49ED-A215-1DDBC570C41C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{99EE6138-6644-4462-8824-118CAE4D89D9}" type="presOf" srcId="{72A1D041-04F5-42AC-A70B-D51C0A35F5A9}" destId="{64B51C91-A3C6-443C-92DA-65AA8875F5ED}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{2FFE4238-A9B2-437E-8005-07FDC4A3378C}" type="presOf" srcId="{F77484B1-1710-466C-BBBF-BE25AA5DCF90}" destId="{B709B488-D8CB-4A6C-9CA0-6F3DC6B8704D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{594D663C-C3CD-45C2-B004-867C61530BD6}" type="presOf" srcId="{51563709-27B5-4AAE-A213-7CDEAD1C97F0}" destId="{D20AB62E-0A28-4725-A96B-DB93136DEB94}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{43606B3C-74D6-44BD-ACE9-DD2D4789BF3B}" type="presOf" srcId="{9D2E271C-5369-40A0-A112-E9E5291E9458}" destId="{E856B624-FCF7-4F0F-8752-BC08C46707C9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{38819E3C-27EF-46E9-A1E5-1260FD640A13}" srcId="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" destId="{C614CB23-24F1-4DAF-9C9A-9CE38E3C2221}" srcOrd="13" destOrd="0" parTransId="{02096D74-B1E3-4BFA-8DB2-EB35871A2D4A}" sibTransId="{D3776FCB-88E5-4DE1-8314-ACF334AF1CB9}"/>
+    <dgm:cxn modelId="{31CE903D-DE0A-4103-A407-E9795E92A0FE}" srcId="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" destId="{BF4338EB-29BE-4A08-A7F2-66BB67ACBCD1}" srcOrd="9" destOrd="0" parTransId="{C26ADEE5-7AA8-4774-B683-AEB91F04A02F}" sibTransId="{B72BFD68-95F2-4038-ACA6-7534DC7835C6}"/>
     <dgm:cxn modelId="{4F4A885C-BA14-416D-96D8-5FCB8F390E1E}" type="presOf" srcId="{4A0ED956-98F8-4363-A99D-AC053F9DBC1E}" destId="{3A53013F-A20B-42E1-8453-262ECD41950C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8384E742-7C40-42E8-B870-62B7D8F39B08}" type="presOf" srcId="{93EBB6C3-0A97-4EEA-9F8C-C1BD4DBEB527}" destId="{58752E66-7507-4FD9-9F8B-77718383E39B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{1B6AC464-BB1D-4F0E-9634-E23AF5B0A79F}" type="presOf" srcId="{9B7DC726-2791-4BD8-B651-3966803CC371}" destId="{DCD537AB-3A0D-46B6-A3F8-E170F6B9285D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2754CE44-4981-4146-ADF7-BC61D6FF1C9D}" type="presOf" srcId="{3BB78B12-0C6E-4103-85DC-D5A0CE315834}" destId="{8C09FF33-8040-4CBF-A5BA-6AA1BC5C3CDC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7B4D8C48-02AA-4250-8FC2-38BE81966427}" type="presOf" srcId="{D5A72B32-950B-470B-84BF-D727D560272F}" destId="{4CD7D1EF-FE25-4DDC-89BB-AEC0F5371D44}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{83359469-AC66-4EC8-9584-0337101AA05D}" srcId="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" destId="{7FC4E244-860C-49B9-93EB-D304D2B2DE46}" srcOrd="10" destOrd="0" parTransId="{6393D3BC-DD67-4CFC-95FA-0E2F1B9AB123}" sibTransId="{A07A3FBB-856E-4EB8-B375-95F45F22125E}"/>
+    <dgm:cxn modelId="{6941276A-BED1-45EB-A84C-9FE12AA9101F}" type="presOf" srcId="{A993B3C9-2A80-4321-BC4C-F66E40511F31}" destId="{DABCEE72-0C26-488F-A916-BEAA00793522}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{F29D296A-5150-474B-B82D-BA6AB60047C9}" type="presOf" srcId="{130FFC3E-4D72-4CD5-A272-E5C13B5D7796}" destId="{5364C193-691C-4413-BC49-B0A7BAE63A88}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{92A0F56A-B2B3-4C71-A338-DFDB56FC2B5A}" srcId="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" destId="{D42998D8-E553-4702-840E-4A0D5A8AB09F}" srcOrd="12" destOrd="0" parTransId="{ADC38089-320B-4900-907B-73C31EB12659}" sibTransId="{ED541A2E-6B37-4FBE-9A40-4A76A7A07C69}"/>
     <dgm:cxn modelId="{F49E754B-B120-4E19-8B99-5ECFC7A6F9E4}" type="presOf" srcId="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" destId="{E03FCB79-5957-4BFF-8C3B-3C0CE92394BB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FD8ACA4B-CE11-4E03-A447-22AE0C6996F6}" type="presOf" srcId="{B754C592-056A-404F-8918-5D9D0C0358EE}" destId="{D0DD37A2-E432-454B-9C01-D910FDEE8395}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{04FEDE4B-7F89-43B4-B53F-E504545927CE}" type="presOf" srcId="{3BB78B12-0C6E-4103-85DC-D5A0CE315834}" destId="{9C4FCAFC-8B23-400A-9000-BB533BBF55A4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{CC68666C-E8B7-4A83-8994-0585D7C3A868}" srcId="{D88CF41F-726D-45E1-8E4B-099730725CCA}" destId="{C109E34D-7EC7-4024-898E-26028BC9080B}" srcOrd="1" destOrd="0" parTransId="{A0F19EB1-ECC2-44B9-BD7E-43D52B9B4076}" sibTransId="{3F1D99AB-186D-4556-A1A6-845403DD3847}"/>
     <dgm:cxn modelId="{D300714D-1F65-40D9-B197-07FAE848B59C}" type="presOf" srcId="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" destId="{7BD05344-D232-4A1C-92D8-7BD696C52034}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{85A78E6E-66A7-4768-B94A-AA484DEC0512}" srcId="{5ECDC39F-A1F6-4D11-8EFB-7D93E98DC8AE}" destId="{D88CF41F-726D-45E1-8E4B-099730725CCA}" srcOrd="1" destOrd="0" parTransId="{26A435DA-2907-44C5-BEF9-0BBDDE129E01}" sibTransId="{A8EA954C-B42D-4228-BC67-6BA896016C4F}"/>
+    <dgm:cxn modelId="{656AC16E-974D-41AB-B8F8-16831C5C1976}" type="presOf" srcId="{A0134DC4-F4F7-4837-ACEB-1EF157331388}" destId="{6A9F99C6-1206-4AE2-93C0-56DFA7D723B6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A6B12F4F-1D2D-4E2F-9C58-E8F204A093A1}" type="presOf" srcId="{98DBA7AD-A966-4778-9993-FFC58FFD443A}" destId="{90AA69BC-2A6B-42F6-8D7F-677D3A5D5712}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{3BAED570-E5D6-49D4-8612-500E0542812B}" srcId="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" destId="{F77484B1-1710-466C-BBBF-BE25AA5DCF90}" srcOrd="0" destOrd="0" parTransId="{83AEE348-8605-4779-AA27-DF1CEF81FD88}" sibTransId="{1A56EE40-D05A-43E2-A890-E28F80D87C4A}"/>
     <dgm:cxn modelId="{05331152-0DEC-4D46-AD14-C2EF5D6700A6}" type="presOf" srcId="{130FFC3E-4D72-4CD5-A272-E5C13B5D7796}" destId="{2AC9DD2D-3129-4FA5-BFB5-57CFD04F24A4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{E86C5B52-7A23-4F2F-AAF4-4A9C06A1AD9D}" type="presOf" srcId="{3F018DAE-8D7C-4F2A-A954-ED40FA4322B9}" destId="{6B80B0A3-0517-46E5-AB59-A39BB431537D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{38931B73-76FE-4580-B8BD-A8EB43722876}" type="presOf" srcId="{1856585C-F496-4D1A-91D4-9C6049A3D5CC}" destId="{8555AF53-E540-42F4-93F7-3DF51192CE43}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{952C3D53-3D65-495A-920A-A5643543D2E3}" type="presOf" srcId="{C109E34D-7EC7-4024-898E-26028BC9080B}" destId="{553033C2-5876-4B8E-A890-4C0EC9B33EAE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{C71B1A74-6C8A-4062-B551-E8854C32B156}" type="presOf" srcId="{664BFA91-1A05-4A8A-B942-6B39BAF0BA4D}" destId="{B323526E-6A0D-4642-8371-A6F3A1016B6A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{1F736854-A845-47EE-B681-345624E86360}" type="presOf" srcId="{EF8D04B1-7EAE-43A7-B687-265F2F4494FE}" destId="{45C49AD3-614C-4D6A-89A6-CCF6902BB813}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{21186C54-6C75-4553-A8F2-7169CDE9190D}" type="presOf" srcId="{D88CF41F-726D-45E1-8E4B-099730725CCA}" destId="{2346FA80-4170-4490-B513-3B8167E9CF6D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AE5EAF55-596B-4DBD-9F4A-B7801C87AD81}" type="presOf" srcId="{98DBA7AD-A966-4778-9993-FFC58FFD443A}" destId="{92FA4009-924C-45F2-A4B2-98F3BF76A74E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8AAA2256-0D83-427D-8081-47937F8E253A}" type="presOf" srcId="{46A6D132-0F91-49DA-A655-3A343510E1AD}" destId="{6CC28567-0539-4C4C-ABA7-87CF6B5A944A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{B8894D76-62E5-4D98-A139-3C48A99DD357}" type="presOf" srcId="{CF99659C-0341-431F-836B-ADA8DB060E5D}" destId="{9214E589-C3A8-4F61-B595-128FB6348F64}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6F1BA176-1374-4CC3-B330-C88A4804730A}" type="presOf" srcId="{C614CB23-24F1-4DAF-9C9A-9CE38E3C2221}" destId="{76678D45-A4BF-462E-AA58-A21E20C8CE3C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{94B9C977-71EF-49B4-994B-43CBBCB59580}" srcId="{D88CF41F-726D-45E1-8E4B-099730725CCA}" destId="{E08C5A2D-CDC6-4E99-AD8F-202C0ADDE0EB}" srcOrd="14" destOrd="0" parTransId="{7022A028-8762-4A50-84DE-0A316521A2FF}" sibTransId="{042879A2-EDB0-4DF5-8C20-B5AFB6319BB0}"/>
     <dgm:cxn modelId="{14D94E78-2713-4720-82FD-1F1A97091211}" type="presOf" srcId="{6CB22C70-F67C-4AB5-96D8-3B0D55E4B444}" destId="{50A81B0C-37DD-4089-B0DB-8748916AFD3F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4A284259-0478-4C13-A1FA-8326AB77DD7B}" type="presOf" srcId="{B9D3841F-2FF1-4089-AFDB-51D3FF22D0EA}" destId="{19502CEF-F15F-44D6-9949-0C5B61766BDE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D20D3E7A-1879-46BC-960B-8E3333AC5069}" srcId="{D88CF41F-726D-45E1-8E4B-099730725CCA}" destId="{46A6D132-0F91-49DA-A655-3A343510E1AD}" srcOrd="12" destOrd="0" parTransId="{B754C592-056A-404F-8918-5D9D0C0358EE}" sibTransId="{BD7087C4-AEB7-48D0-94C6-E93C1BFCBEB9}"/>
+    <dgm:cxn modelId="{C3449E5A-6EC2-4C92-A98D-D96DEF72E973}" type="presOf" srcId="{E4704C8A-763D-4A72-A874-9D77E155837B}" destId="{BE4AF244-EA91-4ACD-991D-8DF8AA207614}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CE4E227C-3B7F-4304-BF9A-79E602D28F8F}" type="presOf" srcId="{0ACEB9D5-75E1-4AAE-9D0D-C745E34D7DEA}" destId="{40666CB8-443B-4687-B175-159697E79960}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{EF176280-0070-48AA-B254-E93184DEDC7E}" srcId="{5ECDC39F-A1F6-4D11-8EFB-7D93E98DC8AE}" destId="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" srcOrd="0" destOrd="0" parTransId="{C4184C6B-7BC1-4A24-9C77-9D1343789F99}" sibTransId="{C30AA463-1A9C-4464-A2D7-D83D4612C840}"/>
+    <dgm:cxn modelId="{8BCB4B80-E9B2-4C68-860B-10987B26FE98}" type="presOf" srcId="{BACCC757-8088-4F27-B4E7-A0D59010AB54}" destId="{B77D35BF-01B2-4249-A9D9-4DD7B7DD24D7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{C5A3EF81-76F5-428F-AC86-FED6FA0AA895}" type="presOf" srcId="{8759AA84-0801-4D9B-B148-C36A20201E7C}" destId="{B3D64B41-2F22-4E34-821C-D2D72D776A03}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{A607E984-003D-4FA5-ADAD-9C64A2640927}" type="presOf" srcId="{F77484B1-1710-466C-BBBF-BE25AA5DCF90}" destId="{4C822B57-F4AE-4BC3-8827-C7BDF0FF9A91}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AEF9A387-01A8-4091-A33D-4F847CC9C4A0}" srcId="{D88CF41F-726D-45E1-8E4B-099730725CCA}" destId="{98DBA7AD-A966-4778-9993-FFC58FFD443A}" srcOrd="7" destOrd="0" parTransId="{7A3AE139-21E2-4591-87F2-E3CBE92F276E}" sibTransId="{F53A6D15-50E9-413F-9FA9-995F5503A7F8}"/>
     <dgm:cxn modelId="{78EBE787-4D43-4405-BAC3-9F2722D50B2E}" type="presOf" srcId="{C109E34D-7EC7-4024-898E-26028BC9080B}" destId="{ABD147C2-88AC-4736-866F-2C8D8DD9E6D5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{FC4E1A8C-6DB5-4EA8-ADEE-DA805363AD73}" type="presOf" srcId="{83AEE348-8605-4779-AA27-DF1CEF81FD88}" destId="{940A1E40-786E-44D3-90E8-46DF581ADBFA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{B8C97B8C-53B7-4597-B167-5BB75118FD54}" type="presOf" srcId="{4A0ED956-98F8-4363-A99D-AC053F9DBC1E}" destId="{A621623C-A4B4-4EFF-9DDB-919CBB13BD7D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D576048E-3C19-4233-83D5-8D40A2FD25EA}" type="presOf" srcId="{64E0F66F-F44C-42CC-BA32-324CB741F2DE}" destId="{DD7C3817-1535-4989-A715-ED9225A16449}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1A03EC90-7C9D-448F-B969-5F5FB7A8E51F}" type="presOf" srcId="{D42998D8-E553-4702-840E-4A0D5A8AB09F}" destId="{8F86FE10-5318-4E88-8168-A558AB2ACE82}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{750A7591-98F1-46BE-B923-660B6F5A1C11}" srcId="{D88CF41F-726D-45E1-8E4B-099730725CCA}" destId="{72A1D041-04F5-42AC-A70B-D51C0A35F5A9}" srcOrd="6" destOrd="0" parTransId="{FD40F59B-D27D-4EB2-AEDB-04F47CFD701D}" sibTransId="{AEF85A08-18C7-46F9-86BB-83DCD71782BD}"/>
     <dgm:cxn modelId="{990D8E91-8FA1-4920-A1E2-D3710706BD82}" type="presOf" srcId="{664BFA91-1A05-4A8A-B942-6B39BAF0BA4D}" destId="{E8B7B306-E273-4F92-813D-28C9D79D62C9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D6377592-5745-4570-91AE-47FA0842CEBB}" srcId="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" destId="{10E10364-03F8-45C9-A5AA-8B95424FE183}" srcOrd="11" destOrd="0" parTransId="{A0134DC4-F4F7-4837-ACEB-1EF157331388}" sibTransId="{0D31D0BA-4A54-4C5D-A779-88960034A964}"/>
     <dgm:cxn modelId="{F0C8F693-944A-4A42-A667-3C58F28F0D75}" type="presOf" srcId="{A89EC362-FEE0-4A8A-A4CD-8EE30E3C2232}" destId="{6A072927-7888-40AD-9FC9-50DEDA31C956}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{DA62FA94-CAB0-4D92-8873-3372720A01A6}" type="presOf" srcId="{5ECDC39F-A1F6-4D11-8EFB-7D93E98DC8AE}" destId="{935CB382-1ECD-4D0F-8465-8C0C784E6279}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1A3D5A98-70FC-4B4F-9928-B44247163262}" srcId="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" destId="{9D2E271C-5369-40A0-A112-E9E5291E9458}" srcOrd="14" destOrd="0" parTransId="{5E29698D-4A46-4836-87B3-719525376E6B}" sibTransId="{C7855E20-FD3B-47D8-8044-BE98C371AFF6}"/>
+    <dgm:cxn modelId="{FD336C9B-E6BC-45CA-81F4-D41C6378ECDF}" type="presOf" srcId="{7EEAE3D9-5BAA-4E17-988E-BEC0378600F5}" destId="{D22CEA13-A994-41AF-A767-E13A2F0BF873}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D8021A9C-CD8F-49D5-80C4-42A5FC89772A}" type="presOf" srcId="{FD40F59B-D27D-4EB2-AEDB-04F47CFD701D}" destId="{D1867E0F-A6C1-4B3A-AE01-E50BD1D97C34}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{0396F5A7-C0E3-484A-9EFA-3074D865B26D}" srcId="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" destId="{E0316E49-B6C8-493D-A28E-E0B961FBC6AD}" srcOrd="1" destOrd="0" parTransId="{C86234D4-5FE8-4C2C-A8D7-F97FE16952E5}" sibTransId="{4F308207-46F8-44C2-9A5B-B5C8134B6DA1}"/>
+    <dgm:cxn modelId="{0E3802A8-0ED2-4C0D-A3A8-781A4025D53D}" type="presOf" srcId="{E08C5A2D-CDC6-4E99-AD8F-202C0ADDE0EB}" destId="{A37CA279-8366-44BD-BE89-08D99C3AE0FD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{52D441A8-0073-4589-9D8D-8BEC46FFDA95}" type="presOf" srcId="{D52D180F-96AF-47C2-A602-E250A0E9F4DE}" destId="{62C811CE-06D4-4A52-9DCC-35582FCB32D3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CE68A9A8-8805-4DD9-9DBF-747A31249129}" type="presOf" srcId="{5E29698D-4A46-4836-87B3-719525376E6B}" destId="{DCB733CD-003C-4237-9D36-3A5D818BEA91}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2794CDA9-06BE-47D4-8D57-BB4938F91899}" srcId="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" destId="{79845260-82E1-4302-ADB8-E3548D6C9EA0}" srcOrd="5" destOrd="0" parTransId="{0ACEB9D5-75E1-4AAE-9D0D-C745E34D7DEA}" sibTransId="{60661C48-E73E-4B77-8A0D-5C1B66B7447F}"/>
+    <dgm:cxn modelId="{AD46D6A9-D740-4CA3-9C9E-FEB6B62F19B8}" srcId="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" destId="{D5A72B32-950B-470B-84BF-D727D560272F}" srcOrd="6" destOrd="0" parTransId="{4453BA53-2066-434B-AA54-E2AB0B04C80E}" sibTransId="{0C256E06-16AC-467B-8EA2-96C0E63EE679}"/>
     <dgm:cxn modelId="{678441AD-A127-4FF9-B79F-4049A67C0EE7}" type="presOf" srcId="{D52D180F-96AF-47C2-A602-E250A0E9F4DE}" destId="{7382DCCB-C9E3-4D39-BC4A-1A907D5D9EB2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4CBB2BB0-0295-48FE-811A-C8A96B1B7F46}" type="presOf" srcId="{5195346B-D9DC-46E7-B8C8-002F9B402FB9}" destId="{0C7A2B53-021A-45BF-893F-320B0AC1D661}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{63F5D9B3-933F-4285-8309-14EBF01088BD}" srcId="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" destId="{003AD82E-1CD4-40E1-807D-E799EE8CC72A}" srcOrd="7" destOrd="0" parTransId="{8D6E5929-CA5C-4404-9CC7-F775EACFE012}" sibTransId="{6CD9C108-8626-4ACC-8AF9-C9A8EE73597A}"/>
+    <dgm:cxn modelId="{B35597B6-4472-4410-8CCF-700A085FD0F2}" type="presOf" srcId="{BF4338EB-29BE-4A08-A7F2-66BB67ACBCD1}" destId="{5C55D77A-EB93-4208-9812-124CF844F7EB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{346A9EB6-D3A4-42F9-A32A-99B1B81EA8F7}" srcId="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" destId="{664BFA91-1A05-4A8A-B942-6B39BAF0BA4D}" srcOrd="3" destOrd="0" parTransId="{8A2156E5-B58E-48A6-AF7C-DE799F9AAB53}" sibTransId="{3F4987E1-720B-4242-B117-E2E18019B940}"/>
+    <dgm:cxn modelId="{0DE8BDB7-C745-4610-9EE1-A47BAA2D4FA0}" type="presOf" srcId="{D42998D8-E553-4702-840E-4A0D5A8AB09F}" destId="{F451FEFB-462D-4AFC-AC93-3F62D47E2DCD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{70F9BDB8-9A58-4F84-AD83-C92255139D73}" type="presOf" srcId="{808161B4-43C6-4363-AC59-E7CF58667E6E}" destId="{4AA820E4-032C-4190-969E-7D835E7A14E7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2700E0BB-50CF-41BF-8937-62A1D0FDEADC}" type="presOf" srcId="{003AD82E-1CD4-40E1-807D-E799EE8CC72A}" destId="{EBBDAC5D-D760-4C4D-B064-844F62EC27B2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{8E16ADBE-83DF-4454-BD31-24EEA9C17C30}" type="presOf" srcId="{71FE0126-809A-481F-BCD5-92FEBC21CA95}" destId="{3E88680D-FDEA-4C41-BAA1-FDF7468DD238}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{47D6B6BF-187A-4A46-928C-DAFFAE5734F5}" type="presOf" srcId="{C26ADEE5-7AA8-4774-B683-AEB91F04A02F}" destId="{62FAA317-6055-4A11-9FD2-B8D29D23F76D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{6414B0C0-0031-45A8-9E58-1A182DCF6CA5}" srcId="{D88CF41F-726D-45E1-8E4B-099730725CCA}" destId="{EF8D04B1-7EAE-43A7-B687-265F2F4494FE}" srcOrd="2" destOrd="0" parTransId="{E9DE5A3A-DD3A-4606-B01C-A1B55BE06261}" sibTransId="{AFD5E64F-11DA-40BC-9307-26E1A2B69A30}"/>
+    <dgm:cxn modelId="{D71121C1-36A7-43D7-BBF2-30EE9E6E9FBB}" srcId="{D88CF41F-726D-45E1-8E4B-099730725CCA}" destId="{1856585C-F496-4D1A-91D4-9C6049A3D5CC}" srcOrd="8" destOrd="0" parTransId="{51563709-27B5-4AAE-A213-7CDEAD1C97F0}" sibTransId="{B68FFCA6-6789-438D-98E2-53D8E3032456}"/>
+    <dgm:cxn modelId="{A15427C3-A55F-4ED3-9CB3-FC9EDC37733C}" srcId="{D88CF41F-726D-45E1-8E4B-099730725CCA}" destId="{A993B3C9-2A80-4321-BC4C-F66E40511F31}" srcOrd="9" destOrd="0" parTransId="{7EEAE3D9-5BAA-4E17-988E-BEC0378600F5}" sibTransId="{A6B96823-FE10-4541-AB02-16E7528379B4}"/>
     <dgm:cxn modelId="{4D36EDC3-ACAE-4A5E-AFEC-DA19E73DBF28}" type="presOf" srcId="{E0316E49-B6C8-493D-A28E-E0B961FBC6AD}" destId="{AE0DEA63-392C-44D5-B780-12E5FF435E47}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6A91C0C5-658C-436B-B5E4-853C8BEACA93}" type="presOf" srcId="{D5A72B32-950B-470B-84BF-D727D560272F}" destId="{D1CC369E-8336-4F75-B1B8-B4E38C873EE7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F1AF5CC6-C2F4-4306-B536-144F4AED2D48}" type="presOf" srcId="{8D6E5929-CA5C-4404-9CC7-F775EACFE012}" destId="{151E8BD4-FDD6-4D74-A379-314B53D2EB0F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8DEB16C9-B31D-43CE-B746-868D4EFE3E96}" type="presOf" srcId="{7022A028-8762-4A50-84DE-0A316521A2FF}" destId="{8D5440F9-20EB-41BF-8A9C-75EC84F9488B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{75224BCD-A66E-4486-8323-753624BE57B8}" type="presOf" srcId="{10E10364-03F8-45C9-A5AA-8B95424FE183}" destId="{9509858C-DA6E-492F-9E1F-455B716B18D5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{1CF593CD-30CE-4928-9DDD-614BEF30F6E5}" srcId="{D52D180F-96AF-47C2-A602-E250A0E9F4DE}" destId="{6514F17A-9CA9-45F3-8667-9DA0345A33DC}" srcOrd="1" destOrd="0" parTransId="{71FE0126-809A-481F-BCD5-92FEBC21CA95}" sibTransId="{5A1C91CE-ECE3-4D1C-950D-924635E43BBF}"/>
+    <dgm:cxn modelId="{C20F19CE-FC9F-4309-8EE3-A88B8E8DBEB5}" type="presOf" srcId="{46A6D132-0F91-49DA-A655-3A343510E1AD}" destId="{530760B1-71E6-46B4-AB7F-0810A2D858A2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{D48A7BCF-0B12-4606-AC47-2571011C7251}" srcId="{D88CF41F-726D-45E1-8E4B-099730725CCA}" destId="{4A0ED956-98F8-4363-A99D-AC053F9DBC1E}" srcOrd="0" destOrd="0" parTransId="{3F018DAE-8D7C-4F2A-A954-ED40FA4322B9}" sibTransId="{5733BF36-76A8-44E3-AD1E-03D6E5898D21}"/>
     <dgm:cxn modelId="{708B14D3-34A9-4E93-981C-A7BE6F213AFC}" type="presOf" srcId="{580E3BE0-46C0-45E0-8D39-9B982A586825}" destId="{2F674596-BD6E-400E-A2B8-07B718E1D21B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{A7458ADD-53D7-424A-81A5-BF813794EB60}" srcId="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" destId="{580E3BE0-46C0-45E0-8D39-9B982A586825}" srcOrd="2" destOrd="0" parTransId="{808161B4-43C6-4363-AC59-E7CF58667E6E}" sibTransId="{B4A4DB40-E594-4802-BCA2-ED34E3BC1A55}"/>
+    <dgm:cxn modelId="{364A9FDD-2ADC-47E5-B370-540063FCABC7}" type="presOf" srcId="{BF4338EB-29BE-4A08-A7F2-66BB67ACBCD1}" destId="{36DB12A0-2BA3-4C52-B707-C9B9CFC04BC4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{29F6EBE0-1536-4EBF-93BA-546D83392AC9}" type="presOf" srcId="{C56DA5EB-3B6C-4EE9-999F-2D0CA885CA78}" destId="{73837448-C5E4-47F1-AD86-405AB04C815E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{099FF3E0-8F2F-4EE2-ACAF-A7B76003AA9E}" type="presOf" srcId="{A993B3C9-2A80-4321-BC4C-F66E40511F31}" destId="{F4D8AA2B-8239-40E2-8531-3B9B8B8631FC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{21273BE2-8174-4FCB-AF2F-F427E0A03AC7}" type="presOf" srcId="{72A1D041-04F5-42AC-A70B-D51C0A35F5A9}" destId="{94ADB526-A020-4BA1-997E-8EC2B6D0C51E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{A5B8C7E2-8EAC-492E-99DD-39E1ADA05905}" type="presOf" srcId="{D88CF41F-726D-45E1-8E4B-099730725CCA}" destId="{76C8770F-F8BE-453F-9E0F-D37337F92CB6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{B4746EE3-9F1F-460F-AABE-7F987CBD1B35}" type="presOf" srcId="{E0316E49-B6C8-493D-A28E-E0B961FBC6AD}" destId="{E279A844-45D4-4FC6-87B7-72440F5D5DA0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{5F9F25E4-B14E-4705-94C4-3FE4C4939A37}" type="presOf" srcId="{6CB22C70-F67C-4AB5-96D8-3B0D55E4B444}" destId="{8377DBF6-2C6D-4C37-8668-E4C3FA2036F3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{EF3861E4-63FA-4F8D-BFF4-05178E199F52}" type="presOf" srcId="{8A2156E5-B58E-48A6-AF7C-DE799F9AAB53}" destId="{0B2C122B-DFD5-4E81-B4E6-2B33CEE66F49}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A95983E4-AC8B-4524-AFA0-4A6BB65EE32F}" type="presOf" srcId="{CCB16EC1-4F8A-4FB4-BD33-8E4F25872644}" destId="{EB561D55-C797-403E-9247-227290E720A2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EFA285E7-75C7-4F61-B214-66C202B0E19B}" type="presOf" srcId="{7A3AE139-21E2-4591-87F2-E3CBE92F276E}" destId="{E058AF84-D282-49D0-BF6A-8603F553AF8C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F4A936E8-F4A7-4402-9787-3EA0564E2AE8}" srcId="{D88CF41F-726D-45E1-8E4B-099730725CCA}" destId="{2FB1E12B-2D65-4907-B713-0B3B9455EC30}" srcOrd="10" destOrd="0" parTransId="{64E0F66F-F44C-42CC-BA32-324CB741F2DE}" sibTransId="{E29F66BC-036C-46F8-A37E-C5F387F02F3B}"/>
     <dgm:cxn modelId="{2C5564E8-BD83-4B28-9F7D-6787D74F36E6}" type="presOf" srcId="{E9EE1F5C-6D28-4ABF-B21B-22A518182E07}" destId="{9F0C1FD1-9F6A-454E-9ABD-055AF27CFD21}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{8A8AA5E8-DE9C-4173-A855-A8A086F9B74C}" type="presOf" srcId="{6514F17A-9CA9-45F3-8667-9DA0345A33DC}" destId="{FB20A176-8702-4060-9AC0-535BADA6E841}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{650FE3EC-FE40-4A0E-B544-1392F28CB65D}" type="presOf" srcId="{02096D74-B1E3-4BFA-8DB2-EB35871A2D4A}" destId="{4462A072-B16F-488C-B3B0-06CAB3EF066C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5D6EB9F3-96CC-46B4-9765-6AA1F178CD4A}" type="presOf" srcId="{E4704C8A-763D-4A72-A874-9D77E155837B}" destId="{EA8B48C8-06D0-48E0-A5CC-38637E884C2D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{A266A0F6-FEC9-41DE-B105-65331EABA684}" type="presOf" srcId="{580E3BE0-46C0-45E0-8D39-9B982A586825}" destId="{9368456D-39DC-467B-B356-2A7E651352A3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{19FE89F7-A70F-4917-B874-7159E2E5D995}" type="presOf" srcId="{2FB1E12B-2D65-4907-B713-0B3B9455EC30}" destId="{B900FCA4-9A27-401A-9276-084788597840}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{A576C6F9-9AB6-4824-9988-22797D63AF13}" srcId="{A81B9733-8A35-4CFA-922F-3E1460FB9DD1}" destId="{D52D180F-96AF-47C2-A602-E250A0E9F4DE}" srcOrd="0" destOrd="0" parTransId="{C97D9703-3409-4169-BAFB-57DD7F57CBE9}" sibTransId="{0CABBC63-8CFA-4042-A069-57C326C37C14}"/>
+    <dgm:cxn modelId="{79F0C3FA-8C90-4D6D-8E51-1095E3539606}" type="presOf" srcId="{10E10364-03F8-45C9-A5AA-8B95424FE183}" destId="{668CF092-263E-4AF6-BBAF-62CD650BA2A1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8220FCFD-115B-4E8E-8609-A2A8EDF1E94D}" type="presOf" srcId="{7FC4E244-860C-49B9-93EB-D304D2B2DE46}" destId="{3D0A6FE5-1124-4551-927A-CC9F79EC8E85}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{A7ABF28A-3DEF-46A5-B34A-8A4338740266}" type="presParOf" srcId="{CC8085AC-E0BD-427E-8B14-DD29D8DF737D}" destId="{3D2EDBBD-9F46-4768-9E1F-363FF2A5B2CE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{7B4851F5-F5C5-4BB7-8782-35E0D2B1C34D}" type="presParOf" srcId="{3D2EDBBD-9F46-4768-9E1F-363FF2A5B2CE}" destId="{C7445D1C-2D07-423D-8B8C-E49C206BBC4F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{5765FC26-5A17-49D4-B9BC-3D6A8DD3BCCF}" type="presParOf" srcId="{C7445D1C-2D07-423D-8B8C-E49C206BBC4F}" destId="{7382DCCB-C9E3-4D39-BC4A-1A907D5D9EB2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
@@ -2085,6 +3605,76 @@
     <dgm:cxn modelId="{0437393F-4440-4DD9-B56F-4E3A0A9459C1}" type="presParOf" srcId="{114DCD6D-82AC-4FC9-A778-CF6532861F09}" destId="{4C2BDFFE-5460-49E7-A00C-22DC65BE4CB9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{F382474B-DC2F-4671-B7C4-788CF058F06B}" type="presParOf" srcId="{132F11FF-6A47-4BDF-9875-BE011FDEB1F7}" destId="{7661E66F-97B8-4696-8262-D6B7E005F6C3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{F6997211-B4EA-4AAF-B2DF-BA43CF7F021C}" type="presParOf" srcId="{132F11FF-6A47-4BDF-9875-BE011FDEB1F7}" destId="{2C99C696-8C19-45C1-AF73-BA67DB01C337}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C90C850D-507D-47E3-B265-2BD406A266A7}" type="presParOf" srcId="{B48BE453-F860-43F4-818D-DAD7114BBB7D}" destId="{40666CB8-443B-4687-B175-159697E79960}" srcOrd="10" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8C85F0FB-9E6D-42E0-B643-B2E9F922CEE0}" type="presParOf" srcId="{B48BE453-F860-43F4-818D-DAD7114BBB7D}" destId="{EC3AD8F9-59E1-49AC-A2B3-581020AD38BB}" srcOrd="11" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C00407D6-3775-420D-874E-4745D18735C9}" type="presParOf" srcId="{EC3AD8F9-59E1-49AC-A2B3-581020AD38BB}" destId="{EF50B638-D736-4DBE-B1E7-99B125276D01}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{727E5A78-F017-4445-81B6-A92402B5071E}" type="presParOf" srcId="{EF50B638-D736-4DBE-B1E7-99B125276D01}" destId="{034202E5-A306-411D-AC1D-AFA685DA16BC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{80F27135-9F08-4D65-AD96-A93FC5C9F6BB}" type="presParOf" srcId="{EF50B638-D736-4DBE-B1E7-99B125276D01}" destId="{B7D46C13-CE0D-43D1-8695-E9A2E0815BB2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D79C2DC3-271D-4ADB-94F8-C3B901B07D3E}" type="presParOf" srcId="{EC3AD8F9-59E1-49AC-A2B3-581020AD38BB}" destId="{F37EE3BB-F09B-4F8A-A5A6-7FA29FB17775}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E8D8D5CF-C37C-48B1-AE82-554DED3C16FC}" type="presParOf" srcId="{EC3AD8F9-59E1-49AC-A2B3-581020AD38BB}" destId="{76DB5495-8014-4A5F-ABAC-F7ABCC1E67EE}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F325894C-5244-4FD7-9ABB-5854746CC562}" type="presParOf" srcId="{B48BE453-F860-43F4-818D-DAD7114BBB7D}" destId="{CA773655-A037-4E8E-A76E-21A662BD015A}" srcOrd="12" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CE3A5109-AD0C-4835-B621-571200057678}" type="presParOf" srcId="{B48BE453-F860-43F4-818D-DAD7114BBB7D}" destId="{D1753D48-81B9-431F-BE3F-08D1CC0D195F}" srcOrd="13" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F45E2C78-1E10-4149-9686-DC083E290448}" type="presParOf" srcId="{D1753D48-81B9-431F-BE3F-08D1CC0D195F}" destId="{83DF2F15-575F-4241-8505-AA906B4140FB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6D7BA2CE-1A35-43E0-993D-5CD477B4AC35}" type="presParOf" srcId="{83DF2F15-575F-4241-8505-AA906B4140FB}" destId="{D1CC369E-8336-4F75-B1B8-B4E38C873EE7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{451F6B47-6EE3-437E-8523-4B4EBE6B8EB2}" type="presParOf" srcId="{83DF2F15-575F-4241-8505-AA906B4140FB}" destId="{4CD7D1EF-FE25-4DDC-89BB-AEC0F5371D44}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FB9A9642-3A3B-4FB8-A9F0-3DC8BB5265B1}" type="presParOf" srcId="{D1753D48-81B9-431F-BE3F-08D1CC0D195F}" destId="{42629045-484A-49F7-9DC7-6750C9C7FEE7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2855137C-0383-435E-9140-52336256FC84}" type="presParOf" srcId="{D1753D48-81B9-431F-BE3F-08D1CC0D195F}" destId="{8D79D3FE-1335-4756-9C27-BF7418E4B666}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5A369A67-6989-4AF7-906F-6BC43E2FF596}" type="presParOf" srcId="{B48BE453-F860-43F4-818D-DAD7114BBB7D}" destId="{151E8BD4-FDD6-4D74-A379-314B53D2EB0F}" srcOrd="14" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DE54FE70-D392-47BE-ABAE-F0528BE530FC}" type="presParOf" srcId="{B48BE453-F860-43F4-818D-DAD7114BBB7D}" destId="{56E17140-A16C-4858-809E-1265AF85386B}" srcOrd="15" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6B7AB6FA-00F7-4919-8683-30222050B4D9}" type="presParOf" srcId="{56E17140-A16C-4858-809E-1265AF85386B}" destId="{831A44AB-B9C6-411D-914C-A81C93BC9277}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9770D9A4-5EBC-4EA2-8CD0-80A5E9E230E3}" type="presParOf" srcId="{831A44AB-B9C6-411D-914C-A81C93BC9277}" destId="{B80A723C-D81E-4E81-9860-5C59F1C7A590}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A5D86F06-E2F9-4D17-B14F-FAD89D0F58FE}" type="presParOf" srcId="{831A44AB-B9C6-411D-914C-A81C93BC9277}" destId="{EBBDAC5D-D760-4C4D-B064-844F62EC27B2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{55AFF2F4-E932-4715-AEF9-DCEC82869078}" type="presParOf" srcId="{56E17140-A16C-4858-809E-1265AF85386B}" destId="{5D207032-4730-47DB-B686-E7BFB80AA3BC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9BB419EB-23EB-4CB3-B21D-219388DE29B7}" type="presParOf" srcId="{56E17140-A16C-4858-809E-1265AF85386B}" destId="{4886B3EC-99CC-4EBA-B47A-3A66CBACB6DD}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4E250361-1EBB-4220-875D-8633729CF584}" type="presParOf" srcId="{B48BE453-F860-43F4-818D-DAD7114BBB7D}" destId="{EB561D55-C797-403E-9247-227290E720A2}" srcOrd="16" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{070966F6-AEA0-4FC8-A5CE-333088C6E3B2}" type="presParOf" srcId="{B48BE453-F860-43F4-818D-DAD7114BBB7D}" destId="{8B72C670-973D-4733-A75D-F06BCBDBCAC7}" srcOrd="17" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{378F7D01-C74D-49BD-9D76-837F2CB6EF71}" type="presParOf" srcId="{8B72C670-973D-4733-A75D-F06BCBDBCAC7}" destId="{7EA10259-8212-4BFB-8F7F-A03DB53FC53F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2C83F678-D343-43DA-92BC-72BD4F249FBA}" type="presParOf" srcId="{7EA10259-8212-4BFB-8F7F-A03DB53FC53F}" destId="{BE4AF244-EA91-4ACD-991D-8DF8AA207614}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3A70786A-3C27-4A10-8939-4A25F6AC8E70}" type="presParOf" srcId="{7EA10259-8212-4BFB-8F7F-A03DB53FC53F}" destId="{EA8B48C8-06D0-48E0-A5CC-38637E884C2D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A94E36F0-EE1E-4624-A57D-CDED5BEEF76A}" type="presParOf" srcId="{8B72C670-973D-4733-A75D-F06BCBDBCAC7}" destId="{3EF4B1B9-4152-4E01-8D2B-5329CDCA740B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{25380108-D7E5-4BE9-9C5C-73A9EEABED3F}" type="presParOf" srcId="{8B72C670-973D-4733-A75D-F06BCBDBCAC7}" destId="{66B3F7DC-16FF-4A9E-A6CC-31DD5907C6D4}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E26E126A-2BF6-4EE5-8E67-B8A651388583}" type="presParOf" srcId="{B48BE453-F860-43F4-818D-DAD7114BBB7D}" destId="{62FAA317-6055-4A11-9FD2-B8D29D23F76D}" srcOrd="18" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2DF215DC-A6C4-4CC8-AFD7-D8D25ED5CF6C}" type="presParOf" srcId="{B48BE453-F860-43F4-818D-DAD7114BBB7D}" destId="{FECA7A43-FBDB-4924-B7CB-5F062465D704}" srcOrd="19" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C5C24EF1-F275-413C-8DEB-49D59988C045}" type="presParOf" srcId="{FECA7A43-FBDB-4924-B7CB-5F062465D704}" destId="{82D11F6E-646E-4D4B-89D9-B26309372B88}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FB009E73-9749-440D-83AA-91369529FE73}" type="presParOf" srcId="{82D11F6E-646E-4D4B-89D9-B26309372B88}" destId="{5C55D77A-EB93-4208-9812-124CF844F7EB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B3852296-11CD-4F37-AFAA-9FEEC8D568AC}" type="presParOf" srcId="{82D11F6E-646E-4D4B-89D9-B26309372B88}" destId="{36DB12A0-2BA3-4C52-B707-C9B9CFC04BC4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4369DF3E-E5CD-4736-A501-C752ABA72BCE}" type="presParOf" srcId="{FECA7A43-FBDB-4924-B7CB-5F062465D704}" destId="{558366EA-CE93-4FE8-A8F2-F499302A8805}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{064C42BA-211E-42F8-A43B-EF3385892664}" type="presParOf" srcId="{FECA7A43-FBDB-4924-B7CB-5F062465D704}" destId="{BB523726-5571-4DEC-941E-11003346F0EF}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CE2D472D-4164-4C52-8017-53A93BE10876}" type="presParOf" srcId="{B48BE453-F860-43F4-818D-DAD7114BBB7D}" destId="{6C75879E-F76F-4938-8C16-05E3D54DA322}" srcOrd="20" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{672C3821-5460-4DA5-8E06-3819B0AB126C}" type="presParOf" srcId="{B48BE453-F860-43F4-818D-DAD7114BBB7D}" destId="{B39400EC-2AC7-4197-9A99-F4B43E1E0666}" srcOrd="21" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B192C0A5-2265-4923-96C2-B9EBB3E0D842}" type="presParOf" srcId="{B39400EC-2AC7-4197-9A99-F4B43E1E0666}" destId="{70EA24C2-292B-4CDA-B250-CBB1122CF6D8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{62286076-711B-4889-8A36-BE54D1F6DF9C}" type="presParOf" srcId="{70EA24C2-292B-4CDA-B250-CBB1122CF6D8}" destId="{9CF4861E-0245-4BB7-AD7A-1C9E6435BFA9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F7718A8C-986D-4835-B7A8-15E057B652DC}" type="presParOf" srcId="{70EA24C2-292B-4CDA-B250-CBB1122CF6D8}" destId="{3D0A6FE5-1124-4551-927A-CC9F79EC8E85}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9ECA0015-0D35-459F-9C9D-C1EF7DFEE552}" type="presParOf" srcId="{B39400EC-2AC7-4197-9A99-F4B43E1E0666}" destId="{707A11BC-3DED-4B9C-8830-9B213B716EB4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6FF053BD-CE35-4606-A3C6-ACA5AC244D87}" type="presParOf" srcId="{B39400EC-2AC7-4197-9A99-F4B43E1E0666}" destId="{A8FEEC58-2205-4386-B7DD-EDDCF444541E}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{68B81304-AB88-43AE-9F1E-3B783C02C972}" type="presParOf" srcId="{B48BE453-F860-43F4-818D-DAD7114BBB7D}" destId="{6A9F99C6-1206-4AE2-93C0-56DFA7D723B6}" srcOrd="22" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0DE30D72-C957-47E3-AD1C-B4DE72AFBA5C}" type="presParOf" srcId="{B48BE453-F860-43F4-818D-DAD7114BBB7D}" destId="{E15CC92F-4133-49A0-8E55-EC20D63AC85D}" srcOrd="23" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{62D8AA18-095A-4E55-BEC1-4969F069E0DC}" type="presParOf" srcId="{E15CC92F-4133-49A0-8E55-EC20D63AC85D}" destId="{1655C103-0D61-482A-A359-724BBC95EFF0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3F57930C-0730-443E-9E83-AA085E474795}" type="presParOf" srcId="{1655C103-0D61-482A-A359-724BBC95EFF0}" destId="{668CF092-263E-4AF6-BBAF-62CD650BA2A1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{25993CF3-C31E-4555-875E-F5F680294A11}" type="presParOf" srcId="{1655C103-0D61-482A-A359-724BBC95EFF0}" destId="{9509858C-DA6E-492F-9E1F-455B716B18D5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{59527441-287A-449F-8B3E-E0A4CBF81051}" type="presParOf" srcId="{E15CC92F-4133-49A0-8E55-EC20D63AC85D}" destId="{87FD18BC-6DAC-4476-BFBF-480C15B4F170}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{019D1093-45D7-483F-BBC2-29934A4A1A1B}" type="presParOf" srcId="{E15CC92F-4133-49A0-8E55-EC20D63AC85D}" destId="{77777DC2-465C-4E6B-A48F-8786230F1E34}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{642ED568-8EF9-4E11-A7BD-4F579DF53F51}" type="presParOf" srcId="{B48BE453-F860-43F4-818D-DAD7114BBB7D}" destId="{86FCE211-AD72-4AA4-ACC1-8FAF63AF7E4A}" srcOrd="24" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EF20649B-DE90-46E8-B1F9-7D07D911574F}" type="presParOf" srcId="{B48BE453-F860-43F4-818D-DAD7114BBB7D}" destId="{CC95BC31-F60E-451A-8E2E-E3E2A3143C80}" srcOrd="25" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B48C4468-3707-4EA7-84B2-2D4A5D31C457}" type="presParOf" srcId="{CC95BC31-F60E-451A-8E2E-E3E2A3143C80}" destId="{BFD7D8A5-2BF6-4F5C-972E-213C23158EFB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{54A0FA81-88B9-49C8-AE52-DA8A62606FD9}" type="presParOf" srcId="{BFD7D8A5-2BF6-4F5C-972E-213C23158EFB}" destId="{F451FEFB-462D-4AFC-AC93-3F62D47E2DCD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D60594E5-6F13-4913-9136-986C32CBAFCA}" type="presParOf" srcId="{BFD7D8A5-2BF6-4F5C-972E-213C23158EFB}" destId="{8F86FE10-5318-4E88-8168-A558AB2ACE82}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AC4E429D-F454-41EE-BF3C-E4EB380F33F0}" type="presParOf" srcId="{CC95BC31-F60E-451A-8E2E-E3E2A3143C80}" destId="{8AD298ED-0B15-48B5-AC13-6AD1D518ACC1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BFC4A8B7-44D2-46BD-86BF-EFE8D6505E70}" type="presParOf" srcId="{CC95BC31-F60E-451A-8E2E-E3E2A3143C80}" destId="{DAB2ABF0-123D-4AF9-B44F-8FB083EFB2B6}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F6F6F11E-C7A4-4EB4-89D6-E4A04E244CEA}" type="presParOf" srcId="{B48BE453-F860-43F4-818D-DAD7114BBB7D}" destId="{4462A072-B16F-488C-B3B0-06CAB3EF066C}" srcOrd="26" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{16B60BA4-F528-43A4-BF92-C4ED656B6C11}" type="presParOf" srcId="{B48BE453-F860-43F4-818D-DAD7114BBB7D}" destId="{79BC3F2D-7FFE-44BF-913C-91B75DEB3CB7}" srcOrd="27" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3D7BD367-A87D-484A-9587-3BB60F3C8578}" type="presParOf" srcId="{79BC3F2D-7FFE-44BF-913C-91B75DEB3CB7}" destId="{04C074F2-F210-4763-9021-5C2BEE67612C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BE9F751C-9093-4104-9F83-BA70A957E2F2}" type="presParOf" srcId="{04C074F2-F210-4763-9021-5C2BEE67612C}" destId="{76678D45-A4BF-462E-AA58-A21E20C8CE3C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{60E6F270-8367-485D-A230-FF934E17CEDB}" type="presParOf" srcId="{04C074F2-F210-4763-9021-5C2BEE67612C}" destId="{C1A96332-F86C-4B7D-8F37-655F41921BB2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{67D762ED-19A7-4F58-8CC0-3D908E1862E5}" type="presParOf" srcId="{79BC3F2D-7FFE-44BF-913C-91B75DEB3CB7}" destId="{C5E8B958-36D5-4D11-B29A-F98C7839426F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5ECE4A12-7384-4C42-AF73-6ECA4BBA87DB}" type="presParOf" srcId="{79BC3F2D-7FFE-44BF-913C-91B75DEB3CB7}" destId="{8C978A03-B9F3-4958-887B-290C6636840C}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B307024E-85A1-4272-AC38-51916367914A}" type="presParOf" srcId="{B48BE453-F860-43F4-818D-DAD7114BBB7D}" destId="{DCB733CD-003C-4237-9D36-3A5D818BEA91}" srcOrd="28" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{006C8C09-D729-4E2A-A58A-69B1CD838A57}" type="presParOf" srcId="{B48BE453-F860-43F4-818D-DAD7114BBB7D}" destId="{79871C20-BEF0-44B8-992F-4FBD7BF7548E}" srcOrd="29" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{90BF7633-360A-46D5-AEEB-A82300C2921A}" type="presParOf" srcId="{79871C20-BEF0-44B8-992F-4FBD7BF7548E}" destId="{45588827-540F-4374-A7FF-644095B4DF6C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B145F0D5-7601-4D54-8BB1-8E6CDA6C9D10}" type="presParOf" srcId="{45588827-540F-4374-A7FF-644095B4DF6C}" destId="{F55659BF-2C7B-4384-A7C4-51928F7AF7AA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C5E7D48F-5F1B-437E-8215-2B5AD6878076}" type="presParOf" srcId="{45588827-540F-4374-A7FF-644095B4DF6C}" destId="{E856B624-FCF7-4F0F-8752-BC08C46707C9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9882D734-FDFD-471F-92A5-8CA369570DEC}" type="presParOf" srcId="{79871C20-BEF0-44B8-992F-4FBD7BF7548E}" destId="{47EA6465-9517-427B-A757-1DABFD964ACD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2AFF1E10-1D04-44CF-A1F2-C08E32834E3A}" type="presParOf" srcId="{79871C20-BEF0-44B8-992F-4FBD7BF7548E}" destId="{59EC87B7-66D4-4FF6-A44B-4D3655AC275A}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{B40E84C8-94E8-4CA5-874E-CCDCFE55C7AF}" type="presParOf" srcId="{0B705482-4195-42F0-8A22-63A26CA091A5}" destId="{9626D237-078E-4498-ADBA-AED1BB2CB49A}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{BEB3FAE1-1561-460F-AB67-18EE6470DD9F}" type="presParOf" srcId="{67B984B9-05AB-4446-80EC-4968FE57D018}" destId="{9593703F-A345-419B-A57F-E3E9A1D5D9C9}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{E3C09AE2-A75B-49B7-9052-EC9C94E3741D}" type="presParOf" srcId="{67B984B9-05AB-4446-80EC-4968FE57D018}" destId="{7A0035B0-5C30-4623-9506-E030E14A6A53}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
@@ -2127,6 +3717,76 @@
     <dgm:cxn modelId="{EA590808-8BC4-4B71-A41E-375419DAB38A}" type="presParOf" srcId="{D237FE82-0273-4445-96A4-DDF0F5336BEA}" destId="{50A81B0C-37DD-4089-B0DB-8748916AFD3F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{AF5273B8-26ED-4A40-9C9A-F0FA1B6ABCBD}" type="presParOf" srcId="{DF7052BA-D90F-4B6B-80A8-E0378BCC74AF}" destId="{80139A4E-65B8-4B0E-8F30-4EC91DB290E3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{51A9A158-5DA5-40A4-9CF2-0CA4336DC96D}" type="presParOf" srcId="{DF7052BA-D90F-4B6B-80A8-E0378BCC74AF}" destId="{FCAC1618-280B-421F-9972-E0C1A9AF4C2F}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5013882D-0880-4D60-ABAA-447798B998A5}" type="presParOf" srcId="{6FC65D7B-A494-483E-9B06-E6740E372809}" destId="{19502CEF-F15F-44D6-9949-0C5B61766BDE}" srcOrd="10" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6476B010-2164-4B60-94AE-C6092B464445}" type="presParOf" srcId="{6FC65D7B-A494-483E-9B06-E6740E372809}" destId="{034AEA08-82AF-4FE1-9170-BD8A2EA95D1A}" srcOrd="11" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{942CAF9F-0377-454E-A3EC-3E6EBD1C8E4C}" type="presParOf" srcId="{034AEA08-82AF-4FE1-9170-BD8A2EA95D1A}" destId="{F1DF6CD5-251D-4C54-AAD8-045807C06B97}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{79E925CD-B255-4386-8616-410971B83D7A}" type="presParOf" srcId="{F1DF6CD5-251D-4C54-AAD8-045807C06B97}" destId="{9C4FCAFC-8B23-400A-9000-BB533BBF55A4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{29DDDEDE-BB80-4D6C-9F8D-AF5676C38628}" type="presParOf" srcId="{F1DF6CD5-251D-4C54-AAD8-045807C06B97}" destId="{8C09FF33-8040-4CBF-A5BA-6AA1BC5C3CDC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B9BBD96D-B09C-4AA8-BB72-2A89D2AD560C}" type="presParOf" srcId="{034AEA08-82AF-4FE1-9170-BD8A2EA95D1A}" destId="{24068B70-95AC-44FF-9224-D7E4D7D1B9E1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{94D8D043-D581-4095-984D-B7AE0A6C8A8B}" type="presParOf" srcId="{034AEA08-82AF-4FE1-9170-BD8A2EA95D1A}" destId="{CF94FD72-30D2-49EF-B213-1577E48AD271}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0FDBCC50-2261-4E06-BD86-69A4CE8147AF}" type="presParOf" srcId="{6FC65D7B-A494-483E-9B06-E6740E372809}" destId="{D1867E0F-A6C1-4B3A-AE01-E50BD1D97C34}" srcOrd="12" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{074B6CDD-EA75-48B6-8536-7EC54A0D91F1}" type="presParOf" srcId="{6FC65D7B-A494-483E-9B06-E6740E372809}" destId="{ACA59CFC-875A-4C6F-BCAE-F8774C2ABBD9}" srcOrd="13" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A59ADBE2-A02B-43BE-B8F0-FF5CF79F8397}" type="presParOf" srcId="{ACA59CFC-875A-4C6F-BCAE-F8774C2ABBD9}" destId="{8C57B1D1-1A10-4BA2-BA9D-F0A1B2B81613}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B624071E-ABEB-4B6F-B1F5-A1D333594C1E}" type="presParOf" srcId="{8C57B1D1-1A10-4BA2-BA9D-F0A1B2B81613}" destId="{94ADB526-A020-4BA1-997E-8EC2B6D0C51E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D4BCC66B-1CFF-4ED3-BCA1-C92EFB1B95EC}" type="presParOf" srcId="{8C57B1D1-1A10-4BA2-BA9D-F0A1B2B81613}" destId="{64B51C91-A3C6-443C-92DA-65AA8875F5ED}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{011A0475-9C9F-4D13-AF85-27056C9A9710}" type="presParOf" srcId="{ACA59CFC-875A-4C6F-BCAE-F8774C2ABBD9}" destId="{D6E0A11B-8E2A-494B-99F4-B5FFF187837E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4A230488-A6CF-460C-BFE8-6407AE6BF688}" type="presParOf" srcId="{ACA59CFC-875A-4C6F-BCAE-F8774C2ABBD9}" destId="{803C40C5-549E-4289-A905-5FE19BE2E3CA}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B2C86301-625E-422A-A705-4C6A017A2AA5}" type="presParOf" srcId="{6FC65D7B-A494-483E-9B06-E6740E372809}" destId="{E058AF84-D282-49D0-BF6A-8603F553AF8C}" srcOrd="14" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9033EFBE-6D7B-458E-BB19-DCE322272A00}" type="presParOf" srcId="{6FC65D7B-A494-483E-9B06-E6740E372809}" destId="{59EB3506-55C4-474F-9A2F-B75E0C2B4DA4}" srcOrd="15" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8E7E9B3F-CC4C-4B9C-9857-42F13AADDB90}" type="presParOf" srcId="{59EB3506-55C4-474F-9A2F-B75E0C2B4DA4}" destId="{0CA61C14-11CA-4696-9340-3FCFE5CA9865}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BF262A0B-B2FE-4FE4-B26E-9168CF0312F5}" type="presParOf" srcId="{0CA61C14-11CA-4696-9340-3FCFE5CA9865}" destId="{92FA4009-924C-45F2-A4B2-98F3BF76A74E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8D167789-BCCE-4411-92C5-821EC84B5405}" type="presParOf" srcId="{0CA61C14-11CA-4696-9340-3FCFE5CA9865}" destId="{90AA69BC-2A6B-42F6-8D7F-677D3A5D5712}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4352CE1A-2064-424B-A8E8-1268DCD8CBA0}" type="presParOf" srcId="{59EB3506-55C4-474F-9A2F-B75E0C2B4DA4}" destId="{3A971B60-0D10-415D-A677-15E4669F5959}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9EE310D4-AD16-4356-A88C-AF160DBBE6CB}" type="presParOf" srcId="{59EB3506-55C4-474F-9A2F-B75E0C2B4DA4}" destId="{A4DC12F5-B101-4785-B75A-26B75FB72AA0}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E1230FEF-2DCB-4B75-B68C-A7E857F6B62A}" type="presParOf" srcId="{6FC65D7B-A494-483E-9B06-E6740E372809}" destId="{D20AB62E-0A28-4725-A96B-DB93136DEB94}" srcOrd="16" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{63812713-FFD2-4C78-BC06-8C367A5DE285}" type="presParOf" srcId="{6FC65D7B-A494-483E-9B06-E6740E372809}" destId="{01B73D72-AF49-4363-B7DD-900E0B844ADB}" srcOrd="17" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{33576216-8760-438A-8A0D-48B787498A3C}" type="presParOf" srcId="{01B73D72-AF49-4363-B7DD-900E0B844ADB}" destId="{87C2AC92-6BD7-495C-BAFD-6329F8B335AF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8CA2FC72-EE99-437E-8FB2-486CF4C13EC8}" type="presParOf" srcId="{87C2AC92-6BD7-495C-BAFD-6329F8B335AF}" destId="{8555AF53-E540-42F4-93F7-3DF51192CE43}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{85BD4A2B-2EC0-4078-B923-CE0BA76167E9}" type="presParOf" srcId="{87C2AC92-6BD7-495C-BAFD-6329F8B335AF}" destId="{5C56B04C-CE24-49ED-A215-1DDBC570C41C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8C8F909F-5963-4800-8D08-30947C2653AD}" type="presParOf" srcId="{01B73D72-AF49-4363-B7DD-900E0B844ADB}" destId="{A68AA468-78D0-4C03-B517-B2470EC52EF8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A5EC1CC9-8365-472D-847D-2FC22BD2904C}" type="presParOf" srcId="{01B73D72-AF49-4363-B7DD-900E0B844ADB}" destId="{2EAB7C98-0EFC-4E44-AD66-2D20948AA8FC}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{20C7F3E7-72AD-4E49-98F8-194383C3590B}" type="presParOf" srcId="{6FC65D7B-A494-483E-9B06-E6740E372809}" destId="{D22CEA13-A994-41AF-A767-E13A2F0BF873}" srcOrd="18" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A6018BE8-463A-462C-A071-A897D5428080}" type="presParOf" srcId="{6FC65D7B-A494-483E-9B06-E6740E372809}" destId="{A22ED266-A94B-4A90-AC17-574E48B585EA}" srcOrd="19" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{33707092-7F3D-4568-8EF1-8543DB9BD582}" type="presParOf" srcId="{A22ED266-A94B-4A90-AC17-574E48B585EA}" destId="{D5D04EDD-9C1E-404C-AE72-019BF1C209E1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{32BD3280-D533-4203-B934-D6FB5D189C19}" type="presParOf" srcId="{D5D04EDD-9C1E-404C-AE72-019BF1C209E1}" destId="{DABCEE72-0C26-488F-A916-BEAA00793522}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{19E13E9D-8C98-438D-BBF8-BB8498C636D3}" type="presParOf" srcId="{D5D04EDD-9C1E-404C-AE72-019BF1C209E1}" destId="{F4D8AA2B-8239-40E2-8531-3B9B8B8631FC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D16DF489-B927-487C-B6AB-27D650B2B2FC}" type="presParOf" srcId="{A22ED266-A94B-4A90-AC17-574E48B585EA}" destId="{083A12C8-4DA2-411F-860E-2E47448B721C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EF644D78-3FEA-487D-A823-79B224F1FE9B}" type="presParOf" srcId="{A22ED266-A94B-4A90-AC17-574E48B585EA}" destId="{13C3537C-7D1B-4C58-B0DF-AD722F0574BF}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{94688D92-1B0F-4783-B78B-03BA985680EC}" type="presParOf" srcId="{6FC65D7B-A494-483E-9B06-E6740E372809}" destId="{DD7C3817-1535-4989-A715-ED9225A16449}" srcOrd="20" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C83313D5-A934-4017-9450-3FE8239ADB9E}" type="presParOf" srcId="{6FC65D7B-A494-483E-9B06-E6740E372809}" destId="{5F165F4C-9159-46C9-8A91-CF40FB58C5D0}" srcOrd="21" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{42523C83-C7AB-451F-9BB3-44FE57C324F6}" type="presParOf" srcId="{5F165F4C-9159-46C9-8A91-CF40FB58C5D0}" destId="{239F296F-19C8-47E1-82E4-15AF15DCBD31}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9E5DCE1A-BB4E-4ACE-A183-86BB0C3287CB}" type="presParOf" srcId="{239F296F-19C8-47E1-82E4-15AF15DCBD31}" destId="{57EF05D5-DE66-42F1-A5FD-137AEAEE6520}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{02DD37E8-335B-4BF8-B1C7-3D6203AFF100}" type="presParOf" srcId="{239F296F-19C8-47E1-82E4-15AF15DCBD31}" destId="{B900FCA4-9A27-401A-9276-084788597840}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{27AA41CC-E6C7-4B41-AC12-6C3F9C629D2A}" type="presParOf" srcId="{5F165F4C-9159-46C9-8A91-CF40FB58C5D0}" destId="{55BEB59D-BA36-491E-A5F3-F0A4B9977058}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BD4E55CB-7D5D-4C04-ACA5-DD3118D6675E}" type="presParOf" srcId="{5F165F4C-9159-46C9-8A91-CF40FB58C5D0}" destId="{3C253529-3DE1-4BED-B663-975ABFA93969}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{ABBBC6B6-A23C-4C52-A259-77FB8AD75707}" type="presParOf" srcId="{6FC65D7B-A494-483E-9B06-E6740E372809}" destId="{0C7A2B53-021A-45BF-893F-320B0AC1D661}" srcOrd="22" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{73F8D625-11A4-459E-B882-A7EEF2F01208}" type="presParOf" srcId="{6FC65D7B-A494-483E-9B06-E6740E372809}" destId="{ADF65070-9031-4980-84A6-BCD1F844FBE3}" srcOrd="23" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D126453D-5E4D-4E89-A0D0-93A737B8C58E}" type="presParOf" srcId="{ADF65070-9031-4980-84A6-BCD1F844FBE3}" destId="{6B9B61E7-A459-4833-8C00-A852A906598C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C8783F3F-6897-4AD1-8D1D-37DD9F938093}" type="presParOf" srcId="{6B9B61E7-A459-4833-8C00-A852A906598C}" destId="{73837448-C5E4-47F1-AD86-405AB04C815E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D35D184E-10D6-4C13-A5BD-E68BC77F01AF}" type="presParOf" srcId="{6B9B61E7-A459-4833-8C00-A852A906598C}" destId="{D14EC898-90F2-4052-BB50-26871FCEA726}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{322459E8-8A6C-4CFB-8EDA-E6BFDCC7D804}" type="presParOf" srcId="{ADF65070-9031-4980-84A6-BCD1F844FBE3}" destId="{9E7697A5-D588-4887-A599-58F37CE6E39A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CD160182-7B79-43E5-9A03-7AD85D2FB8DE}" type="presParOf" srcId="{ADF65070-9031-4980-84A6-BCD1F844FBE3}" destId="{DDF0B78C-BAE8-490F-B3D1-746AFCED89D8}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6B73BFC4-096D-43F3-8E9B-32761E0C4054}" type="presParOf" srcId="{6FC65D7B-A494-483E-9B06-E6740E372809}" destId="{D0DD37A2-E432-454B-9C01-D910FDEE8395}" srcOrd="24" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A05F240D-0FE2-4C32-8C63-813A95EE1710}" type="presParOf" srcId="{6FC65D7B-A494-483E-9B06-E6740E372809}" destId="{16A9B1FB-A3C3-4948-848D-8C1CAED0BC77}" srcOrd="25" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{12BF9B49-5777-46C9-B409-9FB9C699AB96}" type="presParOf" srcId="{16A9B1FB-A3C3-4948-848D-8C1CAED0BC77}" destId="{04E3B5F9-C0A4-4A8C-8E93-DE71A1FF2A28}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{86D99E4C-0AB7-4776-83EB-F30721820BD7}" type="presParOf" srcId="{04E3B5F9-C0A4-4A8C-8E93-DE71A1FF2A28}" destId="{6CC28567-0539-4C4C-ABA7-87CF6B5A944A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9889E674-62BF-4C78-9773-3E4E565A9952}" type="presParOf" srcId="{04E3B5F9-C0A4-4A8C-8E93-DE71A1FF2A28}" destId="{530760B1-71E6-46B4-AB7F-0810A2D858A2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D2DE4F81-FA80-4402-8AC7-138A317244A0}" type="presParOf" srcId="{16A9B1FB-A3C3-4948-848D-8C1CAED0BC77}" destId="{97E70A90-3520-44DB-8272-EC21FDA51A9A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F3A10D40-575B-40FE-A3CE-C52EAE1EF57F}" type="presParOf" srcId="{16A9B1FB-A3C3-4948-848D-8C1CAED0BC77}" destId="{1D54E004-9ED5-4B9E-9DE9-EE0A480141A3}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{28BDA0C7-B089-4A5A-9AA3-9A49AEAE6119}" type="presParOf" srcId="{6FC65D7B-A494-483E-9B06-E6740E372809}" destId="{B77D35BF-01B2-4249-A9D9-4DD7B7DD24D7}" srcOrd="26" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{14BA4FD3-62A7-45A5-9032-3A3216487FE5}" type="presParOf" srcId="{6FC65D7B-A494-483E-9B06-E6740E372809}" destId="{D11A3BFF-588F-43A6-9454-1EF42110E92F}" srcOrd="27" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FECAA895-999D-4961-996E-82E6722A4751}" type="presParOf" srcId="{D11A3BFF-588F-43A6-9454-1EF42110E92F}" destId="{2C252087-4D3D-40A0-9589-B8CDD8D2672B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{06504B1F-3BB3-4AEE-80A5-E761A9670B3B}" type="presParOf" srcId="{2C252087-4D3D-40A0-9589-B8CDD8D2672B}" destId="{13A3E99F-5973-4CE8-9FCA-1D58D17E0A9E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7988217B-2173-4EF3-A3D5-FF7A6D87CE5B}" type="presParOf" srcId="{2C252087-4D3D-40A0-9589-B8CDD8D2672B}" destId="{58752E66-7507-4FD9-9F8B-77718383E39B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5E9CCE28-22F1-44FB-9CEC-1BFB795C59F0}" type="presParOf" srcId="{D11A3BFF-588F-43A6-9454-1EF42110E92F}" destId="{A10B7091-6DCB-4C40-842F-7A113E9A41D0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B264B132-DFF1-46EE-BCEA-0909D8E8BE2D}" type="presParOf" srcId="{D11A3BFF-588F-43A6-9454-1EF42110E92F}" destId="{6CFA686B-1D62-425C-890A-BC783A877BF8}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E2D49717-296C-4B10-8F64-DCFCC2735D8E}" type="presParOf" srcId="{6FC65D7B-A494-483E-9B06-E6740E372809}" destId="{8D5440F9-20EB-41BF-8A9C-75EC84F9488B}" srcOrd="28" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AF373A0B-7EEE-4D9C-85B2-904EEEF8416D}" type="presParOf" srcId="{6FC65D7B-A494-483E-9B06-E6740E372809}" destId="{22699568-7250-42FB-8F89-6E8861519D72}" srcOrd="29" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D520AB6F-E01F-4288-92A2-359B94E58CC0}" type="presParOf" srcId="{22699568-7250-42FB-8F89-6E8861519D72}" destId="{158AB39E-4F10-42D7-80E1-5E5627F003F1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0FCF8DD2-DCEC-49BB-ABC8-25506B6E680B}" type="presParOf" srcId="{158AB39E-4F10-42D7-80E1-5E5627F003F1}" destId="{A37CA279-8366-44BD-BE89-08D99C3AE0FD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EB1D39CD-C816-4AE8-B4A9-9D69A9A4F860}" type="presParOf" srcId="{158AB39E-4F10-42D7-80E1-5E5627F003F1}" destId="{3CA6ACBF-AE76-47E9-8284-DABBAD1E1609}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E8D0D296-EB89-477D-9BA9-F693E930CC8F}" type="presParOf" srcId="{22699568-7250-42FB-8F89-6E8861519D72}" destId="{A22C39CD-585A-44BD-B1EE-269D787AB609}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{128A0EA4-2C50-4000-91BD-7C58026CD683}" type="presParOf" srcId="{22699568-7250-42FB-8F89-6E8861519D72}" destId="{38A819A7-F07F-4ADE-9C76-BC61F3C78B05}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{5F0A45A1-803A-490A-A39D-0B8DF53DFAD0}" type="presParOf" srcId="{7A0035B0-5C30-4623-9506-E030E14A6A53}" destId="{5B3B9E92-E388-40B9-B07D-6406E18F3FF2}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{1549C85B-969A-43F0-A93C-46CB9DC81AB0}" type="presParOf" srcId="{865F412F-61A9-4D17-B370-3C900F85C4F4}" destId="{254324E9-A202-445C-B1C2-7155CF951521}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{1199066E-AB72-4A0D-84AF-6E9D7CD2A5A6}" type="presParOf" srcId="{4DC4AE24-7496-42E7-B504-2F3238D07FA7}" destId="{3E88680D-FDEA-4C41-BAA1-FDF7468DD238}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
@@ -2165,8 +3825,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5143274" y="498973"/>
-          <a:ext cx="1021431" cy="478874"/>
+          <a:off x="5328143" y="459134"/>
+          <a:ext cx="827674" cy="444117"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2180,10 +3840,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="478874"/>
+                <a:pt x="0" y="444117"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1021431" y="478874"/>
+                <a:pt x="827674" y="444117"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2216,15 +3876,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{DCD537AB-3A0D-46B6-A3F8-E170F6B9285D}">
+    <dsp:sp modelId="{8D5440F9-20EB-41BF-8A9C-75EC84F9488B}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3906772" y="2001955"/>
-          <a:ext cx="133453" cy="3228990"/>
+          <a:off x="4178849" y="1805319"/>
+          <a:ext cx="137365" cy="9524028"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2238,10 +3898,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="3228990"/>
+                <a:pt x="0" y="9524028"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="133453" y="3228990"/>
+                <a:pt x="137365" y="9524028"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2274,15 +3934,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{9214E589-C3A8-4F61-B595-128FB6348F64}">
+    <dsp:sp modelId="{B77D35BF-01B2-4249-A9D9-4DD7B7DD24D7}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3906772" y="2001955"/>
-          <a:ext cx="133453" cy="2598035"/>
+          <a:off x="4178849" y="1805319"/>
+          <a:ext cx="137365" cy="8873830"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2296,10 +3956,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2598035"/>
+                <a:pt x="0" y="8873830"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="133453" y="2598035"/>
+                <a:pt x="137365" y="8873830"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2332,15 +3992,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{E9383A15-8B63-4BD2-A73C-CC0FB9076A09}">
+    <dsp:sp modelId="{D0DD37A2-E432-454B-9C01-D910FDEE8395}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3906772" y="2001955"/>
-          <a:ext cx="133453" cy="1894188"/>
+          <a:off x="4178849" y="1805319"/>
+          <a:ext cx="137365" cy="8223632"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2354,10 +4014,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1894188"/>
+                <a:pt x="0" y="8223632"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="133453" y="1894188"/>
+                <a:pt x="137365" y="8223632"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2390,15 +4050,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{06A72F5E-D38A-4765-A01E-AE4BE79A3521}">
+    <dsp:sp modelId="{0C7A2B53-021A-45BF-893F-320B0AC1D661}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3906772" y="2001955"/>
-          <a:ext cx="133453" cy="1190340"/>
+          <a:off x="4178849" y="1805319"/>
+          <a:ext cx="137365" cy="7573434"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2412,10 +4072,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1190340"/>
+                <a:pt x="0" y="7573434"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="133453" y="1190340"/>
+                <a:pt x="137365" y="7573434"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2448,15 +4108,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{6B80B0A3-0517-46E5-AB59-A39BB431537D}">
+    <dsp:sp modelId="{DD7C3817-1535-4989-A715-ED9225A16449}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3906772" y="2001955"/>
-          <a:ext cx="133453" cy="486492"/>
+          <a:off x="4178849" y="1805319"/>
+          <a:ext cx="137365" cy="6923236"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2470,10 +4130,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="486492"/>
+                <a:pt x="0" y="6923236"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="133453" y="486492"/>
+                <a:pt x="137365" y="6923236"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2506,15 +4166,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{9593703F-A345-419B-A57F-E3E9A1D5D9C9}">
+    <dsp:sp modelId="{D22CEA13-A994-41AF-A767-E13A2F0BF873}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3695925" y="1252387"/>
-          <a:ext cx="607380" cy="253900"/>
+          <a:off x="4178849" y="1805319"/>
+          <a:ext cx="137365" cy="6273038"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2528,13 +4188,593 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="149810"/>
+                <a:pt x="0" y="6273038"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="607380" y="149810"/>
+                <a:pt x="137365" y="6273038"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{D20AB62E-0A28-4725-A96B-DB93136DEB94}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4178849" y="1805319"/>
+          <a:ext cx="137365" cy="5622840"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="5622840"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="607380" y="253900"/>
+                <a:pt x="137365" y="5622840"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{E058AF84-D282-49D0-BF6A-8603F553AF8C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4178849" y="1805319"/>
+          <a:ext cx="137365" cy="4972642"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="4972642"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="137365" y="4972642"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{D1867E0F-A6C1-4B3A-AE01-E50BD1D97C34}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4178849" y="1805319"/>
+          <a:ext cx="137365" cy="4322443"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="4322443"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="137365" y="4322443"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{19502CEF-F15F-44D6-9949-0C5B61766BDE}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4178849" y="1805319"/>
+          <a:ext cx="137365" cy="3672245"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="3672245"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="137365" y="3672245"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{DCD537AB-3A0D-46B6-A3F8-E170F6B9285D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4178849" y="1805319"/>
+          <a:ext cx="137365" cy="3022047"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="3022047"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="137365" y="3022047"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{9214E589-C3A8-4F61-B595-128FB6348F64}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4178849" y="1805319"/>
+          <a:ext cx="137365" cy="2371849"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="2371849"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="137365" y="2371849"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{E9383A15-8B63-4BD2-A73C-CC0FB9076A09}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4178849" y="1805319"/>
+          <a:ext cx="137365" cy="1721651"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1721651"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="137365" y="1721651"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{06A72F5E-D38A-4765-A01E-AE4BE79A3521}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4178849" y="1805319"/>
+          <a:ext cx="137365" cy="1071453"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1071453"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="137365" y="1071453"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{6B80B0A3-0517-46E5-AB59-A39BB431537D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4178849" y="1805319"/>
+          <a:ext cx="137365" cy="421255"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="421255"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="137365" y="421255"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{9593703F-A345-419B-A57F-E3E9A1D5D9C9}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3991116" y="1155121"/>
+          <a:ext cx="554042" cy="192312"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="96156"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="554042" y="96156"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="554042" y="192312"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2567,15 +4807,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{6A072927-7888-40AD-9FC9-50DEDA31C956}">
+    <dsp:sp modelId="{DCB733CD-003C-4237-9D36-3A5D818BEA91}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2707257" y="2001955"/>
-          <a:ext cx="133453" cy="3228990"/>
+          <a:off x="3070765" y="1805319"/>
+          <a:ext cx="137365" cy="9524028"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2589,10 +4829,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="3228990"/>
+                <a:pt x="0" y="9524028"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="133453" y="3228990"/>
+                <a:pt x="137365" y="9524028"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2625,15 +4865,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{0B2C122B-DFD5-4E81-B4E6-2B33CEE66F49}">
+    <dsp:sp modelId="{4462A072-B16F-488C-B3B0-06CAB3EF066C}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2707257" y="2001955"/>
-          <a:ext cx="133453" cy="2598035"/>
+          <a:off x="3070765" y="1805319"/>
+          <a:ext cx="137365" cy="8873830"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2647,10 +4887,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2598035"/>
+                <a:pt x="0" y="8873830"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="133453" y="2598035"/>
+                <a:pt x="137365" y="8873830"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2683,15 +4923,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{4AA820E4-032C-4190-969E-7D835E7A14E7}">
+    <dsp:sp modelId="{86FCE211-AD72-4AA4-ACC1-8FAF63AF7E4A}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2707257" y="2001955"/>
-          <a:ext cx="133453" cy="1894188"/>
+          <a:off x="3070765" y="1805319"/>
+          <a:ext cx="137365" cy="8223632"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2705,10 +4945,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1894188"/>
+                <a:pt x="0" y="8223632"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="133453" y="1894188"/>
+                <a:pt x="137365" y="8223632"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2741,15 +4981,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{B7168AA4-DF23-402D-9C33-ADF72BD610B8}">
+    <dsp:sp modelId="{6A9F99C6-1206-4AE2-93C0-56DFA7D723B6}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2707257" y="2001955"/>
-          <a:ext cx="133453" cy="1190340"/>
+          <a:off x="3070765" y="1805319"/>
+          <a:ext cx="137365" cy="7573434"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2763,10 +5003,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1190340"/>
+                <a:pt x="0" y="7573434"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="133453" y="1190340"/>
+                <a:pt x="137365" y="7573434"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2799,15 +5039,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{940A1E40-786E-44D3-90E8-46DF581ADBFA}">
+    <dsp:sp modelId="{6C75879E-F76F-4938-8C16-05E3D54DA322}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2707257" y="2001955"/>
-          <a:ext cx="133453" cy="486492"/>
+          <a:off x="3070765" y="1805319"/>
+          <a:ext cx="137365" cy="6923236"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2821,10 +5061,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="486492"/>
+                <a:pt x="0" y="6923236"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="133453" y="486492"/>
+                <a:pt x="137365" y="6923236"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2857,15 +5097,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{7100973C-306F-4295-9C5F-44EFDDDA4312}">
+    <dsp:sp modelId="{62FAA317-6055-4A11-9FD2-B8D29D23F76D}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3103791" y="1252387"/>
-          <a:ext cx="592134" cy="253900"/>
+          <a:off x="3070765" y="1805319"/>
+          <a:ext cx="137365" cy="6273038"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2876,16 +5116,596 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="592134" y="0"/>
+                <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="592134" y="149810"/>
+                <a:pt x="0" y="6273038"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="149810"/>
+                <a:pt x="137365" y="6273038"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{EB561D55-C797-403E-9247-227290E720A2}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3070765" y="1805319"/>
+          <a:ext cx="137365" cy="5622840"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="5622840"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="253900"/>
+                <a:pt x="137365" y="5622840"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{151E8BD4-FDD6-4D74-A379-314B53D2EB0F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3070765" y="1805319"/>
+          <a:ext cx="137365" cy="4972642"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="4972642"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="137365" y="4972642"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{CA773655-A037-4E8E-A76E-21A662BD015A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3070765" y="1805319"/>
+          <a:ext cx="137365" cy="4322443"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="4322443"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="137365" y="4322443"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{40666CB8-443B-4687-B175-159697E79960}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3070765" y="1805319"/>
+          <a:ext cx="137365" cy="3672245"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="3672245"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="137365" y="3672245"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{6A072927-7888-40AD-9FC9-50DEDA31C956}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3070765" y="1805319"/>
+          <a:ext cx="137365" cy="3022047"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="3022047"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="137365" y="3022047"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{0B2C122B-DFD5-4E81-B4E6-2B33CEE66F49}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3070765" y="1805319"/>
+          <a:ext cx="137365" cy="2371849"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="2371849"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="137365" y="2371849"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{4AA820E4-032C-4190-969E-7D835E7A14E7}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3070765" y="1805319"/>
+          <a:ext cx="137365" cy="1721651"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1721651"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="137365" y="1721651"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{B7168AA4-DF23-402D-9C33-ADF72BD610B8}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3070765" y="1805319"/>
+          <a:ext cx="137365" cy="1071453"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1071453"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="137365" y="1071453"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{940A1E40-786E-44D3-90E8-46DF581ADBFA}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3070765" y="1805319"/>
+          <a:ext cx="137365" cy="421255"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="421255"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="137365" y="421255"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{7100973C-306F-4295-9C5F-44EFDDDA4312}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3437074" y="1155121"/>
+          <a:ext cx="554042" cy="192312"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="554042" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="554042" y="96156"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="96156"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="192312"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2925,8 +5745,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4241159" y="498973"/>
-          <a:ext cx="902114" cy="480797"/>
+          <a:off x="4494791" y="459134"/>
+          <a:ext cx="833352" cy="444149"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2937,13 +5757,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="902114" y="0"/>
+                <a:pt x="833352" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="902114" y="480797"/>
+                <a:pt x="833352" y="444149"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="480797"/>
+                <a:pt x="0" y="444149"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2983,8 +5803,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4647607" y="3305"/>
-          <a:ext cx="991334" cy="495667"/>
+          <a:off x="4870257" y="1248"/>
+          <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3026,12 +5846,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3044,14 +5864,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="pt-PT" sz="1100" kern="1200"/>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
             <a:t>GanttProject</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4647607" y="3305"/>
-        <a:ext cx="991334" cy="495667"/>
+        <a:off x="4870257" y="1248"/>
+        <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{283CAF85-6315-48ED-9471-EBCE931184DB}">
@@ -3061,8 +5881,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3150691" y="707153"/>
-          <a:ext cx="1090468" cy="545234"/>
+          <a:off x="3487441" y="651446"/>
+          <a:ext cx="1007349" cy="503674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3105,12 +5925,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3123,14 +5943,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="pt-PT" sz="1100" kern="1200"/>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
             <a:t>Study and extract information from the source code</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3150691" y="707153"/>
-        <a:ext cx="1090468" cy="545234"/>
+        <a:off x="3487441" y="651446"/>
+        <a:ext cx="1007349" cy="503674"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E03FCB79-5957-4BFF-8C3B-3C0CE92394BB}">
@@ -3140,8 +5960,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2608123" y="1506288"/>
-          <a:ext cx="991334" cy="495667"/>
+          <a:off x="2979188" y="1347433"/>
+          <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3183,12 +6003,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3201,14 +6021,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="pt-PT" sz="1100" kern="1200"/>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
             <a:t>Identify 15 GoF design patterns</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2608123" y="1506288"/>
-        <a:ext cx="991334" cy="495667"/>
+        <a:off x="2979188" y="1347433"/>
+        <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{4C822B57-F4AE-4BC3-8827-C7BDF0FF9A91}">
@@ -3218,8 +6038,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2840710" y="2240614"/>
-          <a:ext cx="991334" cy="495667"/>
+          <a:off x="3208131" y="1997631"/>
+          <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3261,12 +6081,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3279,14 +6099,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="pt-PT" sz="1100" kern="1200"/>
-            <a:t>Identify 3 GoF design patterns</a:t>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Identify #1 GoF design pattern</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2840710" y="2240614"/>
-        <a:ext cx="991334" cy="495667"/>
+        <a:off x="3208131" y="1997631"/>
+        <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E279A844-45D4-4FC6-87B7-72440F5D5DA0}">
@@ -3296,8 +6116,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2840710" y="2944462"/>
-          <a:ext cx="991334" cy="495667"/>
+          <a:off x="3208131" y="2647829"/>
+          <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3339,12 +6159,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3357,14 +6177,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="pt-PT" sz="1100" kern="1200"/>
-            <a:t>Identify 3 GoF design patterns</a:t>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Identify #2 GoF design pattern</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2840710" y="2944462"/>
-        <a:ext cx="991334" cy="495667"/>
+        <a:off x="3208131" y="2647829"/>
+        <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{2F674596-BD6E-400E-A2B8-07B718E1D21B}">
@@ -3374,8 +6194,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2840710" y="3648310"/>
-          <a:ext cx="991334" cy="495667"/>
+          <a:off x="3208131" y="3298027"/>
+          <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3417,12 +6237,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3435,14 +6255,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="pt-PT" sz="1100" kern="1200"/>
-            <a:t>Identify 3 GoF design patterns</a:t>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Identify #3 GoF design pattern</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2840710" y="3648310"/>
-        <a:ext cx="991334" cy="495667"/>
+        <a:off x="3208131" y="3298027"/>
+        <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E8B7B306-E273-4F92-813D-28C9D79D62C9}">
@@ -3452,8 +6272,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2840710" y="4352157"/>
-          <a:ext cx="991334" cy="495667"/>
+          <a:off x="3208131" y="3948225"/>
+          <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3495,12 +6315,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3513,14 +6333,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="pt-PT" sz="1100" kern="1200"/>
-            <a:t>Identify 3 GoF design patterns</a:t>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Identify #4 GoF design pattern</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2840710" y="4352157"/>
-        <a:ext cx="991334" cy="495667"/>
+        <a:off x="3208131" y="3948225"/>
+        <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B3D64B41-2F22-4E34-821C-D2D72D776A03}">
@@ -3530,8 +6350,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2840710" y="4983112"/>
-          <a:ext cx="991334" cy="495667"/>
+          <a:off x="3208131" y="4598424"/>
+          <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3573,12 +6393,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3591,14 +6411,794 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="pt-PT" sz="1100" kern="1200"/>
-            <a:t>Identify 3 GoF design patterns</a:t>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Identify #5 GoF design pattern</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2840710" y="4983112"/>
-        <a:ext cx="991334" cy="495667"/>
+        <a:off x="3208131" y="4598424"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{034202E5-A306-411D-AC1D-AFA685DA16BC}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3208131" y="5248622"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Identify #6 GoF design pattern</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3208131" y="5248622"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{D1CC369E-8336-4F75-B1B8-B4E38C873EE7}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3208131" y="5898820"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Identify #7 GoF design pattern</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3208131" y="5898820"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{B80A723C-D81E-4E81-9860-5C59F1C7A590}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3208131" y="6549018"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Identify #8 GoF design pattern</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3208131" y="6549018"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{BE4AF244-EA91-4ACD-991D-8DF8AA207614}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3208131" y="7199216"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Identify #9 GoF design pattern</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3208131" y="7199216"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{5C55D77A-EB93-4208-9812-124CF844F7EB}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3208131" y="7849414"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Identify #10 GoF design pattern</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3208131" y="7849414"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{9CF4861E-0245-4BB7-AD7A-1C9E6435BFA9}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3208131" y="8499612"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Identify #11 GoF design pattern</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3208131" y="8499612"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{668CF092-263E-4AF6-BBAF-62CD650BA2A1}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3208131" y="9149810"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Identify #12 GoF design pattern</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3208131" y="9149810"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{F451FEFB-462D-4AFC-AC93-3F62D47E2DCD}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3208131" y="9800009"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Identify #13 GoF design pattern</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3208131" y="9800009"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{76678D45-A4BF-462E-AA58-A21E20C8CE3C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3208131" y="10450207"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Identify #14 GoF design pattern</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3208131" y="10450207"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{F55659BF-2C7B-4384-A7C4-51928F7AF7AA}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3208131" y="11100405"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Identify #15 GoF design pattern</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3208131" y="11100405"/>
+        <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{2346FA80-4170-4490-B513-3B8167E9CF6D}">
@@ -3608,8 +7208,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3807639" y="1506288"/>
-          <a:ext cx="991334" cy="495667"/>
+          <a:off x="4087272" y="1347433"/>
+          <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3651,12 +7251,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3669,14 +7269,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="pt-PT" sz="1100" kern="1200"/>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
             <a:t>Identify 15 code smells</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3807639" y="1506288"/>
-        <a:ext cx="991334" cy="495667"/>
+        <a:off x="4087272" y="1347433"/>
+        <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A621623C-A4B4-4EFF-9DDB-919CBB13BD7D}">
@@ -3686,8 +7286,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4040226" y="2240614"/>
-          <a:ext cx="991334" cy="495667"/>
+          <a:off x="4316215" y="1997631"/>
+          <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3729,12 +7329,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3747,14 +7347,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="pt-PT" sz="1100" kern="1200"/>
-            <a:t>Identify 3 code smells</a:t>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Identify #1 code smell</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4040226" y="2240614"/>
-        <a:ext cx="991334" cy="495667"/>
+        <a:off x="4316215" y="1997631"/>
+        <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{553033C2-5876-4B8E-A890-4C0EC9B33EAE}">
@@ -3764,8 +7364,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4040226" y="2944462"/>
-          <a:ext cx="991334" cy="495667"/>
+          <a:off x="4316215" y="2647829"/>
+          <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3807,12 +7407,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3825,14 +7425,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="pt-PT" sz="1100" kern="1200"/>
-            <a:t>Identify 3 code smells</a:t>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Identify #2 code smell</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4040226" y="2944462"/>
-        <a:ext cx="991334" cy="495667"/>
+        <a:off x="4316215" y="2647829"/>
+        <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0FDB07CF-9BC6-4BC5-A769-7BA1F59A7701}">
@@ -3842,8 +7442,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4040226" y="3648310"/>
-          <a:ext cx="991334" cy="495667"/>
+          <a:off x="4316215" y="3298027"/>
+          <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3885,12 +7485,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3903,14 +7503,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="pt-PT" sz="1100" kern="1200"/>
-            <a:t>Identify 3 code smells</a:t>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Identify #3 code smell</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4040226" y="3648310"/>
-        <a:ext cx="991334" cy="495667"/>
+        <a:off x="4316215" y="3298027"/>
+        <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5364C193-691C-4413-BC49-B0A7BAE63A88}">
@@ -3920,8 +7520,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4040226" y="4352157"/>
-          <a:ext cx="991334" cy="495667"/>
+          <a:off x="4316215" y="3948225"/>
+          <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3963,12 +7563,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3981,14 +7581,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="pt-PT" sz="1100" kern="1200"/>
-            <a:t>Identify 3 code smells</a:t>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Identify #4 code smell</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4040226" y="4352157"/>
-        <a:ext cx="991334" cy="495667"/>
+        <a:off x="4316215" y="3948225"/>
+        <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8377DBF6-2C6D-4C37-8668-E4C3FA2036F3}">
@@ -3998,8 +7598,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4040226" y="4983112"/>
-          <a:ext cx="991334" cy="495667"/>
+          <a:off x="4316215" y="4598424"/>
+          <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4041,12 +7641,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4059,14 +7659,794 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="pt-PT" sz="1100" kern="1200"/>
-            <a:t>Identify 3 code smells</a:t>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Identify #5 code smell</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4040226" y="4983112"/>
-        <a:ext cx="991334" cy="495667"/>
+        <a:off x="4316215" y="4598424"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{9C4FCAFC-8B23-400A-9000-BB533BBF55A4}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4316215" y="5248622"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Identify #6 code smell</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4316215" y="5248622"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{94ADB526-A020-4BA1-997E-8EC2B6D0C51E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4316215" y="5898820"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Identify #7 code smell</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4316215" y="5898820"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{92FA4009-924C-45F2-A4B2-98F3BF76A74E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4316215" y="6549018"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Identify #8 code smell</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4316215" y="6549018"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{8555AF53-E540-42F4-93F7-3DF51192CE43}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4316215" y="7199216"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Identify #9 code smell</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4316215" y="7199216"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{DABCEE72-0C26-488F-A916-BEAA00793522}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4316215" y="7849414"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Identify #10 code smell</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4316215" y="7849414"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{57EF05D5-DE66-42F1-A5FD-137AEAEE6520}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4316215" y="8499612"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Identify #11 code smell</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4316215" y="8499612"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{73837448-C5E4-47F1-AD86-405AB04C815E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4316215" y="9149810"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Identify #12 code smell</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4316215" y="9149810"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{6CC28567-0539-4C4C-ABA7-87CF6B5A944A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4316215" y="9800009"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Identify #13 code smell</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4316215" y="9800009"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{13A3E99F-5973-4CE8-9FCA-1D58D17E0A9E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4316215" y="10450207"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Identify #14 code smell</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4316215" y="10450207"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{A37CA279-8366-44BD-BE89-08D99C3AE0FD}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4316215" y="11100405"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Identify #15 code smell</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4316215" y="11100405"/>
+        <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FB20A176-8702-4060-9AC0-535BADA6E841}">
@@ -4076,8 +8456,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6164706" y="730013"/>
-          <a:ext cx="991334" cy="495667"/>
+          <a:off x="6155818" y="674308"/>
+          <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4120,12 +8500,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4138,14 +8518,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="pt-PT" sz="1100" kern="1200"/>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
             <a:t>Phase 2</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6164706" y="730013"/>
-        <a:ext cx="991334" cy="495667"/>
+        <a:off x="6155818" y="674308"/>
+        <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -6334,18 +10714,18 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6676,7 +11056,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Project/Work breakdown structure.xlsx
+++ b/Project/Work breakdown structure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophia\Desktop\Sophia\Faculdade\ES\GanttProject\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophia\Desktop\Sophia\Faculdade\ES\ganttprojectstable\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102F5BB9-0E14-43ED-8D11-EB809315320F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF47149-848A-4421-BB92-714FC4B5FC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B8192C47-A09E-4BA8-B0FD-1F9525E819C1}"/>
   </bookViews>
@@ -1350,15 +1350,15 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{6514F17A-9CA9-45F3-8667-9DA0345A33DC}" type="asst">
-      <dgm:prSet/>
+      <dgm:prSet custT="1"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="pt-PT"/>
-            <a:t>Phase 2</a:t>
+            <a:rPr lang="pt-PT" sz="900"/>
+            <a:t>Study and extend the project functionalities</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -2131,6 +2131,726 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{042879A2-EDB0-4DF5-8C20-B5AFB6319BB0}" type="sibTrans" cxnId="{94B9C977-71EF-49B4-994B-43CBBCB59580}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D8FDEFD7-AC2B-4719-9B9D-282DA770601C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Select functionalities</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{09B6234A-7B2B-4548-AEAB-A14DF77B5327}" type="parTrans" cxnId="{BB907B25-5862-4860-B98F-881DB21F6E4F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4151A86E-5EA2-4BEF-A102-9DDD6E39670D}" type="sibTrans" cxnId="{BB907B25-5862-4860-B98F-881DB21F6E4F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DC53772E-FC8F-4988-BA8A-37997525A910}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Search possible functionalities to implement</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{13FEC7DF-3E26-4630-9BE0-42BB5C86D5FE}" type="parTrans" cxnId="{B2CDDB5A-9D1A-4718-B1FD-189BBB32E40D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{383588F8-37B4-4C61-B52C-897E3A2111F9}" type="sibTrans" cxnId="{B2CDDB5A-9D1A-4718-B1FD-189BBB32E40D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6AA1F5CA-AA5B-470E-AC12-C47A7A7FC08B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Find functionalities to suggest</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4A387971-6777-4BCF-BEB2-A6226B7ABBEA}" type="parTrans" cxnId="{C5FEB406-E3EE-4AE2-953F-2360888C3E57}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1854DABC-BAC2-428E-BED7-42F2449A62C6}" type="sibTrans" cxnId="{C5FEB406-E3EE-4AE2-953F-2360888C3E57}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C914E873-AC8A-435E-A8AC-72407A2B45B8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Voting for functionalities</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BC5BF661-904D-4D5B-8D22-2509B708F62A}" type="parTrans" cxnId="{9BDF547B-9B14-4E5F-9BEB-F17AE2EEF8A2}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1775F677-9E84-4E94-AA90-875CF2215A5B}" type="sibTrans" cxnId="{9BDF547B-9B14-4E5F-9BEB-F17AE2EEF8A2}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A35D5245-D309-44C5-B8BC-CB8449D09308}">
+      <dgm:prSet custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="900"/>
+            <a:t>Extend functionalities in the code base</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{137F0638-57F6-42EC-A226-7A7223C821ED}" type="parTrans" cxnId="{83A2A3F6-3E81-4A19-86BF-F17E823E7E16}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A8FBC6DB-6FB5-4C9A-BEEC-E9561A14D20A}" type="sibTrans" cxnId="{83A2A3F6-3E81-4A19-86BF-F17E823E7E16}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FA5A73EA-3D8E-4167-A35F-E58682BDC58B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Model Use Cases</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{311C945E-6BDD-4CA2-9CE2-B55BFE27BD8D}" type="parTrans" cxnId="{D953A01B-5B81-40B8-8141-9B048561F90C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{14CC6DF6-E7AA-41BA-B369-C34135F6BC16}" type="sibTrans" cxnId="{D953A01B-5B81-40B8-8141-9B048561F90C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{05E64B1F-9768-4074-8E73-DE1E6B5AD326}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Find where to put the todoList code</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F1E9F81F-FC8B-4174-B613-A42475F15AF5}" type="parTrans" cxnId="{84EC60F9-9843-4785-A9B6-8A35957CEF4E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{371BDA70-A2E4-43D8-A912-8DA6C74095A9}" type="sibTrans" cxnId="{84EC60F9-9843-4785-A9B6-8A35957CEF4E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5B688E4E-B86C-478C-A06F-B4166DFECEEB}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Find where to put the taskFiles code</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E2B42B3B-E4A6-453B-8773-81B52115738B}" type="parTrans" cxnId="{0E8A37C8-E8CB-4834-8C98-BF2FB79E8F02}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1ADEE64D-2AFD-4275-93AA-47DB50DB2898}" type="sibTrans" cxnId="{0E8A37C8-E8CB-4834-8C98-BF2FB79E8F02}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6827A366-9FAF-445F-A0F4-D95672BC68BE}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Starting to write code for todoList</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DE280DB2-526F-4973-B3AE-6C4DCE1BED3D}" type="parTrans" cxnId="{E30ED5EF-FB06-4B54-AB2B-4E4CC2CDF8DD}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E19506C6-293A-4ABD-A33F-B1294100092C}" type="sibTrans" cxnId="{E30ED5EF-FB06-4B54-AB2B-4E4CC2CDF8DD}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{01CB5732-E260-412B-B054-9AE2D15257BD}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Starting to write code for taskFiles</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{403C34B6-0831-4152-A7E3-F46D962C031B}" type="parTrans" cxnId="{BC5BBCB8-C863-4844-B449-7D3B88CF9BD4}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{644D8648-81AF-451A-A0C3-517619E1C393}" type="sibTrans" cxnId="{BC5BBCB8-C863-4844-B449-7D3B88CF9BD4}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E6C7F547-A5CD-4A6F-888E-F3B5C0F8BC39}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Continuing the todoList code</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{554753B8-FD23-4BCB-B81A-D42FD5EAF8AE}" type="parTrans" cxnId="{A6E7A132-C848-4603-9BE7-C99C1014FA01}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2D025EDD-8407-475A-B38C-36A3CE961750}" type="sibTrans" cxnId="{A6E7A132-C848-4603-9BE7-C99C1014FA01}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C886FE77-85CF-42DD-A8E8-4E4F4F5C25AA}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Finishing the todoList code</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{49F736D1-6A06-4802-B023-BE00EEBDB05D}" type="parTrans" cxnId="{BADA7C42-2F9C-416A-AE86-A331EDD7FA63}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FFB6CFF7-9EF0-4ED7-8F22-26899B6DA326}" type="sibTrans" cxnId="{BADA7C42-2F9C-416A-AE86-A331EDD7FA63}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FE0084C3-AFC5-4760-B79A-EA5CD2D26EA7}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Continuing the taskFiles code</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AAE0467C-AFCC-4C06-BF0F-DB3A3ACEF57A}" type="parTrans" cxnId="{A040E8A3-43C1-4A2E-969E-1D3ED465018A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A630C4A2-6677-40E9-8FD3-F6D5821D312E}" type="sibTrans" cxnId="{A040E8A3-43C1-4A2E-969E-1D3ED465018A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A97BB7E4-DF3A-485B-A09E-5EABB4C991F9}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Finishing the taskFiles code</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7A02748C-4662-4B4C-8293-A3253E68F1DF}" type="parTrans" cxnId="{3C6CBCE5-ADCB-4D9C-854A-9ED62BA990F3}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{697D1C5D-F85F-4C61-A4B4-446C8971A12B}" type="sibTrans" cxnId="{3C6CBCE5-ADCB-4D9C-854A-9ED62BA990F3}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{09197FFA-6362-45BA-8BA6-30D42B3BF68C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Create Unit Tests</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EB1083D3-1F18-4792-8D18-D93CFE6EC80E}" type="parTrans" cxnId="{169A5FD9-536D-41C5-9078-78006C24DC44}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1764A1DA-B442-4C44-884B-B10F6FCF0DBE}" type="sibTrans" cxnId="{169A5FD9-536D-41C5-9078-78006C24DC44}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{25BFE768-FC6F-4283-B04B-5F5069BDE86D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Starting the Use Cases reports</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{43CD796B-E343-49D3-B76C-50FE4FFECBF5}" type="parTrans" cxnId="{F1897B9C-5E99-4B4F-A17E-8954D6DD7ED2}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8B324C5A-1545-4E86-95E8-0C4A39CC345D}" type="sibTrans" cxnId="{F1897B9C-5E99-4B4F-A17E-8954D6DD7ED2}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EF616599-09F7-4541-8893-4EDA804CC018}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Continuing the Use Cases reports</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{908966A0-D41B-40B0-AEF5-A92321FFCEDE}" type="parTrans" cxnId="{0B7BC929-AF4F-48D8-898C-3782A031F027}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3E6D5CF7-8A5A-4876-A4F1-7B687E18D9C3}" type="sibTrans" cxnId="{0B7BC929-AF4F-48D8-898C-3782A031F027}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C8D2EA99-C714-4383-A0B7-A1FBD672EDA4}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Finishing the Use Cases reports</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{113D1EBF-B818-4C32-BA93-E5600BF7D85F}" type="parTrans" cxnId="{91831B8E-A142-41FF-9D3D-942738A53577}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{80232AF1-777D-4046-B79B-63FF4A20CE06}" type="sibTrans" cxnId="{91831B8E-A142-41FF-9D3D-942738A53577}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2C2E2EC0-60BE-45DB-847D-B36105032B7D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Calculate Code Metrics</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{76636C6B-09A1-409D-9B4C-3C0855651782}" type="parTrans" cxnId="{33D495B4-F941-4348-9AD1-7D6BE8A28F58}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1D7EA866-3B18-4F7E-AF04-E5E31C0A2433}" type="sibTrans" cxnId="{33D495B4-F941-4348-9AD1-7D6BE8A28F58}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5B5E09D1-2D79-4D75-9659-704E342CD5A1}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT"/>
+            <a:t>Create YouTube video</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{25DD3F4B-18D4-4987-8BA1-F710B6FB218E}" type="parTrans" cxnId="{EF477645-DC17-4C0E-8098-E34B6B654D9E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A6F4979D-4C28-4236-97D2-AD0C40DF7A62}" type="sibTrans" cxnId="{EF477645-DC17-4C0E-8098-E34B6B654D9E}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2167,7 +2887,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{7382DCCB-C9E3-4D39-BC4A-1A907D5D9EB2}" type="pres">
-      <dgm:prSet presAssocID="{D52D180F-96AF-47C2-A602-E250A0E9F4DE}" presName="rootText1" presStyleLbl="node0" presStyleIdx="0" presStyleCnt="1">
+      <dgm:prSet presAssocID="{D52D180F-96AF-47C2-A602-E250A0E9F4DE}" presName="rootText1" presStyleLbl="node0" presStyleIdx="0" presStyleCnt="1" custLinFactX="97205" custLinFactNeighborX="100000" custLinFactNeighborY="4992">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2219,7 +2939,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{7100973C-306F-4295-9C5F-44EFDDDA4312}" type="pres">
-      <dgm:prSet presAssocID="{C4184C6B-7BC1-4A24-9C77-9D1343789F99}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="2"/>
+      <dgm:prSet presAssocID="{C4184C6B-7BC1-4A24-9C77-9D1343789F99}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="8"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{0B705482-4195-42F0-8A22-63A26CA091A5}" type="pres">
@@ -2235,7 +2955,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E03FCB79-5957-4BFF-8C3B-3C0CE92394BB}" type="pres">
-      <dgm:prSet presAssocID="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" presName="rootText" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="2">
+      <dgm:prSet presAssocID="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" presName="rootText" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="8">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2243,7 +2963,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{7BD05344-D232-4A1C-92D8-7BD696C52034}" type="pres">
-      <dgm:prSet presAssocID="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="2"/>
+      <dgm:prSet presAssocID="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="8"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B48BE453-F860-43F4-818D-DAD7114BBB7D}" type="pres">
@@ -2251,7 +2971,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{940A1E40-786E-44D3-90E8-46DF581ADBFA}" type="pres">
-      <dgm:prSet presAssocID="{83AEE348-8605-4779-AA27-DF1CEF81FD88}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{83AEE348-8605-4779-AA27-DF1CEF81FD88}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C618B627-74A1-4A79-9931-779DBFD2087F}" type="pres">
@@ -2267,7 +2987,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4C822B57-F4AE-4BC3-8827-C7BDF0FF9A91}" type="pres">
-      <dgm:prSet presAssocID="{F77484B1-1710-466C-BBBF-BE25AA5DCF90}" presName="rootText" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="30">
+      <dgm:prSet presAssocID="{F77484B1-1710-466C-BBBF-BE25AA5DCF90}" presName="rootText" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="44">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2275,7 +2995,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B709B488-D8CB-4A6C-9CA0-6F3DC6B8704D}" type="pres">
-      <dgm:prSet presAssocID="{F77484B1-1710-466C-BBBF-BE25AA5DCF90}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{F77484B1-1710-466C-BBBF-BE25AA5DCF90}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{3D0E19A6-052F-4216-AE14-6A8BBB16D59A}" type="pres">
@@ -2287,7 +3007,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B7168AA4-DF23-402D-9C33-ADF72BD610B8}" type="pres">
-      <dgm:prSet presAssocID="{C86234D4-5FE8-4C2C-A8D7-F97FE16952E5}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{C86234D4-5FE8-4C2C-A8D7-F97FE16952E5}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{ED2D1B57-A6EF-4F86-8BBE-9164801F51D4}" type="pres">
@@ -2303,7 +3023,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E279A844-45D4-4FC6-87B7-72440F5D5DA0}" type="pres">
-      <dgm:prSet presAssocID="{E0316E49-B6C8-493D-A28E-E0B961FBC6AD}" presName="rootText" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="30">
+      <dgm:prSet presAssocID="{E0316E49-B6C8-493D-A28E-E0B961FBC6AD}" presName="rootText" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="44">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2311,7 +3031,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{AE0DEA63-392C-44D5-B780-12E5FF435E47}" type="pres">
-      <dgm:prSet presAssocID="{E0316E49-B6C8-493D-A28E-E0B961FBC6AD}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{E0316E49-B6C8-493D-A28E-E0B961FBC6AD}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{0F702727-E4E9-4E31-BF1E-6B6F2287223E}" type="pres">
@@ -2323,7 +3043,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4AA820E4-032C-4190-969E-7D835E7A14E7}" type="pres">
-      <dgm:prSet presAssocID="{808161B4-43C6-4363-AC59-E7CF58667E6E}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{808161B4-43C6-4363-AC59-E7CF58667E6E}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B191146A-A6F7-4380-AB1F-664B7B79CB7A}" type="pres">
@@ -2339,7 +3059,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2F674596-BD6E-400E-A2B8-07B718E1D21B}" type="pres">
-      <dgm:prSet presAssocID="{580E3BE0-46C0-45E0-8D39-9B982A586825}" presName="rootText" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="30">
+      <dgm:prSet presAssocID="{580E3BE0-46C0-45E0-8D39-9B982A586825}" presName="rootText" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="44">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2347,7 +3067,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{9368456D-39DC-467B-B356-2A7E651352A3}" type="pres">
-      <dgm:prSet presAssocID="{580E3BE0-46C0-45E0-8D39-9B982A586825}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{580E3BE0-46C0-45E0-8D39-9B982A586825}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B91243A3-8A6D-4F6A-9262-E86C24C3E45C}" type="pres">
@@ -2359,7 +3079,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{0B2C122B-DFD5-4E81-B4E6-2B33CEE66F49}" type="pres">
-      <dgm:prSet presAssocID="{8A2156E5-B58E-48A6-AF7C-DE799F9AAB53}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{8A2156E5-B58E-48A6-AF7C-DE799F9AAB53}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B949FB1A-6401-49B1-98D0-48B7F58CA9AA}" type="pres">
@@ -2375,7 +3095,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E8B7B306-E273-4F92-813D-28C9D79D62C9}" type="pres">
-      <dgm:prSet presAssocID="{664BFA91-1A05-4A8A-B942-6B39BAF0BA4D}" presName="rootText" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="30">
+      <dgm:prSet presAssocID="{664BFA91-1A05-4A8A-B942-6B39BAF0BA4D}" presName="rootText" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="44">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2383,7 +3103,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B323526E-6A0D-4642-8371-A6F3A1016B6A}" type="pres">
-      <dgm:prSet presAssocID="{664BFA91-1A05-4A8A-B942-6B39BAF0BA4D}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{664BFA91-1A05-4A8A-B942-6B39BAF0BA4D}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{89D16630-B4E6-4C68-8D20-71863381B530}" type="pres">
@@ -2395,7 +3115,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{6A072927-7888-40AD-9FC9-50DEDA31C956}" type="pres">
-      <dgm:prSet presAssocID="{A89EC362-FEE0-4A8A-A4CD-8EE30E3C2232}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="4" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{A89EC362-FEE0-4A8A-A4CD-8EE30E3C2232}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="4" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{132F11FF-6A47-4BDF-9875-BE011FDEB1F7}" type="pres">
@@ -2411,7 +3131,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B3D64B41-2F22-4E34-821C-D2D72D776A03}" type="pres">
-      <dgm:prSet presAssocID="{8759AA84-0801-4D9B-B148-C36A20201E7C}" presName="rootText" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="30">
+      <dgm:prSet presAssocID="{8759AA84-0801-4D9B-B148-C36A20201E7C}" presName="rootText" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="44">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2419,7 +3139,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4C2BDFFE-5460-49E7-A00C-22DC65BE4CB9}" type="pres">
-      <dgm:prSet presAssocID="{8759AA84-0801-4D9B-B148-C36A20201E7C}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{8759AA84-0801-4D9B-B148-C36A20201E7C}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{7661E66F-97B8-4696-8262-D6B7E005F6C3}" type="pres">
@@ -2431,7 +3151,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{40666CB8-443B-4687-B175-159697E79960}" type="pres">
-      <dgm:prSet presAssocID="{0ACEB9D5-75E1-4AAE-9D0D-C745E34D7DEA}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="5" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{0ACEB9D5-75E1-4AAE-9D0D-C745E34D7DEA}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="5" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{EC3AD8F9-59E1-49AC-A2B3-581020AD38BB}" type="pres">
@@ -2447,7 +3167,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{034202E5-A306-411D-AC1D-AFA685DA16BC}" type="pres">
-      <dgm:prSet presAssocID="{79845260-82E1-4302-ADB8-E3548D6C9EA0}" presName="rootText" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="30">
+      <dgm:prSet presAssocID="{79845260-82E1-4302-ADB8-E3548D6C9EA0}" presName="rootText" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="44">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2455,7 +3175,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B7D46C13-CE0D-43D1-8695-E9A2E0815BB2}" type="pres">
-      <dgm:prSet presAssocID="{79845260-82E1-4302-ADB8-E3548D6C9EA0}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{79845260-82E1-4302-ADB8-E3548D6C9EA0}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F37EE3BB-F09B-4F8A-A5A6-7FA29FB17775}" type="pres">
@@ -2467,7 +3187,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{CA773655-A037-4E8E-A76E-21A662BD015A}" type="pres">
-      <dgm:prSet presAssocID="{4453BA53-2066-434B-AA54-E2AB0B04C80E}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{4453BA53-2066-434B-AA54-E2AB0B04C80E}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D1753D48-81B9-431F-BE3F-08D1CC0D195F}" type="pres">
@@ -2483,7 +3203,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D1CC369E-8336-4F75-B1B8-B4E38C873EE7}" type="pres">
-      <dgm:prSet presAssocID="{D5A72B32-950B-470B-84BF-D727D560272F}" presName="rootText" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="30">
+      <dgm:prSet presAssocID="{D5A72B32-950B-470B-84BF-D727D560272F}" presName="rootText" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="44">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2491,7 +3211,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4CD7D1EF-FE25-4DDC-89BB-AEC0F5371D44}" type="pres">
-      <dgm:prSet presAssocID="{D5A72B32-950B-470B-84BF-D727D560272F}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{D5A72B32-950B-470B-84BF-D727D560272F}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{42629045-484A-49F7-9DC7-6750C9C7FEE7}" type="pres">
@@ -2503,7 +3223,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{151E8BD4-FDD6-4D74-A379-314B53D2EB0F}" type="pres">
-      <dgm:prSet presAssocID="{8D6E5929-CA5C-4404-9CC7-F775EACFE012}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="7" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{8D6E5929-CA5C-4404-9CC7-F775EACFE012}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="7" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{56E17140-A16C-4858-809E-1265AF85386B}" type="pres">
@@ -2519,7 +3239,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B80A723C-D81E-4E81-9860-5C59F1C7A590}" type="pres">
-      <dgm:prSet presAssocID="{003AD82E-1CD4-40E1-807D-E799EE8CC72A}" presName="rootText" presStyleLbl="node4" presStyleIdx="7" presStyleCnt="30">
+      <dgm:prSet presAssocID="{003AD82E-1CD4-40E1-807D-E799EE8CC72A}" presName="rootText" presStyleLbl="node4" presStyleIdx="7" presStyleCnt="44">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2527,7 +3247,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{EBBDAC5D-D760-4C4D-B064-844F62EC27B2}" type="pres">
-      <dgm:prSet presAssocID="{003AD82E-1CD4-40E1-807D-E799EE8CC72A}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="7" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{003AD82E-1CD4-40E1-807D-E799EE8CC72A}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="7" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{5D207032-4730-47DB-B686-E7BFB80AA3BC}" type="pres">
@@ -2539,7 +3259,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{EB561D55-C797-403E-9247-227290E720A2}" type="pres">
-      <dgm:prSet presAssocID="{CCB16EC1-4F8A-4FB4-BD33-8E4F25872644}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="8" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{CCB16EC1-4F8A-4FB4-BD33-8E4F25872644}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="8" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8B72C670-973D-4733-A75D-F06BCBDBCAC7}" type="pres">
@@ -2555,7 +3275,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{BE4AF244-EA91-4ACD-991D-8DF8AA207614}" type="pres">
-      <dgm:prSet presAssocID="{E4704C8A-763D-4A72-A874-9D77E155837B}" presName="rootText" presStyleLbl="node4" presStyleIdx="8" presStyleCnt="30">
+      <dgm:prSet presAssocID="{E4704C8A-763D-4A72-A874-9D77E155837B}" presName="rootText" presStyleLbl="node4" presStyleIdx="8" presStyleCnt="44">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2563,7 +3283,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{EA8B48C8-06D0-48E0-A5CC-38637E884C2D}" type="pres">
-      <dgm:prSet presAssocID="{E4704C8A-763D-4A72-A874-9D77E155837B}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="8" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{E4704C8A-763D-4A72-A874-9D77E155837B}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="8" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{3EF4B1B9-4152-4E01-8D2B-5329CDCA740B}" type="pres">
@@ -2575,7 +3295,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{62FAA317-6055-4A11-9FD2-B8D29D23F76D}" type="pres">
-      <dgm:prSet presAssocID="{C26ADEE5-7AA8-4774-B683-AEB91F04A02F}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="9" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{C26ADEE5-7AA8-4774-B683-AEB91F04A02F}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="9" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{FECA7A43-FBDB-4924-B7CB-5F062465D704}" type="pres">
@@ -2591,7 +3311,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{5C55D77A-EB93-4208-9812-124CF844F7EB}" type="pres">
-      <dgm:prSet presAssocID="{BF4338EB-29BE-4A08-A7F2-66BB67ACBCD1}" presName="rootText" presStyleLbl="node4" presStyleIdx="9" presStyleCnt="30">
+      <dgm:prSet presAssocID="{BF4338EB-29BE-4A08-A7F2-66BB67ACBCD1}" presName="rootText" presStyleLbl="node4" presStyleIdx="9" presStyleCnt="44">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2599,7 +3319,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{36DB12A0-2BA3-4C52-B707-C9B9CFC04BC4}" type="pres">
-      <dgm:prSet presAssocID="{BF4338EB-29BE-4A08-A7F2-66BB67ACBCD1}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="9" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{BF4338EB-29BE-4A08-A7F2-66BB67ACBCD1}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="9" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{558366EA-CE93-4FE8-A8F2-F499302A8805}" type="pres">
@@ -2611,7 +3331,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{6C75879E-F76F-4938-8C16-05E3D54DA322}" type="pres">
-      <dgm:prSet presAssocID="{6393D3BC-DD67-4CFC-95FA-0E2F1B9AB123}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="10" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{6393D3BC-DD67-4CFC-95FA-0E2F1B9AB123}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="10" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B39400EC-2AC7-4197-9A99-F4B43E1E0666}" type="pres">
@@ -2627,7 +3347,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{9CF4861E-0245-4BB7-AD7A-1C9E6435BFA9}" type="pres">
-      <dgm:prSet presAssocID="{7FC4E244-860C-49B9-93EB-D304D2B2DE46}" presName="rootText" presStyleLbl="node4" presStyleIdx="10" presStyleCnt="30">
+      <dgm:prSet presAssocID="{7FC4E244-860C-49B9-93EB-D304D2B2DE46}" presName="rootText" presStyleLbl="node4" presStyleIdx="10" presStyleCnt="44">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2635,7 +3355,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{3D0A6FE5-1124-4551-927A-CC9F79EC8E85}" type="pres">
-      <dgm:prSet presAssocID="{7FC4E244-860C-49B9-93EB-D304D2B2DE46}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="10" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{7FC4E244-860C-49B9-93EB-D304D2B2DE46}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="10" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{707A11BC-3DED-4B9C-8830-9B213B716EB4}" type="pres">
@@ -2647,7 +3367,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{6A9F99C6-1206-4AE2-93C0-56DFA7D723B6}" type="pres">
-      <dgm:prSet presAssocID="{A0134DC4-F4F7-4837-ACEB-1EF157331388}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="11" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{A0134DC4-F4F7-4837-ACEB-1EF157331388}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="11" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E15CC92F-4133-49A0-8E55-EC20D63AC85D}" type="pres">
@@ -2663,7 +3383,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{668CF092-263E-4AF6-BBAF-62CD650BA2A1}" type="pres">
-      <dgm:prSet presAssocID="{10E10364-03F8-45C9-A5AA-8B95424FE183}" presName="rootText" presStyleLbl="node4" presStyleIdx="11" presStyleCnt="30">
+      <dgm:prSet presAssocID="{10E10364-03F8-45C9-A5AA-8B95424FE183}" presName="rootText" presStyleLbl="node4" presStyleIdx="11" presStyleCnt="44">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2671,7 +3391,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{9509858C-DA6E-492F-9E1F-455B716B18D5}" type="pres">
-      <dgm:prSet presAssocID="{10E10364-03F8-45C9-A5AA-8B95424FE183}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="11" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{10E10364-03F8-45C9-A5AA-8B95424FE183}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="11" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{87FD18BC-6DAC-4476-BFBF-480C15B4F170}" type="pres">
@@ -2683,7 +3403,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{86FCE211-AD72-4AA4-ACC1-8FAF63AF7E4A}" type="pres">
-      <dgm:prSet presAssocID="{ADC38089-320B-4900-907B-73C31EB12659}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="12" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{ADC38089-320B-4900-907B-73C31EB12659}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="12" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{CC95BC31-F60E-451A-8E2E-E3E2A3143C80}" type="pres">
@@ -2699,7 +3419,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F451FEFB-462D-4AFC-AC93-3F62D47E2DCD}" type="pres">
-      <dgm:prSet presAssocID="{D42998D8-E553-4702-840E-4A0D5A8AB09F}" presName="rootText" presStyleLbl="node4" presStyleIdx="12" presStyleCnt="30">
+      <dgm:prSet presAssocID="{D42998D8-E553-4702-840E-4A0D5A8AB09F}" presName="rootText" presStyleLbl="node4" presStyleIdx="12" presStyleCnt="44">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2707,7 +3427,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8F86FE10-5318-4E88-8168-A558AB2ACE82}" type="pres">
-      <dgm:prSet presAssocID="{D42998D8-E553-4702-840E-4A0D5A8AB09F}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="12" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{D42998D8-E553-4702-840E-4A0D5A8AB09F}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="12" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8AD298ED-0B15-48B5-AC13-6AD1D518ACC1}" type="pres">
@@ -2719,7 +3439,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4462A072-B16F-488C-B3B0-06CAB3EF066C}" type="pres">
-      <dgm:prSet presAssocID="{02096D74-B1E3-4BFA-8DB2-EB35871A2D4A}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="13" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{02096D74-B1E3-4BFA-8DB2-EB35871A2D4A}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="13" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{79BC3F2D-7FFE-44BF-913C-91B75DEB3CB7}" type="pres">
@@ -2735,7 +3455,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{76678D45-A4BF-462E-AA58-A21E20C8CE3C}" type="pres">
-      <dgm:prSet presAssocID="{C614CB23-24F1-4DAF-9C9A-9CE38E3C2221}" presName="rootText" presStyleLbl="node4" presStyleIdx="13" presStyleCnt="30">
+      <dgm:prSet presAssocID="{C614CB23-24F1-4DAF-9C9A-9CE38E3C2221}" presName="rootText" presStyleLbl="node4" presStyleIdx="13" presStyleCnt="44">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2743,7 +3463,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C1A96332-F86C-4B7D-8F37-655F41921BB2}" type="pres">
-      <dgm:prSet presAssocID="{C614CB23-24F1-4DAF-9C9A-9CE38E3C2221}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="13" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{C614CB23-24F1-4DAF-9C9A-9CE38E3C2221}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="13" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C5E8B958-36D5-4D11-B29A-F98C7839426F}" type="pres">
@@ -2755,7 +3475,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{DCB733CD-003C-4237-9D36-3A5D818BEA91}" type="pres">
-      <dgm:prSet presAssocID="{5E29698D-4A46-4836-87B3-719525376E6B}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="14" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{5E29698D-4A46-4836-87B3-719525376E6B}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="14" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{79871C20-BEF0-44B8-992F-4FBD7BF7548E}" type="pres">
@@ -2771,7 +3491,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F55659BF-2C7B-4384-A7C4-51928F7AF7AA}" type="pres">
-      <dgm:prSet presAssocID="{9D2E271C-5369-40A0-A112-E9E5291E9458}" presName="rootText" presStyleLbl="node4" presStyleIdx="14" presStyleCnt="30">
+      <dgm:prSet presAssocID="{9D2E271C-5369-40A0-A112-E9E5291E9458}" presName="rootText" presStyleLbl="node4" presStyleIdx="14" presStyleCnt="44">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2779,7 +3499,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E856B624-FCF7-4F0F-8752-BC08C46707C9}" type="pres">
-      <dgm:prSet presAssocID="{9D2E271C-5369-40A0-A112-E9E5291E9458}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="14" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{9D2E271C-5369-40A0-A112-E9E5291E9458}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="14" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{47EA6465-9517-427B-A757-1DABFD964ACD}" type="pres">
@@ -2795,7 +3515,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{9593703F-A345-419B-A57F-E3E9A1D5D9C9}" type="pres">
-      <dgm:prSet presAssocID="{26A435DA-2907-44C5-BEF9-0BBDDE129E01}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="2"/>
+      <dgm:prSet presAssocID="{26A435DA-2907-44C5-BEF9-0BBDDE129E01}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="8"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{7A0035B0-5C30-4623-9506-E030E14A6A53}" type="pres">
@@ -2811,7 +3531,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2346FA80-4170-4490-B513-3B8167E9CF6D}" type="pres">
-      <dgm:prSet presAssocID="{D88CF41F-726D-45E1-8E4B-099730725CCA}" presName="rootText" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="2">
+      <dgm:prSet presAssocID="{D88CF41F-726D-45E1-8E4B-099730725CCA}" presName="rootText" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="8">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2819,7 +3539,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{76C8770F-F8BE-453F-9E0F-D37337F92CB6}" type="pres">
-      <dgm:prSet presAssocID="{D88CF41F-726D-45E1-8E4B-099730725CCA}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="2"/>
+      <dgm:prSet presAssocID="{D88CF41F-726D-45E1-8E4B-099730725CCA}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="8"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{6FC65D7B-A494-483E-9B06-E6740E372809}" type="pres">
@@ -2827,7 +3547,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{6B80B0A3-0517-46E5-AB59-A39BB431537D}" type="pres">
-      <dgm:prSet presAssocID="{3F018DAE-8D7C-4F2A-A954-ED40FA4322B9}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="15" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{3F018DAE-8D7C-4F2A-A954-ED40FA4322B9}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="15" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{7CECA452-0CAB-4626-8C64-407DEFFA209B}" type="pres">
@@ -2843,7 +3563,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A621623C-A4B4-4EFF-9DDB-919CBB13BD7D}" type="pres">
-      <dgm:prSet presAssocID="{4A0ED956-98F8-4363-A99D-AC053F9DBC1E}" presName="rootText" presStyleLbl="node4" presStyleIdx="15" presStyleCnt="30">
+      <dgm:prSet presAssocID="{4A0ED956-98F8-4363-A99D-AC053F9DBC1E}" presName="rootText" presStyleLbl="node4" presStyleIdx="15" presStyleCnt="44">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2851,7 +3571,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{3A53013F-A20B-42E1-8453-262ECD41950C}" type="pres">
-      <dgm:prSet presAssocID="{4A0ED956-98F8-4363-A99D-AC053F9DBC1E}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="15" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{4A0ED956-98F8-4363-A99D-AC053F9DBC1E}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="15" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4796EE31-4A4A-4C0B-B528-C054D7AA316F}" type="pres">
@@ -2863,7 +3583,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{06A72F5E-D38A-4765-A01E-AE4BE79A3521}" type="pres">
-      <dgm:prSet presAssocID="{A0F19EB1-ECC2-44B9-BD7E-43D52B9B4076}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="16" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{A0F19EB1-ECC2-44B9-BD7E-43D52B9B4076}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="16" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{1FFE64C4-4DDC-4773-9390-E38C2BCEF941}" type="pres">
@@ -2879,7 +3599,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{553033C2-5876-4B8E-A890-4C0EC9B33EAE}" type="pres">
-      <dgm:prSet presAssocID="{C109E34D-7EC7-4024-898E-26028BC9080B}" presName="rootText" presStyleLbl="node4" presStyleIdx="16" presStyleCnt="30">
+      <dgm:prSet presAssocID="{C109E34D-7EC7-4024-898E-26028BC9080B}" presName="rootText" presStyleLbl="node4" presStyleIdx="16" presStyleCnt="44">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2887,7 +3607,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{ABD147C2-88AC-4736-866F-2C8D8DD9E6D5}" type="pres">
-      <dgm:prSet presAssocID="{C109E34D-7EC7-4024-898E-26028BC9080B}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="16" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{C109E34D-7EC7-4024-898E-26028BC9080B}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="16" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{AB3CE4B2-855F-4108-9CB1-3950D4683844}" type="pres">
@@ -2899,7 +3619,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E9383A15-8B63-4BD2-A73C-CC0FB9076A09}" type="pres">
-      <dgm:prSet presAssocID="{E9DE5A3A-DD3A-4606-B01C-A1B55BE06261}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="17" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{E9DE5A3A-DD3A-4606-B01C-A1B55BE06261}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="17" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F8BB01D9-689A-446D-8769-43B40ACD8B89}" type="pres">
@@ -2915,7 +3635,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{0FDB07CF-9BC6-4BC5-A769-7BA1F59A7701}" type="pres">
-      <dgm:prSet presAssocID="{EF8D04B1-7EAE-43A7-B687-265F2F4494FE}" presName="rootText" presStyleLbl="node4" presStyleIdx="17" presStyleCnt="30">
+      <dgm:prSet presAssocID="{EF8D04B1-7EAE-43A7-B687-265F2F4494FE}" presName="rootText" presStyleLbl="node4" presStyleIdx="17" presStyleCnt="44">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2923,7 +3643,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{45C49AD3-614C-4D6A-89A6-CCF6902BB813}" type="pres">
-      <dgm:prSet presAssocID="{EF8D04B1-7EAE-43A7-B687-265F2F4494FE}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="17" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{EF8D04B1-7EAE-43A7-B687-265F2F4494FE}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="17" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{622AD941-ECE0-4E54-BACA-753418427098}" type="pres">
@@ -2935,7 +3655,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{9214E589-C3A8-4F61-B595-128FB6348F64}" type="pres">
-      <dgm:prSet presAssocID="{CF99659C-0341-431F-836B-ADA8DB060E5D}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="18" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{CF99659C-0341-431F-836B-ADA8DB060E5D}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="18" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{642A6C1F-0847-417C-88AE-C5A3B04CAA2F}" type="pres">
@@ -2951,7 +3671,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{5364C193-691C-4413-BC49-B0A7BAE63A88}" type="pres">
-      <dgm:prSet presAssocID="{130FFC3E-4D72-4CD5-A272-E5C13B5D7796}" presName="rootText" presStyleLbl="node4" presStyleIdx="18" presStyleCnt="30">
+      <dgm:prSet presAssocID="{130FFC3E-4D72-4CD5-A272-E5C13B5D7796}" presName="rootText" presStyleLbl="node4" presStyleIdx="18" presStyleCnt="44">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2959,7 +3679,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2AC9DD2D-3129-4FA5-BFB5-57CFD04F24A4}" type="pres">
-      <dgm:prSet presAssocID="{130FFC3E-4D72-4CD5-A272-E5C13B5D7796}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="18" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{130FFC3E-4D72-4CD5-A272-E5C13B5D7796}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="18" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A2A2F867-96C9-4C99-B804-EC542F5F5B7D}" type="pres">
@@ -2971,7 +3691,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{DCD537AB-3A0D-46B6-A3F8-E170F6B9285D}" type="pres">
-      <dgm:prSet presAssocID="{9B7DC726-2791-4BD8-B651-3966803CC371}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="19" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{9B7DC726-2791-4BD8-B651-3966803CC371}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="19" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{DF7052BA-D90F-4B6B-80A8-E0378BCC74AF}" type="pres">
@@ -2987,7 +3707,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8377DBF6-2C6D-4C37-8668-E4C3FA2036F3}" type="pres">
-      <dgm:prSet presAssocID="{6CB22C70-F67C-4AB5-96D8-3B0D55E4B444}" presName="rootText" presStyleLbl="node4" presStyleIdx="19" presStyleCnt="30">
+      <dgm:prSet presAssocID="{6CB22C70-F67C-4AB5-96D8-3B0D55E4B444}" presName="rootText" presStyleLbl="node4" presStyleIdx="19" presStyleCnt="44">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2995,7 +3715,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{50A81B0C-37DD-4089-B0DB-8748916AFD3F}" type="pres">
-      <dgm:prSet presAssocID="{6CB22C70-F67C-4AB5-96D8-3B0D55E4B444}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="19" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{6CB22C70-F67C-4AB5-96D8-3B0D55E4B444}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="19" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{80139A4E-65B8-4B0E-8F30-4EC91DB290E3}" type="pres">
@@ -3007,7 +3727,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{19502CEF-F15F-44D6-9949-0C5B61766BDE}" type="pres">
-      <dgm:prSet presAssocID="{B9D3841F-2FF1-4089-AFDB-51D3FF22D0EA}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="20" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{B9D3841F-2FF1-4089-AFDB-51D3FF22D0EA}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="20" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{034AEA08-82AF-4FE1-9170-BD8A2EA95D1A}" type="pres">
@@ -3023,7 +3743,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{9C4FCAFC-8B23-400A-9000-BB533BBF55A4}" type="pres">
-      <dgm:prSet presAssocID="{3BB78B12-0C6E-4103-85DC-D5A0CE315834}" presName="rootText" presStyleLbl="node4" presStyleIdx="20" presStyleCnt="30">
+      <dgm:prSet presAssocID="{3BB78B12-0C6E-4103-85DC-D5A0CE315834}" presName="rootText" presStyleLbl="node4" presStyleIdx="20" presStyleCnt="44">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3031,7 +3751,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8C09FF33-8040-4CBF-A5BA-6AA1BC5C3CDC}" type="pres">
-      <dgm:prSet presAssocID="{3BB78B12-0C6E-4103-85DC-D5A0CE315834}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="20" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{3BB78B12-0C6E-4103-85DC-D5A0CE315834}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="20" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{24068B70-95AC-44FF-9224-D7E4D7D1B9E1}" type="pres">
@@ -3043,7 +3763,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D1867E0F-A6C1-4B3A-AE01-E50BD1D97C34}" type="pres">
-      <dgm:prSet presAssocID="{FD40F59B-D27D-4EB2-AEDB-04F47CFD701D}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="21" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{FD40F59B-D27D-4EB2-AEDB-04F47CFD701D}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="21" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{ACA59CFC-875A-4C6F-BCAE-F8774C2ABBD9}" type="pres">
@@ -3059,7 +3779,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{94ADB526-A020-4BA1-997E-8EC2B6D0C51E}" type="pres">
-      <dgm:prSet presAssocID="{72A1D041-04F5-42AC-A70B-D51C0A35F5A9}" presName="rootText" presStyleLbl="node4" presStyleIdx="21" presStyleCnt="30">
+      <dgm:prSet presAssocID="{72A1D041-04F5-42AC-A70B-D51C0A35F5A9}" presName="rootText" presStyleLbl="node4" presStyleIdx="21" presStyleCnt="44">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3067,7 +3787,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{64B51C91-A3C6-443C-92DA-65AA8875F5ED}" type="pres">
-      <dgm:prSet presAssocID="{72A1D041-04F5-42AC-A70B-D51C0A35F5A9}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="21" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{72A1D041-04F5-42AC-A70B-D51C0A35F5A9}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="21" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D6E0A11B-8E2A-494B-99F4-B5FFF187837E}" type="pres">
@@ -3079,7 +3799,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E058AF84-D282-49D0-BF6A-8603F553AF8C}" type="pres">
-      <dgm:prSet presAssocID="{7A3AE139-21E2-4591-87F2-E3CBE92F276E}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="22" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{7A3AE139-21E2-4591-87F2-E3CBE92F276E}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="22" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{59EB3506-55C4-474F-9A2F-B75E0C2B4DA4}" type="pres">
@@ -3095,7 +3815,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{92FA4009-924C-45F2-A4B2-98F3BF76A74E}" type="pres">
-      <dgm:prSet presAssocID="{98DBA7AD-A966-4778-9993-FFC58FFD443A}" presName="rootText" presStyleLbl="node4" presStyleIdx="22" presStyleCnt="30">
+      <dgm:prSet presAssocID="{98DBA7AD-A966-4778-9993-FFC58FFD443A}" presName="rootText" presStyleLbl="node4" presStyleIdx="22" presStyleCnt="44">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3103,7 +3823,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{90AA69BC-2A6B-42F6-8D7F-677D3A5D5712}" type="pres">
-      <dgm:prSet presAssocID="{98DBA7AD-A966-4778-9993-FFC58FFD443A}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="22" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{98DBA7AD-A966-4778-9993-FFC58FFD443A}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="22" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{3A971B60-0D10-415D-A677-15E4669F5959}" type="pres">
@@ -3115,7 +3835,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D20AB62E-0A28-4725-A96B-DB93136DEB94}" type="pres">
-      <dgm:prSet presAssocID="{51563709-27B5-4AAE-A213-7CDEAD1C97F0}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="23" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{51563709-27B5-4AAE-A213-7CDEAD1C97F0}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="23" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{01B73D72-AF49-4363-B7DD-900E0B844ADB}" type="pres">
@@ -3131,7 +3851,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8555AF53-E540-42F4-93F7-3DF51192CE43}" type="pres">
-      <dgm:prSet presAssocID="{1856585C-F496-4D1A-91D4-9C6049A3D5CC}" presName="rootText" presStyleLbl="node4" presStyleIdx="23" presStyleCnt="30">
+      <dgm:prSet presAssocID="{1856585C-F496-4D1A-91D4-9C6049A3D5CC}" presName="rootText" presStyleLbl="node4" presStyleIdx="23" presStyleCnt="44">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3139,7 +3859,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{5C56B04C-CE24-49ED-A215-1DDBC570C41C}" type="pres">
-      <dgm:prSet presAssocID="{1856585C-F496-4D1A-91D4-9C6049A3D5CC}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="23" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{1856585C-F496-4D1A-91D4-9C6049A3D5CC}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="23" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A68AA468-78D0-4C03-B517-B2470EC52EF8}" type="pres">
@@ -3151,7 +3871,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D22CEA13-A994-41AF-A767-E13A2F0BF873}" type="pres">
-      <dgm:prSet presAssocID="{7EEAE3D9-5BAA-4E17-988E-BEC0378600F5}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="24" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{7EEAE3D9-5BAA-4E17-988E-BEC0378600F5}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="24" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A22ED266-A94B-4A90-AC17-574E48B585EA}" type="pres">
@@ -3167,7 +3887,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{DABCEE72-0C26-488F-A916-BEAA00793522}" type="pres">
-      <dgm:prSet presAssocID="{A993B3C9-2A80-4321-BC4C-F66E40511F31}" presName="rootText" presStyleLbl="node4" presStyleIdx="24" presStyleCnt="30">
+      <dgm:prSet presAssocID="{A993B3C9-2A80-4321-BC4C-F66E40511F31}" presName="rootText" presStyleLbl="node4" presStyleIdx="24" presStyleCnt="44">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3175,7 +3895,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F4D8AA2B-8239-40E2-8531-3B9B8B8631FC}" type="pres">
-      <dgm:prSet presAssocID="{A993B3C9-2A80-4321-BC4C-F66E40511F31}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="24" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{A993B3C9-2A80-4321-BC4C-F66E40511F31}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="24" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{083A12C8-4DA2-411F-860E-2E47448B721C}" type="pres">
@@ -3187,7 +3907,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{DD7C3817-1535-4989-A715-ED9225A16449}" type="pres">
-      <dgm:prSet presAssocID="{64E0F66F-F44C-42CC-BA32-324CB741F2DE}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="25" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{64E0F66F-F44C-42CC-BA32-324CB741F2DE}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="25" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{5F165F4C-9159-46C9-8A91-CF40FB58C5D0}" type="pres">
@@ -3203,7 +3923,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{57EF05D5-DE66-42F1-A5FD-137AEAEE6520}" type="pres">
-      <dgm:prSet presAssocID="{2FB1E12B-2D65-4907-B713-0B3B9455EC30}" presName="rootText" presStyleLbl="node4" presStyleIdx="25" presStyleCnt="30">
+      <dgm:prSet presAssocID="{2FB1E12B-2D65-4907-B713-0B3B9455EC30}" presName="rootText" presStyleLbl="node4" presStyleIdx="25" presStyleCnt="44">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3211,7 +3931,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B900FCA4-9A27-401A-9276-084788597840}" type="pres">
-      <dgm:prSet presAssocID="{2FB1E12B-2D65-4907-B713-0B3B9455EC30}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="25" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{2FB1E12B-2D65-4907-B713-0B3B9455EC30}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="25" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{55BEB59D-BA36-491E-A5F3-F0A4B9977058}" type="pres">
@@ -3223,7 +3943,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{0C7A2B53-021A-45BF-893F-320B0AC1D661}" type="pres">
-      <dgm:prSet presAssocID="{5195346B-D9DC-46E7-B8C8-002F9B402FB9}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="26" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{5195346B-D9DC-46E7-B8C8-002F9B402FB9}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="26" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{ADF65070-9031-4980-84A6-BCD1F844FBE3}" type="pres">
@@ -3239,7 +3959,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{73837448-C5E4-47F1-AD86-405AB04C815E}" type="pres">
-      <dgm:prSet presAssocID="{C56DA5EB-3B6C-4EE9-999F-2D0CA885CA78}" presName="rootText" presStyleLbl="node4" presStyleIdx="26" presStyleCnt="30">
+      <dgm:prSet presAssocID="{C56DA5EB-3B6C-4EE9-999F-2D0CA885CA78}" presName="rootText" presStyleLbl="node4" presStyleIdx="26" presStyleCnt="44">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3247,7 +3967,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D14EC898-90F2-4052-BB50-26871FCEA726}" type="pres">
-      <dgm:prSet presAssocID="{C56DA5EB-3B6C-4EE9-999F-2D0CA885CA78}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="26" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{C56DA5EB-3B6C-4EE9-999F-2D0CA885CA78}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="26" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{9E7697A5-D588-4887-A599-58F37CE6E39A}" type="pres">
@@ -3259,7 +3979,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D0DD37A2-E432-454B-9C01-D910FDEE8395}" type="pres">
-      <dgm:prSet presAssocID="{B754C592-056A-404F-8918-5D9D0C0358EE}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="27" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{B754C592-056A-404F-8918-5D9D0C0358EE}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="27" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{16A9B1FB-A3C3-4948-848D-8C1CAED0BC77}" type="pres">
@@ -3275,7 +3995,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{6CC28567-0539-4C4C-ABA7-87CF6B5A944A}" type="pres">
-      <dgm:prSet presAssocID="{46A6D132-0F91-49DA-A655-3A343510E1AD}" presName="rootText" presStyleLbl="node4" presStyleIdx="27" presStyleCnt="30">
+      <dgm:prSet presAssocID="{46A6D132-0F91-49DA-A655-3A343510E1AD}" presName="rootText" presStyleLbl="node4" presStyleIdx="27" presStyleCnt="44">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3283,7 +4003,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{530760B1-71E6-46B4-AB7F-0810A2D858A2}" type="pres">
-      <dgm:prSet presAssocID="{46A6D132-0F91-49DA-A655-3A343510E1AD}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="27" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{46A6D132-0F91-49DA-A655-3A343510E1AD}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="27" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{97E70A90-3520-44DB-8272-EC21FDA51A9A}" type="pres">
@@ -3295,7 +4015,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B77D35BF-01B2-4249-A9D9-4DD7B7DD24D7}" type="pres">
-      <dgm:prSet presAssocID="{BACCC757-8088-4F27-B4E7-A0D59010AB54}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="28" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{BACCC757-8088-4F27-B4E7-A0D59010AB54}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="28" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D11A3BFF-588F-43A6-9454-1EF42110E92F}" type="pres">
@@ -3311,7 +4031,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{13A3E99F-5973-4CE8-9FCA-1D58D17E0A9E}" type="pres">
-      <dgm:prSet presAssocID="{93EBB6C3-0A97-4EEA-9F8C-C1BD4DBEB527}" presName="rootText" presStyleLbl="node4" presStyleIdx="28" presStyleCnt="30">
+      <dgm:prSet presAssocID="{93EBB6C3-0A97-4EEA-9F8C-C1BD4DBEB527}" presName="rootText" presStyleLbl="node4" presStyleIdx="28" presStyleCnt="44">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3319,7 +4039,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{58752E66-7507-4FD9-9F8B-77718383E39B}" type="pres">
-      <dgm:prSet presAssocID="{93EBB6C3-0A97-4EEA-9F8C-C1BD4DBEB527}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="28" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{93EBB6C3-0A97-4EEA-9F8C-C1BD4DBEB527}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="28" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A10B7091-6DCB-4C40-842F-7A113E9A41D0}" type="pres">
@@ -3331,7 +4051,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8D5440F9-20EB-41BF-8A9C-75EC84F9488B}" type="pres">
-      <dgm:prSet presAssocID="{7022A028-8762-4A50-84DE-0A316521A2FF}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="29" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{7022A028-8762-4A50-84DE-0A316521A2FF}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="29" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{22699568-7250-42FB-8F89-6E8861519D72}" type="pres">
@@ -3347,7 +4067,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A37CA279-8366-44BD-BE89-08D99C3AE0FD}" type="pres">
-      <dgm:prSet presAssocID="{E08C5A2D-CDC6-4E99-AD8F-202C0ADDE0EB}" presName="rootText" presStyleLbl="node4" presStyleIdx="29" presStyleCnt="30">
+      <dgm:prSet presAssocID="{E08C5A2D-CDC6-4E99-AD8F-202C0ADDE0EB}" presName="rootText" presStyleLbl="node4" presStyleIdx="29" presStyleCnt="44">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3355,7 +4075,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{3CA6ACBF-AE76-47E9-8284-DABBAD1E1609}" type="pres">
-      <dgm:prSet presAssocID="{E08C5A2D-CDC6-4E99-AD8F-202C0ADDE0EB}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="29" presStyleCnt="30"/>
+      <dgm:prSet presAssocID="{E08C5A2D-CDC6-4E99-AD8F-202C0ADDE0EB}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="29" presStyleCnt="44"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A22C39CD-585A-44BD-B1EE-269D787AB609}" type="pres">
@@ -3406,55 +4126,804 @@
       <dgm:prSet presAssocID="{6514F17A-9CA9-45F3-8667-9DA0345A33DC}" presName="hierChild6" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
+    <dgm:pt modelId="{170CF46A-6E98-41DD-9EAD-A90C00E31B82}" type="pres">
+      <dgm:prSet presAssocID="{09B6234A-7B2B-4548-AEAB-A14DF77B5327}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B7EF42D9-5E54-43D4-879D-89330F4AEE31}" type="pres">
+      <dgm:prSet presAssocID="{D8FDEFD7-AC2B-4719-9B9D-282DA770601C}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4B012DE6-03E3-4B3D-B8FE-98294985ECB3}" type="pres">
+      <dgm:prSet presAssocID="{D8FDEFD7-AC2B-4719-9B9D-282DA770601C}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EF5FA540-0E0E-4DAB-9B6C-D208314FD54A}" type="pres">
+      <dgm:prSet presAssocID="{D8FDEFD7-AC2B-4719-9B9D-282DA770601C}" presName="rootText" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="8">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3DC7A0EF-C1F6-40C1-A3B9-5F7F8091D632}" type="pres">
+      <dgm:prSet presAssocID="{D8FDEFD7-AC2B-4719-9B9D-282DA770601C}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BCB52E40-F1FC-4496-A98A-01A144CB9D9D}" type="pres">
+      <dgm:prSet presAssocID="{D8FDEFD7-AC2B-4719-9B9D-282DA770601C}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{ACE055D4-0562-47BD-8406-D234BB2444D8}" type="pres">
+      <dgm:prSet presAssocID="{13FEC7DF-3E26-4630-9BE0-42BB5C86D5FE}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="30" presStyleCnt="44"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6F146814-F30B-49E0-A0CF-EFC06E87DF2B}" type="pres">
+      <dgm:prSet presAssocID="{DC53772E-FC8F-4988-BA8A-37997525A910}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3CA9F192-B974-4E7A-BC1D-6AA801CCAD66}" type="pres">
+      <dgm:prSet presAssocID="{DC53772E-FC8F-4988-BA8A-37997525A910}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{36A26CFF-BE05-462C-B683-B047991B55F6}" type="pres">
+      <dgm:prSet presAssocID="{DC53772E-FC8F-4988-BA8A-37997525A910}" presName="rootText" presStyleLbl="node4" presStyleIdx="30" presStyleCnt="44">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D7BE0503-6EF8-4E04-8215-9F4C23A234AE}" type="pres">
+      <dgm:prSet presAssocID="{DC53772E-FC8F-4988-BA8A-37997525A910}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="30" presStyleCnt="44"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B7DA7646-7C04-43A2-BF58-A251BC8517D9}" type="pres">
+      <dgm:prSet presAssocID="{DC53772E-FC8F-4988-BA8A-37997525A910}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A9268865-CE3D-47C4-9DB4-5856C3F82E84}" type="pres">
+      <dgm:prSet presAssocID="{DC53772E-FC8F-4988-BA8A-37997525A910}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1E85A029-98DE-4CF1-B5A6-5F1737BEEE9B}" type="pres">
+      <dgm:prSet presAssocID="{4A387971-6777-4BCF-BEB2-A6226B7ABBEA}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="31" presStyleCnt="44"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CAF6F521-487A-437E-B48A-88C824A184C5}" type="pres">
+      <dgm:prSet presAssocID="{6AA1F5CA-AA5B-470E-AC12-C47A7A7FC08B}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9F2F98D5-4775-4F9F-BE77-E054C76BF32E}" type="pres">
+      <dgm:prSet presAssocID="{6AA1F5CA-AA5B-470E-AC12-C47A7A7FC08B}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{33F90D4A-F3E1-49E7-8FFA-252A7E734E2D}" type="pres">
+      <dgm:prSet presAssocID="{6AA1F5CA-AA5B-470E-AC12-C47A7A7FC08B}" presName="rootText" presStyleLbl="node4" presStyleIdx="31" presStyleCnt="44">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5A071FEA-AC73-49CB-BB1D-D48C4C0B4730}" type="pres">
+      <dgm:prSet presAssocID="{6AA1F5CA-AA5B-470E-AC12-C47A7A7FC08B}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="31" presStyleCnt="44"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B6627712-CE43-4E44-B524-E092AD74B6DF}" type="pres">
+      <dgm:prSet presAssocID="{6AA1F5CA-AA5B-470E-AC12-C47A7A7FC08B}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{78946B7E-BCB3-4769-8EA3-5831D96A87F4}" type="pres">
+      <dgm:prSet presAssocID="{6AA1F5CA-AA5B-470E-AC12-C47A7A7FC08B}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CBBE1D9A-B9F1-4CE8-A766-E2D2CC915358}" type="pres">
+      <dgm:prSet presAssocID="{BC5BF661-904D-4D5B-8D22-2509B708F62A}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="32" presStyleCnt="44"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1BBC69F3-2228-4437-AB97-7E743556BB35}" type="pres">
+      <dgm:prSet presAssocID="{C914E873-AC8A-435E-A8AC-72407A2B45B8}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{527AA037-8818-4841-8BE8-E038E2F7E768}" type="pres">
+      <dgm:prSet presAssocID="{C914E873-AC8A-435E-A8AC-72407A2B45B8}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{54634EED-05CC-43F4-BDFE-274E2FF21DE3}" type="pres">
+      <dgm:prSet presAssocID="{C914E873-AC8A-435E-A8AC-72407A2B45B8}" presName="rootText" presStyleLbl="node4" presStyleIdx="32" presStyleCnt="44">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{63371C9C-B5DC-446A-B250-09C76D98870B}" type="pres">
+      <dgm:prSet presAssocID="{C914E873-AC8A-435E-A8AC-72407A2B45B8}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="32" presStyleCnt="44"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{72045FC7-ABB9-4061-AEF3-913A2B8C2CFC}" type="pres">
+      <dgm:prSet presAssocID="{C914E873-AC8A-435E-A8AC-72407A2B45B8}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8AC9210C-82D9-4426-BA7C-AE8C2A476ADE}" type="pres">
+      <dgm:prSet presAssocID="{C914E873-AC8A-435E-A8AC-72407A2B45B8}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6E8488BC-55AC-49D3-BDBE-F3D8097B3331}" type="pres">
+      <dgm:prSet presAssocID="{D8FDEFD7-AC2B-4719-9B9D-282DA770601C}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{62E6AC74-EC68-41FB-8796-E9FED1EFE9F4}" type="pres">
+      <dgm:prSet presAssocID="{137F0638-57F6-42EC-A226-7A7223C821ED}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0053510E-DC60-42E6-AC27-1BABB7624CE8}" type="pres">
+      <dgm:prSet presAssocID="{A35D5245-D309-44C5-B8BC-CB8449D09308}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{92601F87-7587-4F5E-9A39-E35A2CB466DE}" type="pres">
+      <dgm:prSet presAssocID="{A35D5245-D309-44C5-B8BC-CB8449D09308}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1273B1E2-95A6-45BF-86CB-AAF815FFC4CB}" type="pres">
+      <dgm:prSet presAssocID="{A35D5245-D309-44C5-B8BC-CB8449D09308}" presName="rootText" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="8">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A961C565-B014-43D4-98CD-33B568F1CD89}" type="pres">
+      <dgm:prSet presAssocID="{A35D5245-D309-44C5-B8BC-CB8449D09308}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A757CAD0-44C3-4A73-8511-7DD32232989D}" type="pres">
+      <dgm:prSet presAssocID="{A35D5245-D309-44C5-B8BC-CB8449D09308}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9B96F8CB-52F0-45AB-B111-5BA345FCE8E4}" type="pres">
+      <dgm:prSet presAssocID="{F1E9F81F-FC8B-4174-B613-A42475F15AF5}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="33" presStyleCnt="44"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{66F7261D-320C-4E11-AED5-ACB6CDDF6867}" type="pres">
+      <dgm:prSet presAssocID="{05E64B1F-9768-4074-8E73-DE1E6B5AD326}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E2257003-D738-441C-9318-D22A27274F9E}" type="pres">
+      <dgm:prSet presAssocID="{05E64B1F-9768-4074-8E73-DE1E6B5AD326}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3F6A2980-7E03-40AD-8062-5147CA6F3829}" type="pres">
+      <dgm:prSet presAssocID="{05E64B1F-9768-4074-8E73-DE1E6B5AD326}" presName="rootText" presStyleLbl="node4" presStyleIdx="33" presStyleCnt="44">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2653644A-093E-4652-BC94-898613E2B664}" type="pres">
+      <dgm:prSet presAssocID="{05E64B1F-9768-4074-8E73-DE1E6B5AD326}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="33" presStyleCnt="44"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CDD1496D-56C3-42D1-8C46-482C818D9902}" type="pres">
+      <dgm:prSet presAssocID="{05E64B1F-9768-4074-8E73-DE1E6B5AD326}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3A09FF01-209C-43A9-82C7-02013B011E2C}" type="pres">
+      <dgm:prSet presAssocID="{05E64B1F-9768-4074-8E73-DE1E6B5AD326}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B679AF9C-7370-4C04-AF88-8156DAACAF34}" type="pres">
+      <dgm:prSet presAssocID="{E2B42B3B-E4A6-453B-8773-81B52115738B}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="34" presStyleCnt="44"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E69182E3-E0AF-44C7-8664-E57DF84F3EBE}" type="pres">
+      <dgm:prSet presAssocID="{5B688E4E-B86C-478C-A06F-B4166DFECEEB}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4992533C-B402-43F8-97CC-9F7D635919D7}" type="pres">
+      <dgm:prSet presAssocID="{5B688E4E-B86C-478C-A06F-B4166DFECEEB}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8CDF392B-64BB-4E9D-9EB5-848672E12C6D}" type="pres">
+      <dgm:prSet presAssocID="{5B688E4E-B86C-478C-A06F-B4166DFECEEB}" presName="rootText" presStyleLbl="node4" presStyleIdx="34" presStyleCnt="44">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A5ED9F7B-A343-4D1A-B5AE-BCCAEC51573D}" type="pres">
+      <dgm:prSet presAssocID="{5B688E4E-B86C-478C-A06F-B4166DFECEEB}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="34" presStyleCnt="44"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{98037BE4-7C42-4401-BF2B-E2A0D01CC571}" type="pres">
+      <dgm:prSet presAssocID="{5B688E4E-B86C-478C-A06F-B4166DFECEEB}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{018B0414-D97C-495B-8AA8-B810F560D560}" type="pres">
+      <dgm:prSet presAssocID="{5B688E4E-B86C-478C-A06F-B4166DFECEEB}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{05C06305-A0BF-4EA0-8EBD-FF857B4688B4}" type="pres">
+      <dgm:prSet presAssocID="{DE280DB2-526F-4973-B3AE-6C4DCE1BED3D}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="35" presStyleCnt="44"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{86FC5C25-6F84-4DA4-8144-5619406A7C5E}" type="pres">
+      <dgm:prSet presAssocID="{6827A366-9FAF-445F-A0F4-D95672BC68BE}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A065BDA2-9EAB-4DA4-9E2E-83230E41B5BD}" type="pres">
+      <dgm:prSet presAssocID="{6827A366-9FAF-445F-A0F4-D95672BC68BE}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{653B4605-AFCE-481F-8C9A-0646055F2802}" type="pres">
+      <dgm:prSet presAssocID="{6827A366-9FAF-445F-A0F4-D95672BC68BE}" presName="rootText" presStyleLbl="node4" presStyleIdx="35" presStyleCnt="44">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2528B6E0-1A7F-4176-80ED-D20879E5883E}" type="pres">
+      <dgm:prSet presAssocID="{6827A366-9FAF-445F-A0F4-D95672BC68BE}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="35" presStyleCnt="44"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9E80563A-3DE0-46AE-B4AC-373A7C9595C8}" type="pres">
+      <dgm:prSet presAssocID="{6827A366-9FAF-445F-A0F4-D95672BC68BE}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9506599B-41B2-4CF7-AFD7-69D7B1833778}" type="pres">
+      <dgm:prSet presAssocID="{6827A366-9FAF-445F-A0F4-D95672BC68BE}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D3E894DC-B607-445D-8EFF-EBC441BE52AD}" type="pres">
+      <dgm:prSet presAssocID="{403C34B6-0831-4152-A7E3-F46D962C031B}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="36" presStyleCnt="44"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{08E04F3E-766A-43E9-9C1C-E37953BA4D5B}" type="pres">
+      <dgm:prSet presAssocID="{01CB5732-E260-412B-B054-9AE2D15257BD}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D4B987DF-3828-4C61-8DAE-80FFC378DA39}" type="pres">
+      <dgm:prSet presAssocID="{01CB5732-E260-412B-B054-9AE2D15257BD}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C47F0D89-CB38-4FAE-BDE2-0E803834FDE3}" type="pres">
+      <dgm:prSet presAssocID="{01CB5732-E260-412B-B054-9AE2D15257BD}" presName="rootText" presStyleLbl="node4" presStyleIdx="36" presStyleCnt="44">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5E96953E-440E-4537-8D5E-C60661E031A9}" type="pres">
+      <dgm:prSet presAssocID="{01CB5732-E260-412B-B054-9AE2D15257BD}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="36" presStyleCnt="44"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9F13C869-B323-425E-8418-184A758E5DCA}" type="pres">
+      <dgm:prSet presAssocID="{01CB5732-E260-412B-B054-9AE2D15257BD}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{35AA0A74-8603-47BA-9209-C88BFE8351AB}" type="pres">
+      <dgm:prSet presAssocID="{01CB5732-E260-412B-B054-9AE2D15257BD}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B43ABE45-2E24-4624-9DF5-B6606C20A46E}" type="pres">
+      <dgm:prSet presAssocID="{554753B8-FD23-4BCB-B81A-D42FD5EAF8AE}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="37" presStyleCnt="44"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6B880593-EDD9-4738-AAD0-6F688DAFF1EF}" type="pres">
+      <dgm:prSet presAssocID="{E6C7F547-A5CD-4A6F-888E-F3B5C0F8BC39}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A6527260-982C-4DE3-97A2-34D60EDB11F1}" type="pres">
+      <dgm:prSet presAssocID="{E6C7F547-A5CD-4A6F-888E-F3B5C0F8BC39}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{596A12D5-0BF9-4DFF-BE75-EB1BC3A24E43}" type="pres">
+      <dgm:prSet presAssocID="{E6C7F547-A5CD-4A6F-888E-F3B5C0F8BC39}" presName="rootText" presStyleLbl="node4" presStyleIdx="37" presStyleCnt="44">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8D66A22F-D8AA-4810-9676-A414A393DD14}" type="pres">
+      <dgm:prSet presAssocID="{E6C7F547-A5CD-4A6F-888E-F3B5C0F8BC39}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="37" presStyleCnt="44"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E1B143F4-8BFD-4325-9448-DEA2DE1B7E76}" type="pres">
+      <dgm:prSet presAssocID="{E6C7F547-A5CD-4A6F-888E-F3B5C0F8BC39}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4941C50C-E552-4421-B579-7154AF7ADB31}" type="pres">
+      <dgm:prSet presAssocID="{E6C7F547-A5CD-4A6F-888E-F3B5C0F8BC39}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{187E047C-46AB-49A9-9A06-C9B0B4668537}" type="pres">
+      <dgm:prSet presAssocID="{49F736D1-6A06-4802-B023-BE00EEBDB05D}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="38" presStyleCnt="44"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{02462E0B-20E0-4D4E-A7BD-57D685174EA2}" type="pres">
+      <dgm:prSet presAssocID="{C886FE77-85CF-42DD-A8E8-4E4F4F5C25AA}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{931F2E35-43F9-4670-8C41-379FF02B99CD}" type="pres">
+      <dgm:prSet presAssocID="{C886FE77-85CF-42DD-A8E8-4E4F4F5C25AA}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{585A59D5-287A-4DC3-9874-E9B368826906}" type="pres">
+      <dgm:prSet presAssocID="{C886FE77-85CF-42DD-A8E8-4E4F4F5C25AA}" presName="rootText" presStyleLbl="node4" presStyleIdx="38" presStyleCnt="44">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3CB34820-0238-4FA5-89D8-3F80B3D0AC2D}" type="pres">
+      <dgm:prSet presAssocID="{C886FE77-85CF-42DD-A8E8-4E4F4F5C25AA}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="38" presStyleCnt="44"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E7B4F31D-7369-4CE6-BC60-92FB5B263A17}" type="pres">
+      <dgm:prSet presAssocID="{C886FE77-85CF-42DD-A8E8-4E4F4F5C25AA}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B882A779-87FE-4E40-8BD1-230AD2CB0547}" type="pres">
+      <dgm:prSet presAssocID="{C886FE77-85CF-42DD-A8E8-4E4F4F5C25AA}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7E6D97E6-37EC-4AF9-9165-5BA377FBF0F8}" type="pres">
+      <dgm:prSet presAssocID="{AAE0467C-AFCC-4C06-BF0F-DB3A3ACEF57A}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="39" presStyleCnt="44"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B6EA5DB0-A187-4A71-9069-06E90349351F}" type="pres">
+      <dgm:prSet presAssocID="{FE0084C3-AFC5-4760-B79A-EA5CD2D26EA7}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{43768834-5E08-4776-BCF2-572061E46A05}" type="pres">
+      <dgm:prSet presAssocID="{FE0084C3-AFC5-4760-B79A-EA5CD2D26EA7}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2956D8F6-824E-474D-9E23-ECB7F4BD0322}" type="pres">
+      <dgm:prSet presAssocID="{FE0084C3-AFC5-4760-B79A-EA5CD2D26EA7}" presName="rootText" presStyleLbl="node4" presStyleIdx="39" presStyleCnt="44">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EAE367BF-0568-40D3-9DCF-D5E096C6EF0C}" type="pres">
+      <dgm:prSet presAssocID="{FE0084C3-AFC5-4760-B79A-EA5CD2D26EA7}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="39" presStyleCnt="44"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7A22E6AD-AA3E-4B16-BC02-C87BD89F2527}" type="pres">
+      <dgm:prSet presAssocID="{FE0084C3-AFC5-4760-B79A-EA5CD2D26EA7}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2E7C627C-0078-4E18-BDD8-DAF07C414703}" type="pres">
+      <dgm:prSet presAssocID="{FE0084C3-AFC5-4760-B79A-EA5CD2D26EA7}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AB05FA9E-622F-498A-B140-58D310789542}" type="pres">
+      <dgm:prSet presAssocID="{7A02748C-4662-4B4C-8293-A3253E68F1DF}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="40" presStyleCnt="44"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5CE3EA56-5F90-4277-999A-73F95729CD1C}" type="pres">
+      <dgm:prSet presAssocID="{A97BB7E4-DF3A-485B-A09E-5EABB4C991F9}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{01AA2E2D-2301-4914-9BA2-12C1F869146D}" type="pres">
+      <dgm:prSet presAssocID="{A97BB7E4-DF3A-485B-A09E-5EABB4C991F9}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CCE9ABAB-E83C-4917-84B7-E70352CE9D05}" type="pres">
+      <dgm:prSet presAssocID="{A97BB7E4-DF3A-485B-A09E-5EABB4C991F9}" presName="rootText" presStyleLbl="node4" presStyleIdx="40" presStyleCnt="44">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EAD87F3A-9738-46D0-A996-934593170EEA}" type="pres">
+      <dgm:prSet presAssocID="{A97BB7E4-DF3A-485B-A09E-5EABB4C991F9}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="40" presStyleCnt="44"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A4399745-647B-47D4-BB22-6F0A21C3FC34}" type="pres">
+      <dgm:prSet presAssocID="{A97BB7E4-DF3A-485B-A09E-5EABB4C991F9}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C0BAB0D5-61DC-4D70-AF73-C253C3C66884}" type="pres">
+      <dgm:prSet presAssocID="{A97BB7E4-DF3A-485B-A09E-5EABB4C991F9}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2E07E4A2-D83E-4C1B-9B75-D79325589AB3}" type="pres">
+      <dgm:prSet presAssocID="{A35D5245-D309-44C5-B8BC-CB8449D09308}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B0452553-C509-4767-9F8D-2ED00265C53D}" type="pres">
+      <dgm:prSet presAssocID="{311C945E-6BDD-4CA2-9CE2-B55BFE27BD8D}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{91F227B8-77F7-446F-9685-05CE7817AD45}" type="pres">
+      <dgm:prSet presAssocID="{FA5A73EA-3D8E-4167-A35F-E58682BDC58B}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3A6AEEA2-36BD-43D0-B203-6F4B9F48C595}" type="pres">
+      <dgm:prSet presAssocID="{FA5A73EA-3D8E-4167-A35F-E58682BDC58B}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A5979D81-FB2B-4758-A2C5-FB9DA526B14D}" type="pres">
+      <dgm:prSet presAssocID="{FA5A73EA-3D8E-4167-A35F-E58682BDC58B}" presName="rootText" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="8">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0D9AF4ED-65F5-4BC1-894D-7DE9DAB7C8BB}" type="pres">
+      <dgm:prSet presAssocID="{FA5A73EA-3D8E-4167-A35F-E58682BDC58B}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2F7E6382-78CE-4BFD-83BC-71AFA5A7F740}" type="pres">
+      <dgm:prSet presAssocID="{FA5A73EA-3D8E-4167-A35F-E58682BDC58B}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C68126D9-9625-4581-A2C5-5AF9BCEC9D56}" type="pres">
+      <dgm:prSet presAssocID="{43CD796B-E343-49D3-B76C-50FE4FFECBF5}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="41" presStyleCnt="44"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6FFEF6DF-C5CF-407A-8560-5B4D5CE28F47}" type="pres">
+      <dgm:prSet presAssocID="{25BFE768-FC6F-4283-B04B-5F5069BDE86D}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5E24EA3A-90D1-4812-BD9B-A6C03369DEE8}" type="pres">
+      <dgm:prSet presAssocID="{25BFE768-FC6F-4283-B04B-5F5069BDE86D}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C7A854AF-C5A9-46D3-97E9-5C77B4CCF454}" type="pres">
+      <dgm:prSet presAssocID="{25BFE768-FC6F-4283-B04B-5F5069BDE86D}" presName="rootText" presStyleLbl="node4" presStyleIdx="41" presStyleCnt="44">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{60F7CE4A-8026-4829-826E-5EFC61930166}" type="pres">
+      <dgm:prSet presAssocID="{25BFE768-FC6F-4283-B04B-5F5069BDE86D}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="41" presStyleCnt="44"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{280E279E-BD76-41B5-B599-6D9E587A9BC0}" type="pres">
+      <dgm:prSet presAssocID="{25BFE768-FC6F-4283-B04B-5F5069BDE86D}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3DC74E6B-3615-4618-B4C4-0834557FA042}" type="pres">
+      <dgm:prSet presAssocID="{25BFE768-FC6F-4283-B04B-5F5069BDE86D}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A12617A6-EED3-4C8F-8C51-C8F5A478A48E}" type="pres">
+      <dgm:prSet presAssocID="{908966A0-D41B-40B0-AEF5-A92321FFCEDE}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="42" presStyleCnt="44"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C34BE2AC-8FE3-4F8C-B461-3B9C1087B3F0}" type="pres">
+      <dgm:prSet presAssocID="{EF616599-09F7-4541-8893-4EDA804CC018}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6D08F31A-906D-4225-AC33-219E5FAB8BFE}" type="pres">
+      <dgm:prSet presAssocID="{EF616599-09F7-4541-8893-4EDA804CC018}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{92D1FB71-DE68-4FA3-84B3-F766277FE8F2}" type="pres">
+      <dgm:prSet presAssocID="{EF616599-09F7-4541-8893-4EDA804CC018}" presName="rootText" presStyleLbl="node4" presStyleIdx="42" presStyleCnt="44">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{85C251E6-7F9F-4603-82DB-474744644B41}" type="pres">
+      <dgm:prSet presAssocID="{EF616599-09F7-4541-8893-4EDA804CC018}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="42" presStyleCnt="44"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6C3050E8-183F-41F4-B4D7-F5F780EAB2A1}" type="pres">
+      <dgm:prSet presAssocID="{EF616599-09F7-4541-8893-4EDA804CC018}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8677396B-DA7E-4E78-8B5C-F702CF660980}" type="pres">
+      <dgm:prSet presAssocID="{EF616599-09F7-4541-8893-4EDA804CC018}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{568FDEE9-00FD-4C47-A17E-B065C337AB87}" type="pres">
+      <dgm:prSet presAssocID="{113D1EBF-B818-4C32-BA93-E5600BF7D85F}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="43" presStyleCnt="44"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3EEE132B-6026-4255-A26D-7D2A91584C82}" type="pres">
+      <dgm:prSet presAssocID="{C8D2EA99-C714-4383-A0B7-A1FBD672EDA4}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{591B1DFC-13D3-4209-A6F7-3124FC1E11DB}" type="pres">
+      <dgm:prSet presAssocID="{C8D2EA99-C714-4383-A0B7-A1FBD672EDA4}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4ED8115A-0B2D-41EA-A05F-6CB63AB57B2F}" type="pres">
+      <dgm:prSet presAssocID="{C8D2EA99-C714-4383-A0B7-A1FBD672EDA4}" presName="rootText" presStyleLbl="node4" presStyleIdx="43" presStyleCnt="44">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{25CA511B-2DAA-4044-97BC-E533FFA98D1C}" type="pres">
+      <dgm:prSet presAssocID="{C8D2EA99-C714-4383-A0B7-A1FBD672EDA4}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="43" presStyleCnt="44"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C9F46C04-2CBB-474A-A50A-94331E04A72C}" type="pres">
+      <dgm:prSet presAssocID="{C8D2EA99-C714-4383-A0B7-A1FBD672EDA4}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1F46CDD7-6889-4701-AD5E-FBBC21638B0E}" type="pres">
+      <dgm:prSet presAssocID="{C8D2EA99-C714-4383-A0B7-A1FBD672EDA4}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FBE844EA-2F48-4A70-B0B9-C55574308488}" type="pres">
+      <dgm:prSet presAssocID="{FA5A73EA-3D8E-4167-A35F-E58682BDC58B}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9954B537-7E0D-4EE7-8C7A-4639731ED227}" type="pres">
+      <dgm:prSet presAssocID="{EB1083D3-1F18-4792-8D18-D93CFE6EC80E}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="5" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{820BDB72-7444-436A-98AC-B86046D794DD}" type="pres">
+      <dgm:prSet presAssocID="{09197FFA-6362-45BA-8BA6-30D42B3BF68C}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A5DD653E-180D-4371-A854-C5F7CE83040D}" type="pres">
+      <dgm:prSet presAssocID="{09197FFA-6362-45BA-8BA6-30D42B3BF68C}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{403B3431-7799-4DB3-A6B4-860C1D8C3B5C}" type="pres">
+      <dgm:prSet presAssocID="{09197FFA-6362-45BA-8BA6-30D42B3BF68C}" presName="rootText" presStyleLbl="node3" presStyleIdx="5" presStyleCnt="8">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C3B7D702-4E55-4A42-9E27-794FE0C50BC3}" type="pres">
+      <dgm:prSet presAssocID="{09197FFA-6362-45BA-8BA6-30D42B3BF68C}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="5" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{42D0A00B-D82A-4F40-AC5D-BF4F662EEE8D}" type="pres">
+      <dgm:prSet presAssocID="{09197FFA-6362-45BA-8BA6-30D42B3BF68C}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7E6671EA-1B52-47FF-AB6B-B3647D01819A}" type="pres">
+      <dgm:prSet presAssocID="{09197FFA-6362-45BA-8BA6-30D42B3BF68C}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EB8D8481-FF39-49B9-910F-05B1CE1490AE}" type="pres">
+      <dgm:prSet presAssocID="{76636C6B-09A1-409D-9B4C-3C0855651782}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="6" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B2C8895A-2A83-4763-A653-B74D50548F9C}" type="pres">
+      <dgm:prSet presAssocID="{2C2E2EC0-60BE-45DB-847D-B36105032B7D}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6F86A04D-79EA-4E70-B6C2-B5C3C678E8C0}" type="pres">
+      <dgm:prSet presAssocID="{2C2E2EC0-60BE-45DB-847D-B36105032B7D}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C0C96D0D-44F5-4742-B617-2957B2F6576C}" type="pres">
+      <dgm:prSet presAssocID="{2C2E2EC0-60BE-45DB-847D-B36105032B7D}" presName="rootText" presStyleLbl="node3" presStyleIdx="6" presStyleCnt="8">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6D6F5D08-4C0E-46C2-8C36-A08ABD4FD580}" type="pres">
+      <dgm:prSet presAssocID="{2C2E2EC0-60BE-45DB-847D-B36105032B7D}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="6" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{78648CE6-D5B5-41A5-8F0C-D4DEF6997E7D}" type="pres">
+      <dgm:prSet presAssocID="{2C2E2EC0-60BE-45DB-847D-B36105032B7D}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{757823D4-C558-4634-8E64-C81B1CB6FA45}" type="pres">
+      <dgm:prSet presAssocID="{2C2E2EC0-60BE-45DB-847D-B36105032B7D}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{13090DAF-BDDF-4C95-BC60-2A12CE376131}" type="pres">
+      <dgm:prSet presAssocID="{25DD3F4B-18D4-4987-8BA1-F710B6FB218E}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="7" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AF222278-3DFA-4177-AC0F-1C1A423C2BEB}" type="pres">
+      <dgm:prSet presAssocID="{5B5E09D1-2D79-4D75-9659-704E342CD5A1}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E8587769-1557-4719-8913-D9236C6CEB7F}" type="pres">
+      <dgm:prSet presAssocID="{5B5E09D1-2D79-4D75-9659-704E342CD5A1}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2D7D72AB-C9D0-4BD5-9882-CC1A9E582E68}" type="pres">
+      <dgm:prSet presAssocID="{5B5E09D1-2D79-4D75-9659-704E342CD5A1}" presName="rootText" presStyleLbl="node3" presStyleIdx="7" presStyleCnt="8">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{979913F4-A004-4A38-9670-CCB5EB99283E}" type="pres">
+      <dgm:prSet presAssocID="{5B5E09D1-2D79-4D75-9659-704E342CD5A1}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="7" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{143883E0-D3F7-4EC9-A1B8-1D09DE4A860A}" type="pres">
+      <dgm:prSet presAssocID="{5B5E09D1-2D79-4D75-9659-704E342CD5A1}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4045B8F9-0931-4916-A9B7-05EFE2FC6E9D}" type="pres">
+      <dgm:prSet presAssocID="{5B5E09D1-2D79-4D75-9659-704E342CD5A1}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
     <dgm:pt modelId="{03C48A67-B2D8-420E-A0DB-29B67D7E2EBE}" type="pres">
       <dgm:prSet presAssocID="{6514F17A-9CA9-45F3-8667-9DA0345A33DC}" presName="hierChild7" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{322D5E00-E41C-4A62-B7EA-3104C8548035}" type="presOf" srcId="{EF616599-09F7-4541-8893-4EDA804CC018}" destId="{85C251E6-7F9F-4603-82DB-474744644B41}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7CCFFC00-1030-4D20-B940-364A179708B4}" type="presOf" srcId="{554753B8-FD23-4BCB-B81A-D42FD5EAF8AE}" destId="{B43ABE45-2E24-4624-9DF5-B6606C20A46E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{C8333E02-9E10-4974-89AC-ABD934A7B9C5}" type="presOf" srcId="{5ECDC39F-A1F6-4D11-8EFB-7D93E98DC8AE}" destId="{283CAF85-6315-48ED-9471-EBCE931184DB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CBAC1A03-7388-4A38-8085-8D4D94CA1FAB}" type="presOf" srcId="{49F736D1-6A06-4802-B023-BE00EEBDB05D}" destId="{187E047C-46AB-49A9-9A06-C9B0B4668537}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BBE20F04-87F9-4FE3-815F-9D5518AA27D6}" type="presOf" srcId="{A97BB7E4-DF3A-485B-A09E-5EABB4C991F9}" destId="{CCE9ABAB-E83C-4917-84B7-E70352CE9D05}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{6C837404-BDF2-426D-8B7F-7B2413A0541C}" type="presOf" srcId="{6514F17A-9CA9-45F3-8667-9DA0345A33DC}" destId="{3B35491A-A0E7-47C1-8C97-C81F6EF596AF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C5FEB406-E3EE-4AE2-953F-2360888C3E57}" srcId="{D8FDEFD7-AC2B-4719-9B9D-282DA770601C}" destId="{6AA1F5CA-AA5B-470E-AC12-C47A7A7FC08B}" srcOrd="1" destOrd="0" parTransId="{4A387971-6777-4BCF-BEB2-A6226B7ABBEA}" sibTransId="{1854DABC-BAC2-428E-BED7-42F2449A62C6}"/>
     <dgm:cxn modelId="{B7AC7307-5FE4-4059-A26B-7ABDC0E55E60}" type="presOf" srcId="{EF8D04B1-7EAE-43A7-B687-265F2F4494FE}" destId="{0FDB07CF-9BC6-4BC5-A769-7BA1F59A7701}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6889FD07-AFAE-46F9-97D2-33DFA88195B5}" type="presOf" srcId="{E6C7F547-A5CD-4A6F-888E-F3B5C0F8BC39}" destId="{596A12D5-0BF9-4DFF-BE75-EB1BC3A24E43}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{CB079C0A-E96D-4215-8861-E9C8F0B88FB3}" srcId="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" destId="{8759AA84-0801-4D9B-B148-C36A20201E7C}" srcOrd="4" destOrd="0" parTransId="{A89EC362-FEE0-4A8A-A4CD-8EE30E3C2232}" sibTransId="{85F50592-2020-47EF-B511-39D5F42AD2C0}"/>
     <dgm:cxn modelId="{184DED0B-8213-47FD-8D6F-885F394F4F8E}" type="presOf" srcId="{93EBB6C3-0A97-4EEA-9F8C-C1BD4DBEB527}" destId="{13A3E99F-5973-4CE8-9FCA-1D58D17E0A9E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{AD66020C-B502-449F-92F4-5C3CCC1B6784}" type="presOf" srcId="{A0F19EB1-ECC2-44B9-BD7E-43D52B9B4076}" destId="{06A72F5E-D38A-4765-A01E-AE4BE79A3521}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{D97BE80C-3AD3-43A4-8959-3F815A747EA3}" srcId="{D88CF41F-726D-45E1-8E4B-099730725CCA}" destId="{93EBB6C3-0A97-4EEA-9F8C-C1BD4DBEB527}" srcOrd="13" destOrd="0" parTransId="{BACCC757-8088-4F27-B4E7-A0D59010AB54}" sibTransId="{35A3CBB7-65D0-442F-945E-4E439C77FC47}"/>
+    <dgm:cxn modelId="{B878280D-D394-40F2-A1F4-4422277FE9A3}" type="presOf" srcId="{25BFE768-FC6F-4283-B04B-5F5069BDE86D}" destId="{C7A854AF-C5A9-46D3-97E9-5C77B4CCF454}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{A480190E-1800-4ACA-9052-4AD827BF9A69}" type="presOf" srcId="{C56DA5EB-3B6C-4EE9-999F-2D0CA885CA78}" destId="{D14EC898-90F2-4052-BB50-26871FCEA726}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{7BFCF60E-5302-498C-9A2A-975C6A009F21}" type="presOf" srcId="{79845260-82E1-4302-ADB8-E3548D6C9EA0}" destId="{034202E5-A306-411D-AC1D-AFA685DA16BC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{463EB010-CCBC-496F-BB48-4ED73DBAF444}" type="presOf" srcId="{4453BA53-2066-434B-AA54-E2AB0B04C80E}" destId="{CA773655-A037-4E8E-A76E-21A662BD015A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{139EB310-FF28-49BD-B086-F76731A6A44A}" type="presOf" srcId="{C914E873-AC8A-435E-A8AC-72407A2B45B8}" destId="{54634EED-05CC-43F4-BDFE-274E2FF21DE3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{4039C010-5D22-4C2C-B524-B39ECD4213E8}" srcId="{D88CF41F-726D-45E1-8E4B-099730725CCA}" destId="{130FFC3E-4D72-4CD5-A272-E5C13B5D7796}" srcOrd="3" destOrd="0" parTransId="{CF99659C-0341-431F-836B-ADA8DB060E5D}" sibTransId="{5263ADBB-4CB2-4724-AB3E-2EC30F833B17}"/>
     <dgm:cxn modelId="{A3833513-938F-41AC-9CBC-5F255A6AFDC9}" type="presOf" srcId="{A81B9733-8A35-4CFA-922F-3E1460FB9DD1}" destId="{CC8085AC-E0BD-427E-8B14-DD29D8DF737D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{D5930514-D67B-4AD3-96E5-B2F93805854C}" srcId="{D52D180F-96AF-47C2-A602-E250A0E9F4DE}" destId="{5ECDC39F-A1F6-4D11-8EFB-7D93E98DC8AE}" srcOrd="0" destOrd="0" parTransId="{E9EE1F5C-6D28-4ABF-B21B-22A518182E07}" sibTransId="{1B511CDA-E60E-4A9D-869D-67BA3950AAFA}"/>
+    <dgm:cxn modelId="{0AB1E515-4332-4373-B909-D9E46C0FE7AE}" type="presOf" srcId="{E6C7F547-A5CD-4A6F-888E-F3B5C0F8BC39}" destId="{8D66A22F-D8AA-4810-9676-A414A393DD14}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{66149316-B5F5-448C-87C3-CD14927DCEDB}" type="presOf" srcId="{E9DE5A3A-DD3A-4606-B01C-A1B55BE06261}" destId="{E9383A15-8B63-4BD2-A73C-CC0FB9076A09}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{A3AC4117-7C65-4662-AD45-9409794DCCEA}" srcId="{D88CF41F-726D-45E1-8E4B-099730725CCA}" destId="{6CB22C70-F67C-4AB5-96D8-3B0D55E4B444}" srcOrd="4" destOrd="0" parTransId="{9B7DC726-2791-4BD8-B651-3966803CC371}" sibTransId="{82279076-CBC8-4F4C-B450-C772C186058C}"/>
+    <dgm:cxn modelId="{FAE9B017-3E42-4DD0-BD17-0BF7513343BD}" type="presOf" srcId="{C914E873-AC8A-435E-A8AC-72407A2B45B8}" destId="{63371C9C-B5DC-446A-B250-09C76D98870B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{AC04CE18-55F4-4E05-B225-9EFC5F8A75FD}" srcId="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" destId="{E4704C8A-763D-4A72-A874-9D77E155837B}" srcOrd="8" destOrd="0" parTransId="{CCB16EC1-4F8A-4FB4-BD33-8E4F25872644}" sibTransId="{85A913C8-5278-463D-838F-4B9EB9E8A116}"/>
+    <dgm:cxn modelId="{D953A01B-5B81-40B8-8141-9B048561F90C}" srcId="{6514F17A-9CA9-45F3-8667-9DA0345A33DC}" destId="{FA5A73EA-3D8E-4167-A35F-E58682BDC58B}" srcOrd="2" destOrd="0" parTransId="{311C945E-6BDD-4CA2-9CE2-B55BFE27BD8D}" sibTransId="{14CC6DF6-E7AA-41BA-B369-C34135F6BC16}"/>
     <dgm:cxn modelId="{2D16041C-59B0-4D1B-8059-43A5A3345E33}" type="presOf" srcId="{2FB1E12B-2D65-4907-B713-0B3B9455EC30}" destId="{57EF05D5-DE66-42F1-A5FD-137AEAEE6520}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{CF8B731C-5F94-40B2-9F2A-95010E854702}" type="presOf" srcId="{E08C5A2D-CDC6-4E99-AD8F-202C0ADDE0EB}" destId="{3CA6ACBF-AE76-47E9-8284-DABBAD1E1609}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{4754491F-2359-4C03-B655-2E87316B5597}" type="presOf" srcId="{003AD82E-1CD4-40E1-807D-E799EE8CC72A}" destId="{B80A723C-D81E-4E81-9860-5C59F1C7A590}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7405FF20-4921-4FF5-A3A1-19F95AB74D31}" type="presOf" srcId="{FA5A73EA-3D8E-4167-A35F-E58682BDC58B}" destId="{A5979D81-FB2B-4758-A2C5-FB9DA526B14D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{6C53FC21-06D5-447B-8138-98AFE311AF0E}" type="presOf" srcId="{6393D3BC-DD67-4CFC-95FA-0E2F1B9AB123}" destId="{6C75879E-F76F-4938-8C16-05E3D54DA322}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{D214CE22-9167-44FC-8094-4F4F906D9A59}" type="presOf" srcId="{7FC4E244-860C-49B9-93EB-D304D2B2DE46}" destId="{9CF4861E-0245-4BB7-AD7A-1C9E6435BFA9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{B685C824-5725-46B3-91AE-F4C720608EBE}" type="presOf" srcId="{C86234D4-5FE8-4C2C-A8D7-F97FE16952E5}" destId="{B7168AA4-DF23-402D-9C33-ADF72BD610B8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BB907B25-5862-4860-B98F-881DB21F6E4F}" srcId="{6514F17A-9CA9-45F3-8667-9DA0345A33DC}" destId="{D8FDEFD7-AC2B-4719-9B9D-282DA770601C}" srcOrd="0" destOrd="0" parTransId="{09B6234A-7B2B-4548-AEAB-A14DF77B5327}" sibTransId="{4151A86E-5EA2-4BEF-A102-9DDD6E39670D}"/>
+    <dgm:cxn modelId="{FFA08C25-403D-468F-AFA0-114FAEA0B88A}" type="presOf" srcId="{403C34B6-0831-4152-A7E3-F46D962C031B}" destId="{D3E894DC-B607-445D-8EFF-EBC441BE52AD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{0B51CD27-27FC-4FA9-B90B-2EC437DA4981}" type="presOf" srcId="{ADC38089-320B-4900-907B-73C31EB12659}" destId="{86FCE211-AD72-4AA4-ACC1-8FAF63AF7E4A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{D5782229-9CDA-4638-B6A3-5E39492F40DB}" type="presOf" srcId="{C4184C6B-7BC1-4A24-9C77-9D1343789F99}" destId="{7100973C-306F-4295-9C5F-44EFDDDA4312}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0B7BC929-AF4F-48D8-898C-3782A031F027}" srcId="{FA5A73EA-3D8E-4167-A35F-E58682BDC58B}" destId="{EF616599-09F7-4541-8893-4EDA804CC018}" srcOrd="1" destOrd="0" parTransId="{908966A0-D41B-40B0-AEF5-A92321FFCEDE}" sibTransId="{3E6D5CF7-8A5A-4876-A4F1-7B687E18D9C3}"/>
     <dgm:cxn modelId="{E536372D-9CEB-4D11-9A22-15970A2FED68}" type="presOf" srcId="{9D2E271C-5369-40A0-A112-E9E5291E9458}" destId="{F55659BF-2C7B-4384-A7C4-51928F7AF7AA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{328C1A2E-A431-4424-8D2D-A3F427B70E87}" type="presOf" srcId="{5B5E09D1-2D79-4D75-9659-704E342CD5A1}" destId="{979913F4-A004-4A38-9670-CCB5EB99283E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{709DE82E-F757-4A72-97A7-1D4BD6524150}" type="presOf" srcId="{01CB5732-E260-412B-B054-9AE2D15257BD}" destId="{5E96953E-440E-4537-8D5E-C60661E031A9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{004B882F-E060-4AB7-8461-DCAF5A07F3DF}" srcId="{D88CF41F-726D-45E1-8E4B-099730725CCA}" destId="{C56DA5EB-3B6C-4EE9-999F-2D0CA885CA78}" srcOrd="11" destOrd="0" parTransId="{5195346B-D9DC-46E7-B8C8-002F9B402FB9}" sibTransId="{8FD9F22F-A1BB-4C0C-8A6C-C7D25FBEF767}"/>
+    <dgm:cxn modelId="{A6E7A132-C848-4603-9BE7-C99C1014FA01}" srcId="{A35D5245-D309-44C5-B8BC-CB8449D09308}" destId="{E6C7F547-A5CD-4A6F-888E-F3B5C0F8BC39}" srcOrd="4" destOrd="0" parTransId="{554753B8-FD23-4BCB-B81A-D42FD5EAF8AE}" sibTransId="{2D025EDD-8407-475A-B38C-36A3CE961750}"/>
     <dgm:cxn modelId="{D8587833-2402-443A-9C31-FAC17B31573B}" type="presOf" srcId="{26A435DA-2907-44C5-BEF9-0BBDDE129E01}" destId="{9593703F-A345-419B-A57F-E3E9A1D5D9C9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{834A9B33-A3A9-481E-9342-CB660757C56E}" type="presOf" srcId="{C614CB23-24F1-4DAF-9C9A-9CE38E3C2221}" destId="{C1A96332-F86C-4B7D-8F37-655F41921BB2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E272A833-8DD2-41D2-A37B-D963AB011BFD}" type="presOf" srcId="{908966A0-D41B-40B0-AEF5-A92321FFCEDE}" destId="{A12617A6-EED3-4C8F-8C51-C8F5A478A48E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{B0FBA435-6813-4AB6-86BF-0C2984816FA3}" type="presOf" srcId="{8759AA84-0801-4D9B-B148-C36A20201E7C}" destId="{4C2BDFFE-5460-49E7-A00C-22DC65BE4CB9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7CF06036-C094-4790-85E8-4C922CAA6661}" type="presOf" srcId="{A35D5245-D309-44C5-B8BC-CB8449D09308}" destId="{1273B1E2-95A6-45BF-86CB-AAF815FFC4CB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{A482A437-03F4-4259-9B91-29CEFC1A7646}" type="presOf" srcId="{79845260-82E1-4302-ADB8-E3548D6C9EA0}" destId="{B7D46C13-CE0D-43D1-8695-E9A2E0815BB2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{C6E91938-7A1F-488A-B634-1D435457E4B1}" srcId="{D88CF41F-726D-45E1-8E4B-099730725CCA}" destId="{3BB78B12-0C6E-4103-85DC-D5A0CE315834}" srcOrd="5" destOrd="0" parTransId="{B9D3841F-2FF1-4089-AFDB-51D3FF22D0EA}" sibTransId="{D8B10476-310E-422D-BEE0-A3B46718BEFD}"/>
     <dgm:cxn modelId="{283B1F38-1ED4-4438-8998-820A7ED09671}" type="presOf" srcId="{1856585C-F496-4D1A-91D4-9C6049A3D5CC}" destId="{5C56B04C-CE24-49ED-A215-1DDBC570C41C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{99EE6138-6644-4462-8824-118CAE4D89D9}" type="presOf" srcId="{72A1D041-04F5-42AC-A70B-D51C0A35F5A9}" destId="{64B51C91-A3C6-443C-92DA-65AA8875F5ED}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{2FFE4238-A9B2-437E-8005-07FDC4A3378C}" type="presOf" srcId="{F77484B1-1710-466C-BBBF-BE25AA5DCF90}" destId="{B709B488-D8CB-4A6C-9CA0-6F3DC6B8704D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9B129C3A-CE8F-4057-9E80-AE09615B6398}" type="presOf" srcId="{FA5A73EA-3D8E-4167-A35F-E58682BDC58B}" destId="{0D9AF4ED-65F5-4BC1-894D-7DE9DAB7C8BB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{594D663C-C3CD-45C2-B004-867C61530BD6}" type="presOf" srcId="{51563709-27B5-4AAE-A213-7CDEAD1C97F0}" destId="{D20AB62E-0A28-4725-A96B-DB93136DEB94}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{43606B3C-74D6-44BD-ACE9-DD2D4789BF3B}" type="presOf" srcId="{9D2E271C-5369-40A0-A112-E9E5291E9458}" destId="{E856B624-FCF7-4F0F-8752-BC08C46707C9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{38819E3C-27EF-46E9-A1E5-1260FD640A13}" srcId="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" destId="{C614CB23-24F1-4DAF-9C9A-9CE38E3C2221}" srcOrd="13" destOrd="0" parTransId="{02096D74-B1E3-4BFA-8DB2-EB35871A2D4A}" sibTransId="{D3776FCB-88E5-4DE1-8314-ACF334AF1CB9}"/>
     <dgm:cxn modelId="{31CE903D-DE0A-4103-A407-E9795E92A0FE}" srcId="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" destId="{BF4338EB-29BE-4A08-A7F2-66BB67ACBCD1}" srcOrd="9" destOrd="0" parTransId="{C26ADEE5-7AA8-4774-B683-AEB91F04A02F}" sibTransId="{B72BFD68-95F2-4038-ACA6-7534DC7835C6}"/>
     <dgm:cxn modelId="{4F4A885C-BA14-416D-96D8-5FCB8F390E1E}" type="presOf" srcId="{4A0ED956-98F8-4363-A99D-AC053F9DBC1E}" destId="{3A53013F-A20B-42E1-8453-262ECD41950C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{55E62362-903C-4F61-8E7F-EE5E7A38D039}" type="presOf" srcId="{F1E9F81F-FC8B-4174-B613-A42475F15AF5}" destId="{9B96F8CB-52F0-45AB-B111-5BA345FCE8E4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{59AD4862-290D-418F-9042-AAD8233F71B7}" type="presOf" srcId="{09197FFA-6362-45BA-8BA6-30D42B3BF68C}" destId="{C3B7D702-4E55-4A42-9E27-794FE0C50BC3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BADA7C42-2F9C-416A-AE86-A331EDD7FA63}" srcId="{A35D5245-D309-44C5-B8BC-CB8449D09308}" destId="{C886FE77-85CF-42DD-A8E8-4E4F4F5C25AA}" srcOrd="5" destOrd="0" parTransId="{49F736D1-6A06-4802-B023-BE00EEBDB05D}" sibTransId="{FFB6CFF7-9EF0-4ED7-8F22-26899B6DA326}"/>
     <dgm:cxn modelId="{8384E742-7C40-42E8-B870-62B7D8F39B08}" type="presOf" srcId="{93EBB6C3-0A97-4EEA-9F8C-C1BD4DBEB527}" destId="{58752E66-7507-4FD9-9F8B-77718383E39B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{1B6AC464-BB1D-4F0E-9634-E23AF5B0A79F}" type="presOf" srcId="{9B7DC726-2791-4BD8-B651-3966803CC371}" destId="{DCD537AB-3A0D-46B6-A3F8-E170F6B9285D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{2754CE44-4981-4146-ADF7-BC61D6FF1C9D}" type="presOf" srcId="{3BB78B12-0C6E-4103-85DC-D5A0CE315834}" destId="{8C09FF33-8040-4CBF-A5BA-6AA1BC5C3CDC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EF477645-DC17-4C0E-8098-E34B6B654D9E}" srcId="{6514F17A-9CA9-45F3-8667-9DA0345A33DC}" destId="{5B5E09D1-2D79-4D75-9659-704E342CD5A1}" srcOrd="5" destOrd="0" parTransId="{25DD3F4B-18D4-4987-8BA1-F710B6FB218E}" sibTransId="{A6F4979D-4C28-4236-97D2-AD0C40DF7A62}"/>
+    <dgm:cxn modelId="{F23B5B46-9BCB-477E-953C-4EEDF5C62A62}" type="presOf" srcId="{6827A366-9FAF-445F-A0F4-D95672BC68BE}" destId="{2528B6E0-1A7F-4176-80ED-D20879E5883E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{ACBC0F47-3361-46B1-A5D0-B4603C12BFB2}" type="presOf" srcId="{AAE0467C-AFCC-4C06-BF0F-DB3A3ACEF57A}" destId="{7E6D97E6-37EC-4AF9-9165-5BA377FBF0F8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{53F82347-7C8F-4E45-814F-D97AC007DEA5}" type="presOf" srcId="{113D1EBF-B818-4C32-BA93-E5600BF7D85F}" destId="{568FDEE9-00FD-4C47-A17E-B065C337AB87}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{7B4D8C48-02AA-4250-8FC2-38BE81966427}" type="presOf" srcId="{D5A72B32-950B-470B-84BF-D727D560272F}" destId="{4CD7D1EF-FE25-4DDC-89BB-AEC0F5371D44}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EA73D048-9FA9-4631-A030-2753B10905D9}" type="presOf" srcId="{C8D2EA99-C714-4383-A0B7-A1FBD672EDA4}" destId="{4ED8115A-0B2D-41EA-A05F-6CB63AB57B2F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{83359469-AC66-4EC8-9584-0337101AA05D}" srcId="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" destId="{7FC4E244-860C-49B9-93EB-D304D2B2DE46}" srcOrd="10" destOrd="0" parTransId="{6393D3BC-DD67-4CFC-95FA-0E2F1B9AB123}" sibTransId="{A07A3FBB-856E-4EB8-B375-95F45F22125E}"/>
     <dgm:cxn modelId="{6941276A-BED1-45EB-A84C-9FE12AA9101F}" type="presOf" srcId="{A993B3C9-2A80-4321-BC4C-F66E40511F31}" destId="{DABCEE72-0C26-488F-A916-BEAA00793522}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{F29D296A-5150-474B-B82D-BA6AB60047C9}" type="presOf" srcId="{130FFC3E-4D72-4CD5-A272-E5C13B5D7796}" destId="{5364C193-691C-4413-BC49-B0A7BAE63A88}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
@@ -3464,6 +4933,7 @@
     <dgm:cxn modelId="{04FEDE4B-7F89-43B4-B53F-E504545927CE}" type="presOf" srcId="{3BB78B12-0C6E-4103-85DC-D5A0CE315834}" destId="{9C4FCAFC-8B23-400A-9000-BB533BBF55A4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{CC68666C-E8B7-4A83-8994-0585D7C3A868}" srcId="{D88CF41F-726D-45E1-8E4B-099730725CCA}" destId="{C109E34D-7EC7-4024-898E-26028BC9080B}" srcOrd="1" destOrd="0" parTransId="{A0F19EB1-ECC2-44B9-BD7E-43D52B9B4076}" sibTransId="{3F1D99AB-186D-4556-A1A6-845403DD3847}"/>
     <dgm:cxn modelId="{D300714D-1F65-40D9-B197-07FAE848B59C}" type="presOf" srcId="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" destId="{7BD05344-D232-4A1C-92D8-7BD696C52034}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1DC02D4E-3D35-4FDE-B153-3420787E2F7D}" type="presOf" srcId="{FE0084C3-AFC5-4760-B79A-EA5CD2D26EA7}" destId="{EAE367BF-0568-40D3-9DCF-D5E096C6EF0C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{85A78E6E-66A7-4768-B94A-AA484DEC0512}" srcId="{5ECDC39F-A1F6-4D11-8EFB-7D93E98DC8AE}" destId="{D88CF41F-726D-45E1-8E4B-099730725CCA}" srcOrd="1" destOrd="0" parTransId="{26A435DA-2907-44C5-BEF9-0BBDDE129E01}" sibTransId="{A8EA954C-B42D-4228-BC67-6BA896016C4F}"/>
     <dgm:cxn modelId="{656AC16E-974D-41AB-B8F8-16831C5C1976}" type="presOf" srcId="{A0134DC4-F4F7-4837-ACEB-1EF157331388}" destId="{6A9F99C6-1206-4AE2-93C0-56DFA7D723B6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{A6B12F4F-1D2D-4E2F-9C58-E8F204A093A1}" type="presOf" srcId="{98DBA7AD-A966-4778-9993-FFC58FFD443A}" destId="{90AA69BC-2A6B-42F6-8D7F-677D3A5D5712}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
@@ -3472,65 +4942,103 @@
     <dgm:cxn modelId="{E86C5B52-7A23-4F2F-AAF4-4A9C06A1AD9D}" type="presOf" srcId="{3F018DAE-8D7C-4F2A-A954-ED40FA4322B9}" destId="{6B80B0A3-0517-46E5-AB59-A39BB431537D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{38931B73-76FE-4580-B8BD-A8EB43722876}" type="presOf" srcId="{1856585C-F496-4D1A-91D4-9C6049A3D5CC}" destId="{8555AF53-E540-42F4-93F7-3DF51192CE43}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{952C3D53-3D65-495A-920A-A5643543D2E3}" type="presOf" srcId="{C109E34D-7EC7-4024-898E-26028BC9080B}" destId="{553033C2-5876-4B8E-A890-4C0EC9B33EAE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D909A973-CE4E-446E-A98E-9E447A9ECDB8}" type="presOf" srcId="{2C2E2EC0-60BE-45DB-847D-B36105032B7D}" destId="{6D6F5D08-4C0E-46C2-8C36-A08ABD4FD580}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{C71B1A74-6C8A-4062-B551-E8854C32B156}" type="presOf" srcId="{664BFA91-1A05-4A8A-B942-6B39BAF0BA4D}" destId="{B323526E-6A0D-4642-8371-A6F3A1016B6A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{1F736854-A845-47EE-B681-345624E86360}" type="presOf" srcId="{EF8D04B1-7EAE-43A7-B687-265F2F4494FE}" destId="{45C49AD3-614C-4D6A-89A6-CCF6902BB813}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{21186C54-6C75-4553-A8F2-7169CDE9190D}" type="presOf" srcId="{D88CF41F-726D-45E1-8E4B-099730725CCA}" destId="{2346FA80-4170-4490-B513-3B8167E9CF6D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{768F1E55-892F-44B9-BD45-2CCFE69FAEAE}" type="presOf" srcId="{6AA1F5CA-AA5B-470E-AC12-C47A7A7FC08B}" destId="{5A071FEA-AC73-49CB-BB1D-D48C4C0B4730}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{AE5EAF55-596B-4DBD-9F4A-B7801C87AD81}" type="presOf" srcId="{98DBA7AD-A966-4778-9993-FFC58FFD443A}" destId="{92FA4009-924C-45F2-A4B2-98F3BF76A74E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{8AAA2256-0D83-427D-8081-47937F8E253A}" type="presOf" srcId="{46A6D132-0F91-49DA-A655-3A343510E1AD}" destId="{6CC28567-0539-4C4C-ABA7-87CF6B5A944A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{03ED5B56-ACAE-4F9A-853B-2C2B63089F4F}" type="presOf" srcId="{5B5E09D1-2D79-4D75-9659-704E342CD5A1}" destId="{2D7D72AB-C9D0-4BD5-9882-CC1A9E582E68}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{B8894D76-62E5-4D98-A139-3C48A99DD357}" type="presOf" srcId="{CF99659C-0341-431F-836B-ADA8DB060E5D}" destId="{9214E589-C3A8-4F61-B595-128FB6348F64}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{6F1BA176-1374-4CC3-B330-C88A4804730A}" type="presOf" srcId="{C614CB23-24F1-4DAF-9C9A-9CE38E3C2221}" destId="{76678D45-A4BF-462E-AA58-A21E20C8CE3C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{94B9C977-71EF-49B4-994B-43CBBCB59580}" srcId="{D88CF41F-726D-45E1-8E4B-099730725CCA}" destId="{E08C5A2D-CDC6-4E99-AD8F-202C0ADDE0EB}" srcOrd="14" destOrd="0" parTransId="{7022A028-8762-4A50-84DE-0A316521A2FF}" sibTransId="{042879A2-EDB0-4DF5-8C20-B5AFB6319BB0}"/>
     <dgm:cxn modelId="{14D94E78-2713-4720-82FD-1F1A97091211}" type="presOf" srcId="{6CB22C70-F67C-4AB5-96D8-3B0D55E4B444}" destId="{50A81B0C-37DD-4089-B0DB-8748916AFD3F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CCEFC278-AE3E-4B76-B7F9-955ADB7AB2B0}" type="presOf" srcId="{A97BB7E4-DF3A-485B-A09E-5EABB4C991F9}" destId="{EAD87F3A-9738-46D0-A996-934593170EEA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2E736179-0D59-4D30-B657-F799D66A9975}" type="presOf" srcId="{09B6234A-7B2B-4548-AEAB-A14DF77B5327}" destId="{170CF46A-6E98-41DD-9EAD-A90C00E31B82}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{4A284259-0478-4C13-A1FA-8326AB77DD7B}" type="presOf" srcId="{B9D3841F-2FF1-4089-AFDB-51D3FF22D0EA}" destId="{19502CEF-F15F-44D6-9949-0C5B61766BDE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{D20D3E7A-1879-46BC-960B-8E3333AC5069}" srcId="{D88CF41F-726D-45E1-8E4B-099730725CCA}" destId="{46A6D132-0F91-49DA-A655-3A343510E1AD}" srcOrd="12" destOrd="0" parTransId="{B754C592-056A-404F-8918-5D9D0C0358EE}" sibTransId="{BD7087C4-AEB7-48D0-94C6-E93C1BFCBEB9}"/>
     <dgm:cxn modelId="{C3449E5A-6EC2-4C92-A98D-D96DEF72E973}" type="presOf" srcId="{E4704C8A-763D-4A72-A874-9D77E155837B}" destId="{BE4AF244-EA91-4ACD-991D-8DF8AA207614}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B2CDDB5A-9D1A-4718-B1FD-189BBB32E40D}" srcId="{D8FDEFD7-AC2B-4719-9B9D-282DA770601C}" destId="{DC53772E-FC8F-4988-BA8A-37997525A910}" srcOrd="0" destOrd="0" parTransId="{13FEC7DF-3E26-4630-9BE0-42BB5C86D5FE}" sibTransId="{383588F8-37B4-4C61-B52C-897E3A2111F9}"/>
+    <dgm:cxn modelId="{9BDF547B-9B14-4E5F-9BEB-F17AE2EEF8A2}" srcId="{D8FDEFD7-AC2B-4719-9B9D-282DA770601C}" destId="{C914E873-AC8A-435E-A8AC-72407A2B45B8}" srcOrd="2" destOrd="0" parTransId="{BC5BF661-904D-4D5B-8D22-2509B708F62A}" sibTransId="{1775F677-9E84-4E94-AA90-875CF2215A5B}"/>
     <dgm:cxn modelId="{CE4E227C-3B7F-4304-BF9A-79E602D28F8F}" type="presOf" srcId="{0ACEB9D5-75E1-4AAE-9D0D-C745E34D7DEA}" destId="{40666CB8-443B-4687-B175-159697E79960}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{EF176280-0070-48AA-B254-E93184DEDC7E}" srcId="{5ECDC39F-A1F6-4D11-8EFB-7D93E98DC8AE}" destId="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" srcOrd="0" destOrd="0" parTransId="{C4184C6B-7BC1-4A24-9C77-9D1343789F99}" sibTransId="{C30AA463-1A9C-4464-A2D7-D83D4612C840}"/>
     <dgm:cxn modelId="{8BCB4B80-E9B2-4C68-860B-10987B26FE98}" type="presOf" srcId="{BACCC757-8088-4F27-B4E7-A0D59010AB54}" destId="{B77D35BF-01B2-4249-A9D9-4DD7B7DD24D7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{C5A3EF81-76F5-428F-AC86-FED6FA0AA895}" type="presOf" srcId="{8759AA84-0801-4D9B-B148-C36A20201E7C}" destId="{B3D64B41-2F22-4E34-821C-D2D72D776A03}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{A607E984-003D-4FA5-ADAD-9C64A2640927}" type="presOf" srcId="{F77484B1-1710-466C-BBBF-BE25AA5DCF90}" destId="{4C822B57-F4AE-4BC3-8827-C7BDF0FF9A91}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A5459985-EE6B-47D2-BE1E-EA9155E1CE4A}" type="presOf" srcId="{09197FFA-6362-45BA-8BA6-30D42B3BF68C}" destId="{403B3431-7799-4DB3-A6B4-860C1D8C3B5C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{AEF9A387-01A8-4091-A33D-4F847CC9C4A0}" srcId="{D88CF41F-726D-45E1-8E4B-099730725CCA}" destId="{98DBA7AD-A966-4778-9993-FFC58FFD443A}" srcOrd="7" destOrd="0" parTransId="{7A3AE139-21E2-4591-87F2-E3CBE92F276E}" sibTransId="{F53A6D15-50E9-413F-9FA9-995F5503A7F8}"/>
     <dgm:cxn modelId="{78EBE787-4D43-4405-BAC3-9F2722D50B2E}" type="presOf" srcId="{C109E34D-7EC7-4024-898E-26028BC9080B}" destId="{ABD147C2-88AC-4736-866F-2C8D8DD9E6D5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EDA68688-E9EC-445E-9771-CCCA13EF57F2}" type="presOf" srcId="{EB1083D3-1F18-4792-8D18-D93CFE6EC80E}" destId="{9954B537-7E0D-4EE7-8C7A-4639731ED227}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{FC4E1A8C-6DB5-4EA8-ADEE-DA805363AD73}" type="presOf" srcId="{83AEE348-8605-4779-AA27-DF1CEF81FD88}" destId="{940A1E40-786E-44D3-90E8-46DF581ADBFA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{B8C97B8C-53B7-4597-B167-5BB75118FD54}" type="presOf" srcId="{4A0ED956-98F8-4363-A99D-AC053F9DBC1E}" destId="{A621623C-A4B4-4EFF-9DDB-919CBB13BD7D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{D576048E-3C19-4233-83D5-8D40A2FD25EA}" type="presOf" srcId="{64E0F66F-F44C-42CC-BA32-324CB741F2DE}" destId="{DD7C3817-1535-4989-A715-ED9225A16449}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{91831B8E-A142-41FF-9D3D-942738A53577}" srcId="{FA5A73EA-3D8E-4167-A35F-E58682BDC58B}" destId="{C8D2EA99-C714-4383-A0B7-A1FBD672EDA4}" srcOrd="2" destOrd="0" parTransId="{113D1EBF-B818-4C32-BA93-E5600BF7D85F}" sibTransId="{80232AF1-777D-4046-B79B-63FF4A20CE06}"/>
+    <dgm:cxn modelId="{7F61538E-607C-488C-9BAC-F1429E608623}" type="presOf" srcId="{BC5BF661-904D-4D5B-8D22-2509B708F62A}" destId="{CBBE1D9A-B9F1-4CE8-A766-E2D2CC915358}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FBFCE48F-D6BC-479D-A4A4-18E830404BCA}" type="presOf" srcId="{4A387971-6777-4BCF-BEB2-A6226B7ABBEA}" destId="{1E85A029-98DE-4CF1-B5A6-5F1737BEEE9B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{1A03EC90-7C9D-448F-B969-5F5FB7A8E51F}" type="presOf" srcId="{D42998D8-E553-4702-840E-4A0D5A8AB09F}" destId="{8F86FE10-5318-4E88-8168-A558AB2ACE82}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{750A7591-98F1-46BE-B923-660B6F5A1C11}" srcId="{D88CF41F-726D-45E1-8E4B-099730725CCA}" destId="{72A1D041-04F5-42AC-A70B-D51C0A35F5A9}" srcOrd="6" destOrd="0" parTransId="{FD40F59B-D27D-4EB2-AEDB-04F47CFD701D}" sibTransId="{AEF85A08-18C7-46F9-86BB-83DCD71782BD}"/>
     <dgm:cxn modelId="{990D8E91-8FA1-4920-A1E2-D3710706BD82}" type="presOf" srcId="{664BFA91-1A05-4A8A-B942-6B39BAF0BA4D}" destId="{E8B7B306-E273-4F92-813D-28C9D79D62C9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{D6377592-5745-4570-91AE-47FA0842CEBB}" srcId="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" destId="{10E10364-03F8-45C9-A5AA-8B95424FE183}" srcOrd="11" destOrd="0" parTransId="{A0134DC4-F4F7-4837-ACEB-1EF157331388}" sibTransId="{0D31D0BA-4A54-4C5D-A779-88960034A964}"/>
+    <dgm:cxn modelId="{BE0A2093-B3BF-4F5F-8C1F-824843AF9EC0}" type="presOf" srcId="{2C2E2EC0-60BE-45DB-847D-B36105032B7D}" destId="{C0C96D0D-44F5-4742-B617-2957B2F6576C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{F0C8F693-944A-4A42-A667-3C58F28F0D75}" type="presOf" srcId="{A89EC362-FEE0-4A8A-A4CD-8EE30E3C2232}" destId="{6A072927-7888-40AD-9FC9-50DEDA31C956}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{DA62FA94-CAB0-4D92-8873-3372720A01A6}" type="presOf" srcId="{5ECDC39F-A1F6-4D11-8EFB-7D93E98DC8AE}" destId="{935CB382-1ECD-4D0F-8465-8C0C784E6279}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C9025C96-7D4A-46EC-BB2C-29068BE9137D}" type="presOf" srcId="{C8D2EA99-C714-4383-A0B7-A1FBD672EDA4}" destId="{25CA511B-2DAA-4044-97BC-E533FFA98D1C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{1A3D5A98-70FC-4B4F-9928-B44247163262}" srcId="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" destId="{9D2E271C-5369-40A0-A112-E9E5291E9458}" srcOrd="14" destOrd="0" parTransId="{5E29698D-4A46-4836-87B3-719525376E6B}" sibTransId="{C7855E20-FD3B-47D8-8044-BE98C371AFF6}"/>
     <dgm:cxn modelId="{FD336C9B-E6BC-45CA-81F4-D41C6378ECDF}" type="presOf" srcId="{7EEAE3D9-5BAA-4E17-988E-BEC0378600F5}" destId="{D22CEA13-A994-41AF-A767-E13A2F0BF873}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{D8021A9C-CD8F-49D5-80C4-42A5FC89772A}" type="presOf" srcId="{FD40F59B-D27D-4EB2-AEDB-04F47CFD701D}" destId="{D1867E0F-A6C1-4B3A-AE01-E50BD1D97C34}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F1897B9C-5E99-4B4F-A17E-8954D6DD7ED2}" srcId="{FA5A73EA-3D8E-4167-A35F-E58682BDC58B}" destId="{25BFE768-FC6F-4283-B04B-5F5069BDE86D}" srcOrd="0" destOrd="0" parTransId="{43CD796B-E343-49D3-B76C-50FE4FFECBF5}" sibTransId="{8B324C5A-1545-4E86-95E8-0C4A39CC345D}"/>
+    <dgm:cxn modelId="{AD37A89C-A967-4B1E-81CB-FD48B8EBC5ED}" type="presOf" srcId="{A35D5245-D309-44C5-B8BC-CB8449D09308}" destId="{A961C565-B014-43D4-98CD-33B568F1CD89}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{747303A0-3D42-474F-A632-A4F4815861CC}" type="presOf" srcId="{13FEC7DF-3E26-4630-9BE0-42BB5C86D5FE}" destId="{ACE055D4-0562-47BD-8406-D234BB2444D8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{529AC5A0-6E8B-48E3-BF93-5A592A6A2351}" type="presOf" srcId="{25BFE768-FC6F-4283-B04B-5F5069BDE86D}" destId="{60F7CE4A-8026-4829-826E-5EFC61930166}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A040E8A3-43C1-4A2E-969E-1D3ED465018A}" srcId="{A35D5245-D309-44C5-B8BC-CB8449D09308}" destId="{FE0084C3-AFC5-4760-B79A-EA5CD2D26EA7}" srcOrd="6" destOrd="0" parTransId="{AAE0467C-AFCC-4C06-BF0F-DB3A3ACEF57A}" sibTransId="{A630C4A2-6677-40E9-8FD3-F6D5821D312E}"/>
+    <dgm:cxn modelId="{84143FA5-C833-4AF5-BE80-0D19DC9C8EE3}" type="presOf" srcId="{DC53772E-FC8F-4988-BA8A-37997525A910}" destId="{36A26CFF-BE05-462C-B683-B047991B55F6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{56C964A7-CBB4-4E9A-922A-E1E9A9949CFA}" type="presOf" srcId="{5B688E4E-B86C-478C-A06F-B4166DFECEEB}" destId="{A5ED9F7B-A343-4D1A-B5AE-BCCAEC51573D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{0396F5A7-C0E3-484A-9EFA-3074D865B26D}" srcId="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" destId="{E0316E49-B6C8-493D-A28E-E0B961FBC6AD}" srcOrd="1" destOrd="0" parTransId="{C86234D4-5FE8-4C2C-A8D7-F97FE16952E5}" sibTransId="{4F308207-46F8-44C2-9A5B-B5C8134B6DA1}"/>
     <dgm:cxn modelId="{0E3802A8-0ED2-4C0D-A3A8-781A4025D53D}" type="presOf" srcId="{E08C5A2D-CDC6-4E99-AD8F-202C0ADDE0EB}" destId="{A37CA279-8366-44BD-BE89-08D99C3AE0FD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{52D441A8-0073-4589-9D8D-8BEC46FFDA95}" type="presOf" srcId="{D52D180F-96AF-47C2-A602-E250A0E9F4DE}" destId="{62C811CE-06D4-4A52-9DCC-35582FCB32D3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{CE68A9A8-8805-4DD9-9DBF-747A31249129}" type="presOf" srcId="{5E29698D-4A46-4836-87B3-719525376E6B}" destId="{DCB733CD-003C-4237-9D36-3A5D818BEA91}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{793391A9-AA89-4B42-939F-01DA8A10AF0E}" type="presOf" srcId="{6AA1F5CA-AA5B-470E-AC12-C47A7A7FC08B}" destId="{33F90D4A-F3E1-49E7-8FFA-252A7E734E2D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{2794CDA9-06BE-47D4-8D57-BB4938F91899}" srcId="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" destId="{79845260-82E1-4302-ADB8-E3548D6C9EA0}" srcOrd="5" destOrd="0" parTransId="{0ACEB9D5-75E1-4AAE-9D0D-C745E34D7DEA}" sibTransId="{60661C48-E73E-4B77-8A0D-5C1B66B7447F}"/>
     <dgm:cxn modelId="{AD46D6A9-D740-4CA3-9C9E-FEB6B62F19B8}" srcId="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" destId="{D5A72B32-950B-470B-84BF-D727D560272F}" srcOrd="6" destOrd="0" parTransId="{4453BA53-2066-434B-AA54-E2AB0B04C80E}" sibTransId="{0C256E06-16AC-467B-8EA2-96C0E63EE679}"/>
+    <dgm:cxn modelId="{E9D774AB-9C2D-4D43-B69E-2C175A4A7B21}" type="presOf" srcId="{D8FDEFD7-AC2B-4719-9B9D-282DA770601C}" destId="{EF5FA540-0E0E-4DAB-9B6C-D208314FD54A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0FAA16AD-45CC-4C1F-8A91-421CE76BE873}" type="presOf" srcId="{DE280DB2-526F-4973-B3AE-6C4DCE1BED3D}" destId="{05C06305-A0BF-4EA0-8EBD-FF857B4688B4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{678441AD-A127-4FF9-B79F-4049A67C0EE7}" type="presOf" srcId="{D52D180F-96AF-47C2-A602-E250A0E9F4DE}" destId="{7382DCCB-C9E3-4D39-BC4A-1A907D5D9EB2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{4CBB2BB0-0295-48FE-811A-C8A96B1B7F46}" type="presOf" srcId="{5195346B-D9DC-46E7-B8C8-002F9B402FB9}" destId="{0C7A2B53-021A-45BF-893F-320B0AC1D661}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{085379B0-17B5-455B-B5E2-B7DBCB11B33B}" type="presOf" srcId="{01CB5732-E260-412B-B054-9AE2D15257BD}" destId="{C47F0D89-CB38-4FAE-BDE2-0E803834FDE3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DC7410B2-C964-4382-B4DD-342B104DE153}" type="presOf" srcId="{7A02748C-4662-4B4C-8293-A3253E68F1DF}" destId="{AB05FA9E-622F-498A-B140-58D310789542}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{63F5D9B3-933F-4285-8309-14EBF01088BD}" srcId="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" destId="{003AD82E-1CD4-40E1-807D-E799EE8CC72A}" srcOrd="7" destOrd="0" parTransId="{8D6E5929-CA5C-4404-9CC7-F775EACFE012}" sibTransId="{6CD9C108-8626-4ACC-8AF9-C9A8EE73597A}"/>
+    <dgm:cxn modelId="{33D495B4-F941-4348-9AD1-7D6BE8A28F58}" srcId="{6514F17A-9CA9-45F3-8667-9DA0345A33DC}" destId="{2C2E2EC0-60BE-45DB-847D-B36105032B7D}" srcOrd="4" destOrd="0" parTransId="{76636C6B-09A1-409D-9B4C-3C0855651782}" sibTransId="{1D7EA866-3B18-4F7E-AF04-E5E31C0A2433}"/>
     <dgm:cxn modelId="{B35597B6-4472-4410-8CCF-700A085FD0F2}" type="presOf" srcId="{BF4338EB-29BE-4A08-A7F2-66BB67ACBCD1}" destId="{5C55D77A-EB93-4208-9812-124CF844F7EB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{346A9EB6-D3A4-42F9-A32A-99B1B81EA8F7}" srcId="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" destId="{664BFA91-1A05-4A8A-B942-6B39BAF0BA4D}" srcOrd="3" destOrd="0" parTransId="{8A2156E5-B58E-48A6-AF7C-DE799F9AAB53}" sibTransId="{3F4987E1-720B-4242-B117-E2E18019B940}"/>
     <dgm:cxn modelId="{0DE8BDB7-C745-4610-9EE1-A47BAA2D4FA0}" type="presOf" srcId="{D42998D8-E553-4702-840E-4A0D5A8AB09F}" destId="{F451FEFB-462D-4AFC-AC93-3F62D47E2DCD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BC5BBCB8-C863-4844-B449-7D3B88CF9BD4}" srcId="{A35D5245-D309-44C5-B8BC-CB8449D09308}" destId="{01CB5732-E260-412B-B054-9AE2D15257BD}" srcOrd="3" destOrd="0" parTransId="{403C34B6-0831-4152-A7E3-F46D962C031B}" sibTransId="{644D8648-81AF-451A-A0C3-517619E1C393}"/>
     <dgm:cxn modelId="{70F9BDB8-9A58-4F84-AD83-C92255139D73}" type="presOf" srcId="{808161B4-43C6-4363-AC59-E7CF58667E6E}" destId="{4AA820E4-032C-4190-969E-7D835E7A14E7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1BE141BB-E89A-4DCF-947B-C5C52AC4FABA}" type="presOf" srcId="{C886FE77-85CF-42DD-A8E8-4E4F4F5C25AA}" destId="{585A59D5-287A-4DC3-9874-E9B368826906}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{2700E0BB-50CF-41BF-8937-62A1D0FDEADC}" type="presOf" srcId="{003AD82E-1CD4-40E1-807D-E799EE8CC72A}" destId="{EBBDAC5D-D760-4C4D-B064-844F62EC27B2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{8E16ADBE-83DF-4454-BD31-24EEA9C17C30}" type="presOf" srcId="{71FE0126-809A-481F-BCD5-92FEBC21CA95}" destId="{3E88680D-FDEA-4C41-BAA1-FDF7468DD238}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{47D6B6BF-187A-4A46-928C-DAFFAE5734F5}" type="presOf" srcId="{C26ADEE5-7AA8-4774-B683-AEB91F04A02F}" destId="{62FAA317-6055-4A11-9FD2-B8D29D23F76D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0CF779C0-1BBF-43B3-9A42-7E736BE2CA08}" type="presOf" srcId="{6827A366-9FAF-445F-A0F4-D95672BC68BE}" destId="{653B4605-AFCE-481F-8C9A-0646055F2802}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{6414B0C0-0031-45A8-9E58-1A182DCF6CA5}" srcId="{D88CF41F-726D-45E1-8E4B-099730725CCA}" destId="{EF8D04B1-7EAE-43A7-B687-265F2F4494FE}" srcOrd="2" destOrd="0" parTransId="{E9DE5A3A-DD3A-4606-B01C-A1B55BE06261}" sibTransId="{AFD5E64F-11DA-40BC-9307-26E1A2B69A30}"/>
     <dgm:cxn modelId="{D71121C1-36A7-43D7-BBF2-30EE9E6E9FBB}" srcId="{D88CF41F-726D-45E1-8E4B-099730725CCA}" destId="{1856585C-F496-4D1A-91D4-9C6049A3D5CC}" srcOrd="8" destOrd="0" parTransId="{51563709-27B5-4AAE-A213-7CDEAD1C97F0}" sibTransId="{B68FFCA6-6789-438D-98E2-53D8E3032456}"/>
+    <dgm:cxn modelId="{65134EC1-D95E-4723-BB44-EF44A40BEE02}" type="presOf" srcId="{EF616599-09F7-4541-8893-4EDA804CC018}" destId="{92D1FB71-DE68-4FA3-84B3-F766277FE8F2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{A15427C3-A55F-4ED3-9CB3-FC9EDC37733C}" srcId="{D88CF41F-726D-45E1-8E4B-099730725CCA}" destId="{A993B3C9-2A80-4321-BC4C-F66E40511F31}" srcOrd="9" destOrd="0" parTransId="{7EEAE3D9-5BAA-4E17-988E-BEC0378600F5}" sibTransId="{A6B96823-FE10-4541-AB02-16E7528379B4}"/>
     <dgm:cxn modelId="{4D36EDC3-ACAE-4A5E-AFEC-DA19E73DBF28}" type="presOf" srcId="{E0316E49-B6C8-493D-A28E-E0B961FBC6AD}" destId="{AE0DEA63-392C-44D5-B780-12E5FF435E47}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{6A91C0C5-658C-436B-B5E4-853C8BEACA93}" type="presOf" srcId="{D5A72B32-950B-470B-84BF-D727D560272F}" destId="{D1CC369E-8336-4F75-B1B8-B4E38C873EE7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{F1AF5CC6-C2F4-4306-B536-144F4AED2D48}" type="presOf" srcId="{8D6E5929-CA5C-4404-9CC7-F775EACFE012}" destId="{151E8BD4-FDD6-4D74-A379-314B53D2EB0F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CA8D58C7-B68C-4445-914B-F2D9180AAA5D}" type="presOf" srcId="{05E64B1F-9768-4074-8E73-DE1E6B5AD326}" destId="{3F6A2980-7E03-40AD-8062-5147CA6F3829}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0E8A37C8-E8CB-4834-8C98-BF2FB79E8F02}" srcId="{A35D5245-D309-44C5-B8BC-CB8449D09308}" destId="{5B688E4E-B86C-478C-A06F-B4166DFECEEB}" srcOrd="1" destOrd="0" parTransId="{E2B42B3B-E4A6-453B-8773-81B52115738B}" sibTransId="{1ADEE64D-2AFD-4275-93AA-47DB50DB2898}"/>
     <dgm:cxn modelId="{8DEB16C9-B31D-43CE-B746-868D4EFE3E96}" type="presOf" srcId="{7022A028-8762-4A50-84DE-0A316521A2FF}" destId="{8D5440F9-20EB-41BF-8A9C-75EC84F9488B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{75224BCD-A66E-4486-8323-753624BE57B8}" type="presOf" srcId="{10E10364-03F8-45C9-A5AA-8B95424FE183}" destId="{9509858C-DA6E-492F-9E1F-455B716B18D5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{1CF593CD-30CE-4928-9DDD-614BEF30F6E5}" srcId="{D52D180F-96AF-47C2-A602-E250A0E9F4DE}" destId="{6514F17A-9CA9-45F3-8667-9DA0345A33DC}" srcOrd="1" destOrd="0" parTransId="{71FE0126-809A-481F-BCD5-92FEBC21CA95}" sibTransId="{5A1C91CE-ECE3-4D1C-950D-924635E43BBF}"/>
     <dgm:cxn modelId="{C20F19CE-FC9F-4309-8EE3-A88B8E8DBEB5}" type="presOf" srcId="{46A6D132-0F91-49DA-A655-3A343510E1AD}" destId="{530760B1-71E6-46B4-AB7F-0810A2D858A2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{D48A7BCF-0B12-4606-AC47-2571011C7251}" srcId="{D88CF41F-726D-45E1-8E4B-099730725CCA}" destId="{4A0ED956-98F8-4363-A99D-AC053F9DBC1E}" srcOrd="0" destOrd="0" parTransId="{3F018DAE-8D7C-4F2A-A954-ED40FA4322B9}" sibTransId="{5733BF36-76A8-44E3-AD1E-03D6E5898D21}"/>
     <dgm:cxn modelId="{708B14D3-34A9-4E93-981C-A7BE6F213AFC}" type="presOf" srcId="{580E3BE0-46C0-45E0-8D39-9B982A586825}" destId="{2F674596-BD6E-400E-A2B8-07B718E1D21B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{169A5FD9-536D-41C5-9078-78006C24DC44}" srcId="{6514F17A-9CA9-45F3-8667-9DA0345A33DC}" destId="{09197FFA-6362-45BA-8BA6-30D42B3BF68C}" srcOrd="3" destOrd="0" parTransId="{EB1083D3-1F18-4792-8D18-D93CFE6EC80E}" sibTransId="{1764A1DA-B442-4C44-884B-B10F6FCF0DBE}"/>
+    <dgm:cxn modelId="{DFEF51D9-0F8B-4B60-9250-7ECAB1315585}" type="presOf" srcId="{C886FE77-85CF-42DD-A8E8-4E4F4F5C25AA}" destId="{3CB34820-0238-4FA5-89D8-3F80B3D0AC2D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5701E9DA-9D3F-4064-BDA5-D504034F25F2}" type="presOf" srcId="{76636C6B-09A1-409D-9B4C-3C0855651782}" destId="{EB8D8481-FF39-49B9-910F-05B1CE1490AE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A32C65DC-080B-4953-BFB4-FA992DEA3AE1}" type="presOf" srcId="{05E64B1F-9768-4074-8E73-DE1E6B5AD326}" destId="{2653644A-093E-4652-BC94-898613E2B664}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1C4EE3DC-2336-47B2-83D5-4F4DE71FDDE1}" type="presOf" srcId="{E2B42B3B-E4A6-453B-8773-81B52115738B}" destId="{B679AF9C-7370-4C04-AF88-8156DAACAF34}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{A7458ADD-53D7-424A-81A5-BF813794EB60}" srcId="{CB4478ED-7B34-44C6-B9C0-15DB0F081477}" destId="{580E3BE0-46C0-45E0-8D39-9B982A586825}" srcOrd="2" destOrd="0" parTransId="{808161B4-43C6-4363-AC59-E7CF58667E6E}" sibTransId="{B4A4DB40-E594-4802-BCA2-ED34E3BC1A55}"/>
     <dgm:cxn modelId="{364A9FDD-2ADC-47E5-B370-540063FCABC7}" type="presOf" srcId="{BF4338EB-29BE-4A08-A7F2-66BB67ACBCD1}" destId="{36DB12A0-2BA3-4C52-B707-C9B9CFC04BC4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{29F6EBE0-1536-4EBF-93BA-546D83392AC9}" type="presOf" srcId="{C56DA5EB-3B6C-4EE9-999F-2D0CA885CA78}" destId="{73837448-C5E4-47F1-AD86-405AB04C815E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
@@ -3541,17 +5049,29 @@
     <dgm:cxn modelId="{5F9F25E4-B14E-4705-94C4-3FE4C4939A37}" type="presOf" srcId="{6CB22C70-F67C-4AB5-96D8-3B0D55E4B444}" destId="{8377DBF6-2C6D-4C37-8668-E4C3FA2036F3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{EF3861E4-63FA-4F8D-BFF4-05178E199F52}" type="presOf" srcId="{8A2156E5-B58E-48A6-AF7C-DE799F9AAB53}" destId="{0B2C122B-DFD5-4E81-B4E6-2B33CEE66F49}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{A95983E4-AC8B-4524-AFA0-4A6BB65EE32F}" type="presOf" srcId="{CCB16EC1-4F8A-4FB4-BD33-8E4F25872644}" destId="{EB561D55-C797-403E-9247-227290E720A2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3C6CBCE5-ADCB-4D9C-854A-9ED62BA990F3}" srcId="{A35D5245-D309-44C5-B8BC-CB8449D09308}" destId="{A97BB7E4-DF3A-485B-A09E-5EABB4C991F9}" srcOrd="7" destOrd="0" parTransId="{7A02748C-4662-4B4C-8293-A3253E68F1DF}" sibTransId="{697D1C5D-F85F-4C61-A4B4-446C8971A12B}"/>
     <dgm:cxn modelId="{EFA285E7-75C7-4F61-B214-66C202B0E19B}" type="presOf" srcId="{7A3AE139-21E2-4591-87F2-E3CBE92F276E}" destId="{E058AF84-D282-49D0-BF6A-8603F553AF8C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{F4A936E8-F4A7-4402-9787-3EA0564E2AE8}" srcId="{D88CF41F-726D-45E1-8E4B-099730725CCA}" destId="{2FB1E12B-2D65-4907-B713-0B3B9455EC30}" srcOrd="10" destOrd="0" parTransId="{64E0F66F-F44C-42CC-BA32-324CB741F2DE}" sibTransId="{E29F66BC-036C-46F8-A37E-C5F387F02F3B}"/>
     <dgm:cxn modelId="{2C5564E8-BD83-4B28-9F7D-6787D74F36E6}" type="presOf" srcId="{E9EE1F5C-6D28-4ABF-B21B-22A518182E07}" destId="{9F0C1FD1-9F6A-454E-9ABD-055AF27CFD21}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{8A8AA5E8-DE9C-4173-A855-A8A086F9B74C}" type="presOf" srcId="{6514F17A-9CA9-45F3-8667-9DA0345A33DC}" destId="{FB20A176-8702-4060-9AC0-535BADA6E841}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A368F0EA-9443-4ADC-AADC-DFFC642E6FD7}" type="presOf" srcId="{FE0084C3-AFC5-4760-B79A-EA5CD2D26EA7}" destId="{2956D8F6-824E-474D-9E23-ECB7F4BD0322}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{650FE3EC-FE40-4A0E-B544-1392F28CB65D}" type="presOf" srcId="{02096D74-B1E3-4BFA-8DB2-EB35871A2D4A}" destId="{4462A072-B16F-488C-B3B0-06CAB3EF066C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E30ED5EF-FB06-4B54-AB2B-4E4CC2CDF8DD}" srcId="{A35D5245-D309-44C5-B8BC-CB8449D09308}" destId="{6827A366-9FAF-445F-A0F4-D95672BC68BE}" srcOrd="2" destOrd="0" parTransId="{DE280DB2-526F-4973-B3AE-6C4DCE1BED3D}" sibTransId="{E19506C6-293A-4ABD-A33F-B1294100092C}"/>
+    <dgm:cxn modelId="{F572CDF0-92C2-4CC9-9CEB-739EACA28268}" type="presOf" srcId="{25DD3F4B-18D4-4987-8BA1-F710B6FB218E}" destId="{13090DAF-BDDF-4C95-BC60-2A12CE376131}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{716AD8F0-CBC3-46AC-9313-F40F0E4D3D28}" type="presOf" srcId="{5B688E4E-B86C-478C-A06F-B4166DFECEEB}" destId="{8CDF392B-64BB-4E9D-9EB5-848672E12C6D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{75D712F1-203D-450D-A41F-9421A8BB6C68}" type="presOf" srcId="{137F0638-57F6-42EC-A226-7A7223C821ED}" destId="{62E6AC74-EC68-41FB-8796-E9FED1EFE9F4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{5D6EB9F3-96CC-46B4-9765-6AA1F178CD4A}" type="presOf" srcId="{E4704C8A-763D-4A72-A874-9D77E155837B}" destId="{EA8B48C8-06D0-48E0-A5CC-38637E884C2D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{A266A0F6-FEC9-41DE-B105-65331EABA684}" type="presOf" srcId="{580E3BE0-46C0-45E0-8D39-9B982A586825}" destId="{9368456D-39DC-467B-B356-2A7E651352A3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{83A2A3F6-3E81-4A19-86BF-F17E823E7E16}" srcId="{6514F17A-9CA9-45F3-8667-9DA0345A33DC}" destId="{A35D5245-D309-44C5-B8BC-CB8449D09308}" srcOrd="1" destOrd="0" parTransId="{137F0638-57F6-42EC-A226-7A7223C821ED}" sibTransId="{A8FBC6DB-6FB5-4C9A-BEEC-E9561A14D20A}"/>
+    <dgm:cxn modelId="{553BE4F6-4DF6-4434-B3E2-CE246032BC1C}" type="presOf" srcId="{43CD796B-E343-49D3-B76C-50FE4FFECBF5}" destId="{C68126D9-9625-4581-A2C5-5AF9BCEC9D56}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{19FE89F7-A70F-4917-B874-7159E2E5D995}" type="presOf" srcId="{2FB1E12B-2D65-4907-B713-0B3B9455EC30}" destId="{B900FCA4-9A27-401A-9276-084788597840}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{53A4BCF7-5A4D-45AA-ACF6-3F67C6ECC7DD}" type="presOf" srcId="{DC53772E-FC8F-4988-BA8A-37997525A910}" destId="{D7BE0503-6EF8-4E04-8215-9F4C23A234AE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{84EC60F9-9843-4785-A9B6-8A35957CEF4E}" srcId="{A35D5245-D309-44C5-B8BC-CB8449D09308}" destId="{05E64B1F-9768-4074-8E73-DE1E6B5AD326}" srcOrd="0" destOrd="0" parTransId="{F1E9F81F-FC8B-4174-B613-A42475F15AF5}" sibTransId="{371BDA70-A2E4-43D8-A912-8DA6C74095A9}"/>
     <dgm:cxn modelId="{A576C6F9-9AB6-4824-9988-22797D63AF13}" srcId="{A81B9733-8A35-4CFA-922F-3E1460FB9DD1}" destId="{D52D180F-96AF-47C2-A602-E250A0E9F4DE}" srcOrd="0" destOrd="0" parTransId="{C97D9703-3409-4169-BAFB-57DD7F57CBE9}" sibTransId="{0CABBC63-8CFA-4042-A069-57C326C37C14}"/>
     <dgm:cxn modelId="{79F0C3FA-8C90-4D6D-8E51-1095E3539606}" type="presOf" srcId="{10E10364-03F8-45C9-A5AA-8B95424FE183}" destId="{668CF092-263E-4AF6-BBAF-62CD650BA2A1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{705FCDFB-F904-4E7F-8125-A2E7866B3521}" type="presOf" srcId="{311C945E-6BDD-4CA2-9CE2-B55BFE27BD8D}" destId="{B0452553-C509-4767-9F8D-2ED00265C53D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{8220FCFD-115B-4E8E-8609-A2A8EDF1E94D}" type="presOf" srcId="{7FC4E244-860C-49B9-93EB-D304D2B2DE46}" destId="{3D0A6FE5-1124-4551-927A-CC9F79EC8E85}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6DBA76FF-4AB2-48CD-A806-33DD1B533226}" type="presOf" srcId="{D8FDEFD7-AC2B-4719-9B9D-282DA770601C}" destId="{3DC7A0EF-C1F6-40C1-A3B9-5F7F8091D632}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{A7ABF28A-3DEF-46A5-B34A-8A4338740266}" type="presParOf" srcId="{CC8085AC-E0BD-427E-8B14-DD29D8DF737D}" destId="{3D2EDBBD-9F46-4768-9E1F-363FF2A5B2CE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{7B4851F5-F5C5-4BB7-8782-35E0D2B1C34D}" type="presParOf" srcId="{3D2EDBBD-9F46-4768-9E1F-363FF2A5B2CE}" destId="{C7445D1C-2D07-423D-8B8C-E49C206BBC4F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{5765FC26-5A17-49D4-B9BC-3D6A8DD3BCCF}" type="presParOf" srcId="{C7445D1C-2D07-423D-8B8C-E49C206BBC4F}" destId="{7382DCCB-C9E3-4D39-BC4A-1A907D5D9EB2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
@@ -3795,6 +5315,146 @@
     <dgm:cxn modelId="{ECE2E677-C80C-4845-9B13-0FF70EAFC53C}" type="presParOf" srcId="{1AC4F44D-3CC4-42F7-BB3A-036BEBB6BCCE}" destId="{FB20A176-8702-4060-9AC0-535BADA6E841}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{02D2CA59-8992-4F23-9041-A2CC0B5B19AD}" type="presParOf" srcId="{1AC4F44D-3CC4-42F7-BB3A-036BEBB6BCCE}" destId="{3B35491A-A0E7-47C1-8C97-C81F6EF596AF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{CE0E08C7-F201-47E4-8FD9-2E37D4E95672}" type="presParOf" srcId="{5CB26BFC-B3B3-4D59-810F-04084F22419B}" destId="{67D0B2BB-D30E-49A2-9AE5-B4E0C5B20C43}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D28908A8-4FEB-4AE6-81CF-4322D1BCF95D}" type="presParOf" srcId="{67D0B2BB-D30E-49A2-9AE5-B4E0C5B20C43}" destId="{170CF46A-6E98-41DD-9EAD-A90C00E31B82}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{556DB6B2-4BF9-456D-AE0C-BCB35C6D6E46}" type="presParOf" srcId="{67D0B2BB-D30E-49A2-9AE5-B4E0C5B20C43}" destId="{B7EF42D9-5E54-43D4-879D-89330F4AEE31}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0B8FF09B-3DB4-4DCA-AF41-E43C6E182D07}" type="presParOf" srcId="{B7EF42D9-5E54-43D4-879D-89330F4AEE31}" destId="{4B012DE6-03E3-4B3D-B8FE-98294985ECB3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A7847076-432C-4823-98D8-0A52B3DA8C5B}" type="presParOf" srcId="{4B012DE6-03E3-4B3D-B8FE-98294985ECB3}" destId="{EF5FA540-0E0E-4DAB-9B6C-D208314FD54A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A09B018A-C0F9-49CD-9887-8B39DEC5C443}" type="presParOf" srcId="{4B012DE6-03E3-4B3D-B8FE-98294985ECB3}" destId="{3DC7A0EF-C1F6-40C1-A3B9-5F7F8091D632}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1ACF99F5-F127-4492-89B8-E2678FDCE3BB}" type="presParOf" srcId="{B7EF42D9-5E54-43D4-879D-89330F4AEE31}" destId="{BCB52E40-F1FC-4496-A98A-01A144CB9D9D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3845EBD7-7902-4A73-842F-56D7557D4902}" type="presParOf" srcId="{BCB52E40-F1FC-4496-A98A-01A144CB9D9D}" destId="{ACE055D4-0562-47BD-8406-D234BB2444D8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EA8673B0-F431-45E3-BFB8-45D3306E336B}" type="presParOf" srcId="{BCB52E40-F1FC-4496-A98A-01A144CB9D9D}" destId="{6F146814-F30B-49E0-A0CF-EFC06E87DF2B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9B361B05-1A9C-475B-B375-8BFD758F5358}" type="presParOf" srcId="{6F146814-F30B-49E0-A0CF-EFC06E87DF2B}" destId="{3CA9F192-B974-4E7A-BC1D-6AA801CCAD66}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{37CF94E5-1C7A-4B47-A356-DD6EAD0E6BBB}" type="presParOf" srcId="{3CA9F192-B974-4E7A-BC1D-6AA801CCAD66}" destId="{36A26CFF-BE05-462C-B683-B047991B55F6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5F2A3D16-5F85-4A27-81D7-ED0548E6D37F}" type="presParOf" srcId="{3CA9F192-B974-4E7A-BC1D-6AA801CCAD66}" destId="{D7BE0503-6EF8-4E04-8215-9F4C23A234AE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8E0E8389-3DB0-4C9F-A8EE-3ECE630463DA}" type="presParOf" srcId="{6F146814-F30B-49E0-A0CF-EFC06E87DF2B}" destId="{B7DA7646-7C04-43A2-BF58-A251BC8517D9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E9FA7368-B01B-4B0A-B917-FC92BD1BC785}" type="presParOf" srcId="{6F146814-F30B-49E0-A0CF-EFC06E87DF2B}" destId="{A9268865-CE3D-47C4-9DB4-5856C3F82E84}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{477F5492-E9AB-4154-A8C7-9075A5DD2F4E}" type="presParOf" srcId="{BCB52E40-F1FC-4496-A98A-01A144CB9D9D}" destId="{1E85A029-98DE-4CF1-B5A6-5F1737BEEE9B}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{488DA058-3294-4BF8-B3CC-0C81FB8161B4}" type="presParOf" srcId="{BCB52E40-F1FC-4496-A98A-01A144CB9D9D}" destId="{CAF6F521-487A-437E-B48A-88C824A184C5}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9FA542BC-AB13-41EF-8A3E-D99673F52726}" type="presParOf" srcId="{CAF6F521-487A-437E-B48A-88C824A184C5}" destId="{9F2F98D5-4775-4F9F-BE77-E054C76BF32E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A93589CF-A59E-4F19-8A09-B14759E0C08F}" type="presParOf" srcId="{9F2F98D5-4775-4F9F-BE77-E054C76BF32E}" destId="{33F90D4A-F3E1-49E7-8FFA-252A7E734E2D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BFCAF55C-EFB1-46C8-BE7B-50C672E5F4BE}" type="presParOf" srcId="{9F2F98D5-4775-4F9F-BE77-E054C76BF32E}" destId="{5A071FEA-AC73-49CB-BB1D-D48C4C0B4730}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B0FBBECF-91FB-49A4-AD8C-038B4EABD398}" type="presParOf" srcId="{CAF6F521-487A-437E-B48A-88C824A184C5}" destId="{B6627712-CE43-4E44-B524-E092AD74B6DF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{689EE4FE-CCFF-4C16-9AA3-4C57DAF0302F}" type="presParOf" srcId="{CAF6F521-487A-437E-B48A-88C824A184C5}" destId="{78946B7E-BCB3-4769-8EA3-5831D96A87F4}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{88400AD2-0C73-4BA2-90BB-901FC66A5F55}" type="presParOf" srcId="{BCB52E40-F1FC-4496-A98A-01A144CB9D9D}" destId="{CBBE1D9A-B9F1-4CE8-A766-E2D2CC915358}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DE9C97E6-25BB-4D4B-8021-05C858A3D885}" type="presParOf" srcId="{BCB52E40-F1FC-4496-A98A-01A144CB9D9D}" destId="{1BBC69F3-2228-4437-AB97-7E743556BB35}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{848E7524-E4DD-48FC-9CB5-93BBEA4587D8}" type="presParOf" srcId="{1BBC69F3-2228-4437-AB97-7E743556BB35}" destId="{527AA037-8818-4841-8BE8-E038E2F7E768}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F5CC41D9-13EE-4B91-9C05-0057E0AC87B6}" type="presParOf" srcId="{527AA037-8818-4841-8BE8-E038E2F7E768}" destId="{54634EED-05CC-43F4-BDFE-274E2FF21DE3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{374A20AE-0BD9-403A-888F-5C5609C6AEF3}" type="presParOf" srcId="{527AA037-8818-4841-8BE8-E038E2F7E768}" destId="{63371C9C-B5DC-446A-B250-09C76D98870B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{742FD7C5-AC9D-48CF-8177-80A35C478697}" type="presParOf" srcId="{1BBC69F3-2228-4437-AB97-7E743556BB35}" destId="{72045FC7-ABB9-4061-AEF3-913A2B8C2CFC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EFB03384-92E6-4742-BD90-4FD30F80E46D}" type="presParOf" srcId="{1BBC69F3-2228-4437-AB97-7E743556BB35}" destId="{8AC9210C-82D9-4426-BA7C-AE8C2A476ADE}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1C421EFB-3AB8-4981-BBE3-8C84F904B855}" type="presParOf" srcId="{B7EF42D9-5E54-43D4-879D-89330F4AEE31}" destId="{6E8488BC-55AC-49D3-BDBE-F3D8097B3331}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DC4E3965-3A5A-44E9-8016-9803A8DC9FAF}" type="presParOf" srcId="{67D0B2BB-D30E-49A2-9AE5-B4E0C5B20C43}" destId="{62E6AC74-EC68-41FB-8796-E9FED1EFE9F4}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9D82A44C-BCE1-422C-AC80-09D0B6396DA9}" type="presParOf" srcId="{67D0B2BB-D30E-49A2-9AE5-B4E0C5B20C43}" destId="{0053510E-DC60-42E6-AC27-1BABB7624CE8}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8DC89253-57D1-4DD1-A641-BDC4045A0ECB}" type="presParOf" srcId="{0053510E-DC60-42E6-AC27-1BABB7624CE8}" destId="{92601F87-7587-4F5E-9A39-E35A2CB466DE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{50D742DD-31E3-4A80-BBB2-B737C52AB42E}" type="presParOf" srcId="{92601F87-7587-4F5E-9A39-E35A2CB466DE}" destId="{1273B1E2-95A6-45BF-86CB-AAF815FFC4CB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E3114FA4-F7A1-40C1-B519-8F3E0F52B364}" type="presParOf" srcId="{92601F87-7587-4F5E-9A39-E35A2CB466DE}" destId="{A961C565-B014-43D4-98CD-33B568F1CD89}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F95C2C7E-B533-49C5-9283-90123F5D591C}" type="presParOf" srcId="{0053510E-DC60-42E6-AC27-1BABB7624CE8}" destId="{A757CAD0-44C3-4A73-8511-7DD32232989D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8D1A012F-DA94-4CCD-85C4-31A72143410A}" type="presParOf" srcId="{A757CAD0-44C3-4A73-8511-7DD32232989D}" destId="{9B96F8CB-52F0-45AB-B111-5BA345FCE8E4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1D90706D-2DBB-486E-A271-AC7FE241662E}" type="presParOf" srcId="{A757CAD0-44C3-4A73-8511-7DD32232989D}" destId="{66F7261D-320C-4E11-AED5-ACB6CDDF6867}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{61DAF3AC-B49F-4067-A67D-DBE982AEF677}" type="presParOf" srcId="{66F7261D-320C-4E11-AED5-ACB6CDDF6867}" destId="{E2257003-D738-441C-9318-D22A27274F9E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{ACE43E91-5A90-4318-9C2A-7126E755360B}" type="presParOf" srcId="{E2257003-D738-441C-9318-D22A27274F9E}" destId="{3F6A2980-7E03-40AD-8062-5147CA6F3829}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4963A376-FB0F-4C8D-B235-576F245C3DCF}" type="presParOf" srcId="{E2257003-D738-441C-9318-D22A27274F9E}" destId="{2653644A-093E-4652-BC94-898613E2B664}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{09842251-D35B-4D0A-A100-BEB654045D6E}" type="presParOf" srcId="{66F7261D-320C-4E11-AED5-ACB6CDDF6867}" destId="{CDD1496D-56C3-42D1-8C46-482C818D9902}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DCEDC050-1652-497E-B477-938ACA53E7A0}" type="presParOf" srcId="{66F7261D-320C-4E11-AED5-ACB6CDDF6867}" destId="{3A09FF01-209C-43A9-82C7-02013B011E2C}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6FE3A817-EC50-4989-8B14-74BE47239A3A}" type="presParOf" srcId="{A757CAD0-44C3-4A73-8511-7DD32232989D}" destId="{B679AF9C-7370-4C04-AF88-8156DAACAF34}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1FB04733-2181-4A03-83D0-67CF952C06A6}" type="presParOf" srcId="{A757CAD0-44C3-4A73-8511-7DD32232989D}" destId="{E69182E3-E0AF-44C7-8664-E57DF84F3EBE}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{554DFF6E-3159-4334-949F-8542152A7B24}" type="presParOf" srcId="{E69182E3-E0AF-44C7-8664-E57DF84F3EBE}" destId="{4992533C-B402-43F8-97CC-9F7D635919D7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{123D4A2E-6AE9-4E60-873F-14467141E13E}" type="presParOf" srcId="{4992533C-B402-43F8-97CC-9F7D635919D7}" destId="{8CDF392B-64BB-4E9D-9EB5-848672E12C6D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A051A46A-4B83-4F8F-96DD-1C8FDC1FD2B3}" type="presParOf" srcId="{4992533C-B402-43F8-97CC-9F7D635919D7}" destId="{A5ED9F7B-A343-4D1A-B5AE-BCCAEC51573D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{67E88FEB-8D69-4926-A04A-6DFEDB247C66}" type="presParOf" srcId="{E69182E3-E0AF-44C7-8664-E57DF84F3EBE}" destId="{98037BE4-7C42-4401-BF2B-E2A0D01CC571}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EFA73FD6-FF4F-4242-8B16-9CF901815CFD}" type="presParOf" srcId="{E69182E3-E0AF-44C7-8664-E57DF84F3EBE}" destId="{018B0414-D97C-495B-8AA8-B810F560D560}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{155BDB6E-BAD9-47EA-B3AF-96074DEF9AA5}" type="presParOf" srcId="{A757CAD0-44C3-4A73-8511-7DD32232989D}" destId="{05C06305-A0BF-4EA0-8EBD-FF857B4688B4}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D52CFA7B-583C-4799-8D93-3AF15EA1A963}" type="presParOf" srcId="{A757CAD0-44C3-4A73-8511-7DD32232989D}" destId="{86FC5C25-6F84-4DA4-8144-5619406A7C5E}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3B5A173A-469C-45CB-A7F4-D95D8FF851C0}" type="presParOf" srcId="{86FC5C25-6F84-4DA4-8144-5619406A7C5E}" destId="{A065BDA2-9EAB-4DA4-9E2E-83230E41B5BD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{11A2C95E-B27D-428E-8F5B-2FF42087D5D1}" type="presParOf" srcId="{A065BDA2-9EAB-4DA4-9E2E-83230E41B5BD}" destId="{653B4605-AFCE-481F-8C9A-0646055F2802}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0A2A2009-21C7-4E5C-BAAD-A4388C185852}" type="presParOf" srcId="{A065BDA2-9EAB-4DA4-9E2E-83230E41B5BD}" destId="{2528B6E0-1A7F-4176-80ED-D20879E5883E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B9D68CCF-579C-429B-86A1-3B60F65E4438}" type="presParOf" srcId="{86FC5C25-6F84-4DA4-8144-5619406A7C5E}" destId="{9E80563A-3DE0-46AE-B4AC-373A7C9595C8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9E8B09E8-87DA-4427-AA05-748AED3437BC}" type="presParOf" srcId="{86FC5C25-6F84-4DA4-8144-5619406A7C5E}" destId="{9506599B-41B2-4CF7-AFD7-69D7B1833778}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3B675E94-5EE6-4876-88D6-90062FCE8464}" type="presParOf" srcId="{A757CAD0-44C3-4A73-8511-7DD32232989D}" destId="{D3E894DC-B607-445D-8EFF-EBC441BE52AD}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{07720E4F-B6C8-4C43-9C41-E2A2B9470D41}" type="presParOf" srcId="{A757CAD0-44C3-4A73-8511-7DD32232989D}" destId="{08E04F3E-766A-43E9-9C1C-E37953BA4D5B}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5861853F-E984-4C45-90E8-73A0EAF90786}" type="presParOf" srcId="{08E04F3E-766A-43E9-9C1C-E37953BA4D5B}" destId="{D4B987DF-3828-4C61-8DAE-80FFC378DA39}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F17EBB89-8407-469C-8669-D6E17585EF13}" type="presParOf" srcId="{D4B987DF-3828-4C61-8DAE-80FFC378DA39}" destId="{C47F0D89-CB38-4FAE-BDE2-0E803834FDE3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{324135E3-C216-404C-95DF-DF40622F829B}" type="presParOf" srcId="{D4B987DF-3828-4C61-8DAE-80FFC378DA39}" destId="{5E96953E-440E-4537-8D5E-C60661E031A9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9A43F40F-269D-4339-922E-5D9582D9B145}" type="presParOf" srcId="{08E04F3E-766A-43E9-9C1C-E37953BA4D5B}" destId="{9F13C869-B323-425E-8418-184A758E5DCA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DD7FE0C7-3393-45C0-A77A-0705BAE86234}" type="presParOf" srcId="{08E04F3E-766A-43E9-9C1C-E37953BA4D5B}" destId="{35AA0A74-8603-47BA-9209-C88BFE8351AB}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{630F74BA-71EC-44A6-A504-E8B5AFB93E49}" type="presParOf" srcId="{A757CAD0-44C3-4A73-8511-7DD32232989D}" destId="{B43ABE45-2E24-4624-9DF5-B6606C20A46E}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{71B1F689-6C55-4E65-988C-D12FD8CCB5DF}" type="presParOf" srcId="{A757CAD0-44C3-4A73-8511-7DD32232989D}" destId="{6B880593-EDD9-4738-AAD0-6F688DAFF1EF}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FB49B88D-F18C-4A82-A0A8-AAE752AB927F}" type="presParOf" srcId="{6B880593-EDD9-4738-AAD0-6F688DAFF1EF}" destId="{A6527260-982C-4DE3-97A2-34D60EDB11F1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D0417465-65C5-4317-A2AC-65984CFFCECE}" type="presParOf" srcId="{A6527260-982C-4DE3-97A2-34D60EDB11F1}" destId="{596A12D5-0BF9-4DFF-BE75-EB1BC3A24E43}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BB6DFDDD-0EB2-4DCD-B974-3E4586CFDDCD}" type="presParOf" srcId="{A6527260-982C-4DE3-97A2-34D60EDB11F1}" destId="{8D66A22F-D8AA-4810-9676-A414A393DD14}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9548A6B0-F80A-4552-985E-7E5CAC0BF51F}" type="presParOf" srcId="{6B880593-EDD9-4738-AAD0-6F688DAFF1EF}" destId="{E1B143F4-8BFD-4325-9448-DEA2DE1B7E76}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{78CB9158-6C0D-4026-BBE0-9B71C7DDE9BC}" type="presParOf" srcId="{6B880593-EDD9-4738-AAD0-6F688DAFF1EF}" destId="{4941C50C-E552-4421-B579-7154AF7ADB31}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C13990D7-1A4F-4337-9B04-EAF142C9EE20}" type="presParOf" srcId="{A757CAD0-44C3-4A73-8511-7DD32232989D}" destId="{187E047C-46AB-49A9-9A06-C9B0B4668537}" srcOrd="10" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{97C679E8-DF7C-459F-9D0C-65899260EDCA}" type="presParOf" srcId="{A757CAD0-44C3-4A73-8511-7DD32232989D}" destId="{02462E0B-20E0-4D4E-A7BD-57D685174EA2}" srcOrd="11" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{ABC19FAF-7254-4C73-845D-244AE75884CA}" type="presParOf" srcId="{02462E0B-20E0-4D4E-A7BD-57D685174EA2}" destId="{931F2E35-43F9-4670-8C41-379FF02B99CD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BAD0B6EE-E75C-4DA2-8E29-AB11425C0E08}" type="presParOf" srcId="{931F2E35-43F9-4670-8C41-379FF02B99CD}" destId="{585A59D5-287A-4DC3-9874-E9B368826906}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FCF03221-00BA-453C-9491-7EF362C81880}" type="presParOf" srcId="{931F2E35-43F9-4670-8C41-379FF02B99CD}" destId="{3CB34820-0238-4FA5-89D8-3F80B3D0AC2D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{291C3EA7-D264-4309-B905-2266BFC25F7E}" type="presParOf" srcId="{02462E0B-20E0-4D4E-A7BD-57D685174EA2}" destId="{E7B4F31D-7369-4CE6-BC60-92FB5B263A17}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AA645AB0-210E-4A85-9345-029E40FE6E74}" type="presParOf" srcId="{02462E0B-20E0-4D4E-A7BD-57D685174EA2}" destId="{B882A779-87FE-4E40-8BD1-230AD2CB0547}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0570CE58-0EFB-4C9F-8679-9A2917697AEB}" type="presParOf" srcId="{A757CAD0-44C3-4A73-8511-7DD32232989D}" destId="{7E6D97E6-37EC-4AF9-9165-5BA377FBF0F8}" srcOrd="12" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1AAA3A10-6905-4309-B899-B5FEDBA9CC65}" type="presParOf" srcId="{A757CAD0-44C3-4A73-8511-7DD32232989D}" destId="{B6EA5DB0-A187-4A71-9069-06E90349351F}" srcOrd="13" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4162F712-4593-4F91-AD70-1551865DE803}" type="presParOf" srcId="{B6EA5DB0-A187-4A71-9069-06E90349351F}" destId="{43768834-5E08-4776-BCF2-572061E46A05}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{896EBB58-CF83-4D73-819A-BCDEFA5C545B}" type="presParOf" srcId="{43768834-5E08-4776-BCF2-572061E46A05}" destId="{2956D8F6-824E-474D-9E23-ECB7F4BD0322}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{432DF218-2DC1-4A45-AD71-ED068FC8F93E}" type="presParOf" srcId="{43768834-5E08-4776-BCF2-572061E46A05}" destId="{EAE367BF-0568-40D3-9DCF-D5E096C6EF0C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{44C80466-43E3-4731-B14F-5A1961A102AB}" type="presParOf" srcId="{B6EA5DB0-A187-4A71-9069-06E90349351F}" destId="{7A22E6AD-AA3E-4B16-BC02-C87BD89F2527}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9C2E9A48-6FBD-4B39-9DE1-4F52654DD826}" type="presParOf" srcId="{B6EA5DB0-A187-4A71-9069-06E90349351F}" destId="{2E7C627C-0078-4E18-BDD8-DAF07C414703}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CB2F0F0A-9D8C-4F59-A2F6-64AA1BF5606D}" type="presParOf" srcId="{A757CAD0-44C3-4A73-8511-7DD32232989D}" destId="{AB05FA9E-622F-498A-B140-58D310789542}" srcOrd="14" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B24DD6F1-DCF6-4249-84FF-FEE057321FCF}" type="presParOf" srcId="{A757CAD0-44C3-4A73-8511-7DD32232989D}" destId="{5CE3EA56-5F90-4277-999A-73F95729CD1C}" srcOrd="15" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F71D53D3-B165-4298-B464-C4D259D8D7DF}" type="presParOf" srcId="{5CE3EA56-5F90-4277-999A-73F95729CD1C}" destId="{01AA2E2D-2301-4914-9BA2-12C1F869146D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4E22B0F0-D1BA-4DAD-9006-1BB7B058AF96}" type="presParOf" srcId="{01AA2E2D-2301-4914-9BA2-12C1F869146D}" destId="{CCE9ABAB-E83C-4917-84B7-E70352CE9D05}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C4F43DEA-E60F-4276-BC1E-CE662E1AF905}" type="presParOf" srcId="{01AA2E2D-2301-4914-9BA2-12C1F869146D}" destId="{EAD87F3A-9738-46D0-A996-934593170EEA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{09E00B08-9E35-42FF-9C66-FD5EFCC3D38E}" type="presParOf" srcId="{5CE3EA56-5F90-4277-999A-73F95729CD1C}" destId="{A4399745-647B-47D4-BB22-6F0A21C3FC34}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1BF91E13-E0EB-4F1A-AFFE-7A50CF9E4652}" type="presParOf" srcId="{5CE3EA56-5F90-4277-999A-73F95729CD1C}" destId="{C0BAB0D5-61DC-4D70-AF73-C253C3C66884}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{150450C4-FE50-431C-BB21-D5C6AC9893BC}" type="presParOf" srcId="{0053510E-DC60-42E6-AC27-1BABB7624CE8}" destId="{2E07E4A2-D83E-4C1B-9B75-D79325589AB3}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8DD09AFC-8A7E-40A2-81F5-DD86E74E97F1}" type="presParOf" srcId="{67D0B2BB-D30E-49A2-9AE5-B4E0C5B20C43}" destId="{B0452553-C509-4767-9F8D-2ED00265C53D}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1B6BB3B1-6859-4638-B213-5865321AB16A}" type="presParOf" srcId="{67D0B2BB-D30E-49A2-9AE5-B4E0C5B20C43}" destId="{91F227B8-77F7-446F-9685-05CE7817AD45}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{22406F89-D7A5-4F43-B74C-872081F9F21E}" type="presParOf" srcId="{91F227B8-77F7-446F-9685-05CE7817AD45}" destId="{3A6AEEA2-36BD-43D0-B203-6F4B9F48C595}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4FAA9E92-A1F4-41B8-9CC1-AC632128023D}" type="presParOf" srcId="{3A6AEEA2-36BD-43D0-B203-6F4B9F48C595}" destId="{A5979D81-FB2B-4758-A2C5-FB9DA526B14D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{29E71706-1813-4D1E-8037-D3F4CB0526B1}" type="presParOf" srcId="{3A6AEEA2-36BD-43D0-B203-6F4B9F48C595}" destId="{0D9AF4ED-65F5-4BC1-894D-7DE9DAB7C8BB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A2D94C55-05F7-4274-9774-52308D9ED369}" type="presParOf" srcId="{91F227B8-77F7-446F-9685-05CE7817AD45}" destId="{2F7E6382-78CE-4BFD-83BC-71AFA5A7F740}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{45C49F64-680A-44CB-914E-63972E8817C4}" type="presParOf" srcId="{2F7E6382-78CE-4BFD-83BC-71AFA5A7F740}" destId="{C68126D9-9625-4581-A2C5-5AF9BCEC9D56}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CEC305C0-5A18-44BD-8797-5470477CE4DD}" type="presParOf" srcId="{2F7E6382-78CE-4BFD-83BC-71AFA5A7F740}" destId="{6FFEF6DF-C5CF-407A-8560-5B4D5CE28F47}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8C3FA8CD-D95C-46D7-936A-E85BF6F54EF6}" type="presParOf" srcId="{6FFEF6DF-C5CF-407A-8560-5B4D5CE28F47}" destId="{5E24EA3A-90D1-4812-BD9B-A6C03369DEE8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CE2D3046-71A1-432A-9002-6C01CB4E0A82}" type="presParOf" srcId="{5E24EA3A-90D1-4812-BD9B-A6C03369DEE8}" destId="{C7A854AF-C5A9-46D3-97E9-5C77B4CCF454}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{80A63339-C75B-494B-8EEC-A896BF72371D}" type="presParOf" srcId="{5E24EA3A-90D1-4812-BD9B-A6C03369DEE8}" destId="{60F7CE4A-8026-4829-826E-5EFC61930166}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0AB0D901-87A1-42CE-AB6E-037D9BF5C6AA}" type="presParOf" srcId="{6FFEF6DF-C5CF-407A-8560-5B4D5CE28F47}" destId="{280E279E-BD76-41B5-B599-6D9E587A9BC0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C22E87A5-9438-4CD2-92AA-5576F243BF05}" type="presParOf" srcId="{6FFEF6DF-C5CF-407A-8560-5B4D5CE28F47}" destId="{3DC74E6B-3615-4618-B4C4-0834557FA042}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{10BC818C-3899-43E8-94C0-29034CCD19CB}" type="presParOf" srcId="{2F7E6382-78CE-4BFD-83BC-71AFA5A7F740}" destId="{A12617A6-EED3-4C8F-8C51-C8F5A478A48E}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{97528EFA-C162-4F85-AEA0-38B0B7C0BDA2}" type="presParOf" srcId="{2F7E6382-78CE-4BFD-83BC-71AFA5A7F740}" destId="{C34BE2AC-8FE3-4F8C-B461-3B9C1087B3F0}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0FA01B3C-5809-4D37-AD7F-705B546A0CE6}" type="presParOf" srcId="{C34BE2AC-8FE3-4F8C-B461-3B9C1087B3F0}" destId="{6D08F31A-906D-4225-AC33-219E5FAB8BFE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{45F73F5D-0110-41A9-AE31-EF0442E41468}" type="presParOf" srcId="{6D08F31A-906D-4225-AC33-219E5FAB8BFE}" destId="{92D1FB71-DE68-4FA3-84B3-F766277FE8F2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{14B71C35-67EC-48B0-9DD1-142C6EFB1A0A}" type="presParOf" srcId="{6D08F31A-906D-4225-AC33-219E5FAB8BFE}" destId="{85C251E6-7F9F-4603-82DB-474744644B41}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{18209D06-B7B0-4B2E-A028-AC219D823A2F}" type="presParOf" srcId="{C34BE2AC-8FE3-4F8C-B461-3B9C1087B3F0}" destId="{6C3050E8-183F-41F4-B4D7-F5F780EAB2A1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{85E74784-510B-47B6-897F-AAD93A83305D}" type="presParOf" srcId="{C34BE2AC-8FE3-4F8C-B461-3B9C1087B3F0}" destId="{8677396B-DA7E-4E78-8B5C-F702CF660980}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6A638BC7-57EE-4800-8E9B-A5E8B439C575}" type="presParOf" srcId="{2F7E6382-78CE-4BFD-83BC-71AFA5A7F740}" destId="{568FDEE9-00FD-4C47-A17E-B065C337AB87}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B3BC57D0-AE5B-44E1-B1C1-BD6493C24CBC}" type="presParOf" srcId="{2F7E6382-78CE-4BFD-83BC-71AFA5A7F740}" destId="{3EEE132B-6026-4255-A26D-7D2A91584C82}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D757CFF9-047A-481C-9549-FA104E86AE75}" type="presParOf" srcId="{3EEE132B-6026-4255-A26D-7D2A91584C82}" destId="{591B1DFC-13D3-4209-A6F7-3124FC1E11DB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6BD9C759-EBC5-42DC-B34A-B73CBEF9B559}" type="presParOf" srcId="{591B1DFC-13D3-4209-A6F7-3124FC1E11DB}" destId="{4ED8115A-0B2D-41EA-A05F-6CB63AB57B2F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{85734D3E-7464-43E3-A6E9-327D68BE47A8}" type="presParOf" srcId="{591B1DFC-13D3-4209-A6F7-3124FC1E11DB}" destId="{25CA511B-2DAA-4044-97BC-E533FFA98D1C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{29CF4104-7370-4CB5-8269-7C05105E5A5D}" type="presParOf" srcId="{3EEE132B-6026-4255-A26D-7D2A91584C82}" destId="{C9F46C04-2CBB-474A-A50A-94331E04A72C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{75B5352F-49A1-4F4E-B808-887901384109}" type="presParOf" srcId="{3EEE132B-6026-4255-A26D-7D2A91584C82}" destId="{1F46CDD7-6889-4701-AD5E-FBBC21638B0E}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{03995333-C7E5-46CA-A5F9-A43F4A68B47B}" type="presParOf" srcId="{91F227B8-77F7-446F-9685-05CE7817AD45}" destId="{FBE844EA-2F48-4A70-B0B9-C55574308488}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EC8AF19F-6BE0-47F7-B4E3-C80F139C4C0E}" type="presParOf" srcId="{67D0B2BB-D30E-49A2-9AE5-B4E0C5B20C43}" destId="{9954B537-7E0D-4EE7-8C7A-4639731ED227}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4E2CD1A7-9C01-45A1-8A53-1B5E078A1166}" type="presParOf" srcId="{67D0B2BB-D30E-49A2-9AE5-B4E0C5B20C43}" destId="{820BDB72-7444-436A-98AC-B86046D794DD}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C1067EA7-8AAA-4736-ACE1-4DB00ED829E0}" type="presParOf" srcId="{820BDB72-7444-436A-98AC-B86046D794DD}" destId="{A5DD653E-180D-4371-A854-C5F7CE83040D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8AFFF0DC-3FD3-49B3-97AE-8F9B99B604C9}" type="presParOf" srcId="{A5DD653E-180D-4371-A854-C5F7CE83040D}" destId="{403B3431-7799-4DB3-A6B4-860C1D8C3B5C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EFA80456-E201-4F54-8B9E-5B1785FC80D8}" type="presParOf" srcId="{A5DD653E-180D-4371-A854-C5F7CE83040D}" destId="{C3B7D702-4E55-4A42-9E27-794FE0C50BC3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CFFA7D7E-EBA3-4C90-A1D1-4141EFABA207}" type="presParOf" srcId="{820BDB72-7444-436A-98AC-B86046D794DD}" destId="{42D0A00B-D82A-4F40-AC5D-BF4F662EEE8D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{074F05C7-16D1-4992-BF5F-C2C964706D2A}" type="presParOf" srcId="{820BDB72-7444-436A-98AC-B86046D794DD}" destId="{7E6671EA-1B52-47FF-AB6B-B3647D01819A}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F1E586DC-05B4-4356-AFE4-49E5D576F416}" type="presParOf" srcId="{67D0B2BB-D30E-49A2-9AE5-B4E0C5B20C43}" destId="{EB8D8481-FF39-49B9-910F-05B1CE1490AE}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E3405954-1E3D-4848-9645-7143A52FA89C}" type="presParOf" srcId="{67D0B2BB-D30E-49A2-9AE5-B4E0C5B20C43}" destId="{B2C8895A-2A83-4763-A653-B74D50548F9C}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{22487103-2CF0-47AE-840D-BAE8E0CC86D2}" type="presParOf" srcId="{B2C8895A-2A83-4763-A653-B74D50548F9C}" destId="{6F86A04D-79EA-4E70-B6C2-B5C3C678E8C0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8C968241-BA41-4D39-9E20-D3DA593CE9FF}" type="presParOf" srcId="{6F86A04D-79EA-4E70-B6C2-B5C3C678E8C0}" destId="{C0C96D0D-44F5-4742-B617-2957B2F6576C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C300A97B-826E-4B8A-8ED4-4C714B9C6C39}" type="presParOf" srcId="{6F86A04D-79EA-4E70-B6C2-B5C3C678E8C0}" destId="{6D6F5D08-4C0E-46C2-8C36-A08ABD4FD580}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F8EEAD36-0799-464A-B252-716C03215EC1}" type="presParOf" srcId="{B2C8895A-2A83-4763-A653-B74D50548F9C}" destId="{78648CE6-D5B5-41A5-8F0C-D4DEF6997E7D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{26F91A62-678E-4A22-81C4-231E252688EC}" type="presParOf" srcId="{B2C8895A-2A83-4763-A653-B74D50548F9C}" destId="{757823D4-C558-4634-8E64-C81B1CB6FA45}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FEE1E187-FAE0-46D4-B4BD-F5338D1C0D4D}" type="presParOf" srcId="{67D0B2BB-D30E-49A2-9AE5-B4E0C5B20C43}" destId="{13090DAF-BDDF-4C95-BC60-2A12CE376131}" srcOrd="10" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{95C262EA-D406-4532-B3C2-0B55C9625B31}" type="presParOf" srcId="{67D0B2BB-D30E-49A2-9AE5-B4E0C5B20C43}" destId="{AF222278-3DFA-4177-AC0F-1C1A423C2BEB}" srcOrd="11" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5FC82C4C-81CB-494C-8450-547377D85031}" type="presParOf" srcId="{AF222278-3DFA-4177-AC0F-1C1A423C2BEB}" destId="{E8587769-1557-4719-8913-D9236C6CEB7F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{99582409-A657-4FA5-9551-7B07B6567268}" type="presParOf" srcId="{E8587769-1557-4719-8913-D9236C6CEB7F}" destId="{2D7D72AB-C9D0-4BD5-9882-CC1A9E582E68}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FF6ACE71-15F5-40DA-A984-072D2DC330B0}" type="presParOf" srcId="{E8587769-1557-4719-8913-D9236C6CEB7F}" destId="{979913F4-A004-4A38-9670-CCB5EB99283E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3CACCC41-2201-4111-A095-548DD1D58D4F}" type="presParOf" srcId="{AF222278-3DFA-4177-AC0F-1C1A423C2BEB}" destId="{143883E0-D3F7-4EC9-A1B8-1D09DE4A860A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C0C6E416-510E-47C2-8C5B-E1F3947928C7}" type="presParOf" srcId="{AF222278-3DFA-4177-AC0F-1C1A423C2BEB}" destId="{4045B8F9-0931-4916-A9B7-05EFE2FC6E9D}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{14A3E5E8-DF68-4FDE-95CB-C0573FB0FF28}" type="presParOf" srcId="{5CB26BFC-B3B3-4D59-810F-04084F22419B}" destId="{03C48A67-B2D8-420E-A0DB-29B67D7E2EBE}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
   </dgm:cxnLst>
   <dgm:bg/>
@@ -3818,15 +5478,15 @@
       <dsp:cNvGrpSpPr/>
     </dsp:nvGrpSpPr>
     <dsp:grpSpPr/>
-    <dsp:sp modelId="{3E88680D-FDEA-4C41-BAA1-FDF7468DD238}">
+    <dsp:sp modelId="{13090DAF-BDDF-4C95-BC60-2A12CE376131}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5328143" y="459134"/>
-          <a:ext cx="827674" cy="444117"/>
+          <a:off x="6613704" y="1132195"/>
+          <a:ext cx="2038691" cy="169449"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3840,10 +5500,1188 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="444117"/>
+                <a:pt x="0" y="73293"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="827674" y="444117"/>
+                <a:pt x="2038691" y="73293"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2038691" y="169449"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{EB8D8481-FF39-49B9-910F-05B1CE1490AE}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6613704" y="1132195"/>
+          <a:ext cx="930607" cy="169449"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="73293"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="930607" y="73293"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="930607" y="169449"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{9954B537-7E0D-4EE7-8C7A-4639731ED227}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6436227" y="1132195"/>
+          <a:ext cx="177476" cy="169449"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="177476" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="177476" y="73293"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="73293"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="169449"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{568FDEE9-00FD-4C47-A17E-B065C337AB87}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4961834" y="1759530"/>
+          <a:ext cx="137365" cy="1721651"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1721651"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="137365" y="1721651"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{A12617A6-EED3-4C8F-8C51-C8F5A478A48E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4961834" y="1759530"/>
+          <a:ext cx="137365" cy="1071453"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1071453"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="137365" y="1071453"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{C68126D9-9625-4581-A2C5-5AF9BCEC9D56}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4961834" y="1759530"/>
+          <a:ext cx="137365" cy="421255"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="421255"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="137365" y="421255"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{B0452553-C509-4767-9F8D-2ED00265C53D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5328143" y="1132195"/>
+          <a:ext cx="1285560" cy="169449"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="1285560" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1285560" y="73293"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="73293"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="169449"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{AB05FA9E-622F-498A-B140-58D310789542}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3853750" y="1759530"/>
+          <a:ext cx="137365" cy="4972642"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="4972642"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="137365" y="4972642"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{7E6D97E6-37EC-4AF9-9165-5BA377FBF0F8}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3853750" y="1759530"/>
+          <a:ext cx="137365" cy="4322443"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="4322443"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="137365" y="4322443"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{187E047C-46AB-49A9-9A06-C9B0B4668537}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3853750" y="1759530"/>
+          <a:ext cx="137365" cy="3672245"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="3672245"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="137365" y="3672245"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{B43ABE45-2E24-4624-9DF5-B6606C20A46E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3853750" y="1759530"/>
+          <a:ext cx="137365" cy="3022047"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="3022047"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="137365" y="3022047"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{D3E894DC-B607-445D-8EFF-EBC441BE52AD}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3853750" y="1759530"/>
+          <a:ext cx="137365" cy="2371849"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="2371849"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="137365" y="2371849"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{05C06305-A0BF-4EA0-8EBD-FF857B4688B4}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3853750" y="1759530"/>
+          <a:ext cx="137365" cy="1721651"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1721651"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="137365" y="1721651"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{B679AF9C-7370-4C04-AF88-8156DAACAF34}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3853750" y="1759530"/>
+          <a:ext cx="137365" cy="1071453"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1071453"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="137365" y="1071453"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{9B96F8CB-52F0-45AB-B111-5BA345FCE8E4}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3853750" y="1759530"/>
+          <a:ext cx="137365" cy="421255"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="421255"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="137365" y="421255"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{62E6AC74-EC68-41FB-8796-E9FED1EFE9F4}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4220059" y="1132195"/>
+          <a:ext cx="2393644" cy="169449"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="2393644" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="2393644" y="73293"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="73293"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="169449"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{CBBE1D9A-B9F1-4CE8-A766-E2D2CC915358}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2745666" y="1759530"/>
+          <a:ext cx="137365" cy="1721651"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1721651"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="137365" y="1721651"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{1E85A029-98DE-4CF1-B5A6-5F1737BEEE9B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2745666" y="1759530"/>
+          <a:ext cx="137365" cy="1071453"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1071453"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="137365" y="1071453"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{ACE055D4-0562-47BD-8406-D234BB2444D8}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2745666" y="1759530"/>
+          <a:ext cx="137365" cy="421255"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="421255"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="137365" y="421255"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{170CF46A-6E98-41DD-9EAD-A90C00E31B82}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3111975" y="1132195"/>
+          <a:ext cx="3501729" cy="169449"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="3501729" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="3501729" y="73293"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="73293"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="169449"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{3E88680D-FDEA-4C41-BAA1-FDF7468DD238}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4363881" y="481992"/>
+          <a:ext cx="1791936" cy="421259"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="421259"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1791936" y="421259"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3883,7 +6721,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4178849" y="1805319"/>
+          <a:off x="1408639" y="1805319"/>
           <a:ext cx="137365" cy="9524028"/>
         </a:xfrm>
         <a:custGeom>
@@ -3941,7 +6779,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4178849" y="1805319"/>
+          <a:off x="1408639" y="1805319"/>
           <a:ext cx="137365" cy="8873830"/>
         </a:xfrm>
         <a:custGeom>
@@ -3999,7 +6837,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4178849" y="1805319"/>
+          <a:off x="1408639" y="1805319"/>
           <a:ext cx="137365" cy="8223632"/>
         </a:xfrm>
         <a:custGeom>
@@ -4057,7 +6895,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4178849" y="1805319"/>
+          <a:off x="1408639" y="1805319"/>
           <a:ext cx="137365" cy="7573434"/>
         </a:xfrm>
         <a:custGeom>
@@ -4115,7 +6953,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4178849" y="1805319"/>
+          <a:off x="1408639" y="1805319"/>
           <a:ext cx="137365" cy="6923236"/>
         </a:xfrm>
         <a:custGeom>
@@ -4173,7 +7011,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4178849" y="1805319"/>
+          <a:off x="1408639" y="1805319"/>
           <a:ext cx="137365" cy="6273038"/>
         </a:xfrm>
         <a:custGeom>
@@ -4231,7 +7069,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4178849" y="1805319"/>
+          <a:off x="1408639" y="1805319"/>
           <a:ext cx="137365" cy="5622840"/>
         </a:xfrm>
         <a:custGeom>
@@ -4289,7 +7127,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4178849" y="1805319"/>
+          <a:off x="1408639" y="1805319"/>
           <a:ext cx="137365" cy="4972642"/>
         </a:xfrm>
         <a:custGeom>
@@ -4347,7 +7185,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4178849" y="1805319"/>
+          <a:off x="1408639" y="1805319"/>
           <a:ext cx="137365" cy="4322443"/>
         </a:xfrm>
         <a:custGeom>
@@ -4405,7 +7243,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4178849" y="1805319"/>
+          <a:off x="1408639" y="1805319"/>
           <a:ext cx="137365" cy="3672245"/>
         </a:xfrm>
         <a:custGeom>
@@ -4463,7 +7301,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4178849" y="1805319"/>
+          <a:off x="1408639" y="1805319"/>
           <a:ext cx="137365" cy="3022047"/>
         </a:xfrm>
         <a:custGeom>
@@ -4521,7 +7359,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4178849" y="1805319"/>
+          <a:off x="1408639" y="1805319"/>
           <a:ext cx="137365" cy="2371849"/>
         </a:xfrm>
         <a:custGeom>
@@ -4579,7 +7417,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4178849" y="1805319"/>
+          <a:off x="1408639" y="1805319"/>
           <a:ext cx="137365" cy="1721651"/>
         </a:xfrm>
         <a:custGeom>
@@ -4637,7 +7475,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4178849" y="1805319"/>
+          <a:off x="1408639" y="1805319"/>
           <a:ext cx="137365" cy="1071453"/>
         </a:xfrm>
         <a:custGeom>
@@ -4695,7 +7533,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4178849" y="1805319"/>
+          <a:off x="1408639" y="1805319"/>
           <a:ext cx="137365" cy="421255"/>
         </a:xfrm>
         <a:custGeom>
@@ -4753,7 +7591,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3991116" y="1155121"/>
+          <a:off x="1220906" y="1155121"/>
           <a:ext cx="554042" cy="192312"/>
         </a:xfrm>
         <a:custGeom>
@@ -4814,7 +7652,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3070765" y="1805319"/>
+          <a:off x="300555" y="1805319"/>
           <a:ext cx="137365" cy="9524028"/>
         </a:xfrm>
         <a:custGeom>
@@ -4872,7 +7710,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3070765" y="1805319"/>
+          <a:off x="300555" y="1805319"/>
           <a:ext cx="137365" cy="8873830"/>
         </a:xfrm>
         <a:custGeom>
@@ -4930,7 +7768,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3070765" y="1805319"/>
+          <a:off x="300555" y="1805319"/>
           <a:ext cx="137365" cy="8223632"/>
         </a:xfrm>
         <a:custGeom>
@@ -4988,7 +7826,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3070765" y="1805319"/>
+          <a:off x="300555" y="1805319"/>
           <a:ext cx="137365" cy="7573434"/>
         </a:xfrm>
         <a:custGeom>
@@ -5046,7 +7884,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3070765" y="1805319"/>
+          <a:off x="300555" y="1805319"/>
           <a:ext cx="137365" cy="6923236"/>
         </a:xfrm>
         <a:custGeom>
@@ -5104,7 +7942,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3070765" y="1805319"/>
+          <a:off x="300555" y="1805319"/>
           <a:ext cx="137365" cy="6273038"/>
         </a:xfrm>
         <a:custGeom>
@@ -5162,7 +8000,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3070765" y="1805319"/>
+          <a:off x="300555" y="1805319"/>
           <a:ext cx="137365" cy="5622840"/>
         </a:xfrm>
         <a:custGeom>
@@ -5220,7 +8058,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3070765" y="1805319"/>
+          <a:off x="300555" y="1805319"/>
           <a:ext cx="137365" cy="4972642"/>
         </a:xfrm>
         <a:custGeom>
@@ -5278,7 +8116,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3070765" y="1805319"/>
+          <a:off x="300555" y="1805319"/>
           <a:ext cx="137365" cy="4322443"/>
         </a:xfrm>
         <a:custGeom>
@@ -5336,7 +8174,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3070765" y="1805319"/>
+          <a:off x="300555" y="1805319"/>
           <a:ext cx="137365" cy="3672245"/>
         </a:xfrm>
         <a:custGeom>
@@ -5394,7 +8232,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3070765" y="1805319"/>
+          <a:off x="300555" y="1805319"/>
           <a:ext cx="137365" cy="3022047"/>
         </a:xfrm>
         <a:custGeom>
@@ -5452,7 +8290,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3070765" y="1805319"/>
+          <a:off x="300555" y="1805319"/>
           <a:ext cx="137365" cy="2371849"/>
         </a:xfrm>
         <a:custGeom>
@@ -5510,7 +8348,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3070765" y="1805319"/>
+          <a:off x="300555" y="1805319"/>
           <a:ext cx="137365" cy="1721651"/>
         </a:xfrm>
         <a:custGeom>
@@ -5568,7 +8406,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3070765" y="1805319"/>
+          <a:off x="300555" y="1805319"/>
           <a:ext cx="137365" cy="1071453"/>
         </a:xfrm>
         <a:custGeom>
@@ -5626,7 +8464,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3070765" y="1805319"/>
+          <a:off x="300555" y="1805319"/>
           <a:ext cx="137365" cy="421255"/>
         </a:xfrm>
         <a:custGeom>
@@ -5684,7 +8522,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3437074" y="1155121"/>
+          <a:off x="666864" y="1155121"/>
           <a:ext cx="554042" cy="192312"/>
         </a:xfrm>
         <a:custGeom>
@@ -5745,8 +8583,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4494791" y="459134"/>
-          <a:ext cx="833352" cy="444149"/>
+          <a:off x="1724580" y="481992"/>
+          <a:ext cx="2639300" cy="421291"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5757,13 +8595,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="833352" y="0"/>
+                <a:pt x="2639300" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="833352" y="444149"/>
+                <a:pt x="2639300" y="421291"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="444149"/>
+                <a:pt x="0" y="421291"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5803,7 +8641,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4870257" y="1248"/>
+          <a:off x="3905995" y="24106"/>
           <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5870,7 +8708,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4870257" y="1248"/>
+        <a:off x="3905995" y="24106"/>
         <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -5881,7 +8719,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3487441" y="651446"/>
+          <a:off x="717231" y="651446"/>
           <a:ext cx="1007349" cy="503674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5949,7 +8787,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3487441" y="651446"/>
+        <a:off x="717231" y="651446"/>
         <a:ext cx="1007349" cy="503674"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -5960,7 +8798,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2979188" y="1347433"/>
+          <a:off x="208978" y="1347433"/>
           <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6027,7 +8865,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2979188" y="1347433"/>
+        <a:off x="208978" y="1347433"/>
         <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -6038,7 +8876,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3208131" y="1997631"/>
+          <a:off x="437921" y="1997631"/>
           <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6105,7 +8943,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3208131" y="1997631"/>
+        <a:off x="437921" y="1997631"/>
         <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -6116,7 +8954,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3208131" y="2647829"/>
+          <a:off x="437921" y="2647829"/>
           <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6183,7 +9021,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3208131" y="2647829"/>
+        <a:off x="437921" y="2647829"/>
         <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -6194,7 +9032,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3208131" y="3298027"/>
+          <a:off x="437921" y="3298027"/>
           <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6261,7 +9099,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3208131" y="3298027"/>
+        <a:off x="437921" y="3298027"/>
         <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -6272,7 +9110,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3208131" y="3948225"/>
+          <a:off x="437921" y="3948225"/>
           <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6339,7 +9177,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3208131" y="3948225"/>
+        <a:off x="437921" y="3948225"/>
         <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -6350,7 +9188,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3208131" y="4598424"/>
+          <a:off x="437921" y="4598424"/>
           <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6417,7 +9255,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3208131" y="4598424"/>
+        <a:off x="437921" y="4598424"/>
         <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -6428,7 +9266,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3208131" y="5248622"/>
+          <a:off x="437921" y="5248622"/>
           <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6495,7 +9333,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3208131" y="5248622"/>
+        <a:off x="437921" y="5248622"/>
         <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -6506,7 +9344,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3208131" y="5898820"/>
+          <a:off x="437921" y="5898820"/>
           <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6573,7 +9411,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3208131" y="5898820"/>
+        <a:off x="437921" y="5898820"/>
         <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -6584,7 +9422,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3208131" y="6549018"/>
+          <a:off x="437921" y="6549018"/>
           <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6651,7 +9489,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3208131" y="6549018"/>
+        <a:off x="437921" y="6549018"/>
         <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -6662,7 +9500,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3208131" y="7199216"/>
+          <a:off x="437921" y="7199216"/>
           <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6729,7 +9567,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3208131" y="7199216"/>
+        <a:off x="437921" y="7199216"/>
         <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -6740,7 +9578,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3208131" y="7849414"/>
+          <a:off x="437921" y="7849414"/>
           <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6807,7 +9645,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3208131" y="7849414"/>
+        <a:off x="437921" y="7849414"/>
         <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -6818,7 +9656,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3208131" y="8499612"/>
+          <a:off x="437921" y="8499612"/>
           <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6885,7 +9723,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3208131" y="8499612"/>
+        <a:off x="437921" y="8499612"/>
         <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -6896,7 +9734,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3208131" y="9149810"/>
+          <a:off x="437921" y="9149810"/>
           <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6963,7 +9801,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3208131" y="9149810"/>
+        <a:off x="437921" y="9149810"/>
         <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -6974,7 +9812,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3208131" y="9800009"/>
+          <a:off x="437921" y="9800009"/>
           <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7041,7 +9879,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3208131" y="9800009"/>
+        <a:off x="437921" y="9800009"/>
         <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -7052,7 +9890,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3208131" y="10450207"/>
+          <a:off x="437921" y="10450207"/>
           <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7119,7 +9957,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3208131" y="10450207"/>
+        <a:off x="437921" y="10450207"/>
         <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -7130,7 +9968,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3208131" y="11100405"/>
+          <a:off x="437921" y="11100405"/>
           <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7197,7 +10035,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3208131" y="11100405"/>
+        <a:off x="437921" y="11100405"/>
         <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -7208,7 +10046,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4087272" y="1347433"/>
+          <a:off x="1317062" y="1347433"/>
           <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7275,7 +10113,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4087272" y="1347433"/>
+        <a:off x="1317062" y="1347433"/>
         <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -7286,7 +10124,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4316215" y="1997631"/>
+          <a:off x="1546005" y="1997631"/>
           <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7353,7 +10191,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4316215" y="1997631"/>
+        <a:off x="1546005" y="1997631"/>
         <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -7364,7 +10202,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4316215" y="2647829"/>
+          <a:off x="1546005" y="2647829"/>
           <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7431,7 +10269,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4316215" y="2647829"/>
+        <a:off x="1546005" y="2647829"/>
         <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -7442,7 +10280,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4316215" y="3298027"/>
+          <a:off x="1546005" y="3298027"/>
           <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7509,7 +10347,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4316215" y="3298027"/>
+        <a:off x="1546005" y="3298027"/>
         <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -7520,7 +10358,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4316215" y="3948225"/>
+          <a:off x="1546005" y="3948225"/>
           <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7587,7 +10425,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4316215" y="3948225"/>
+        <a:off x="1546005" y="3948225"/>
         <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -7598,7 +10436,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4316215" y="4598424"/>
+          <a:off x="1546005" y="4598424"/>
           <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7665,7 +10503,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4316215" y="4598424"/>
+        <a:off x="1546005" y="4598424"/>
         <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -7676,7 +10514,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4316215" y="5248622"/>
+          <a:off x="1546005" y="5248622"/>
           <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7743,7 +10581,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4316215" y="5248622"/>
+        <a:off x="1546005" y="5248622"/>
         <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -7754,7 +10592,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4316215" y="5898820"/>
+          <a:off x="1546005" y="5898820"/>
           <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7821,7 +10659,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4316215" y="5898820"/>
+        <a:off x="1546005" y="5898820"/>
         <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -7832,7 +10670,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4316215" y="6549018"/>
+          <a:off x="1546005" y="6549018"/>
           <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7899,7 +10737,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4316215" y="6549018"/>
+        <a:off x="1546005" y="6549018"/>
         <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -7910,7 +10748,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4316215" y="7199216"/>
+          <a:off x="1546005" y="7199216"/>
           <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7977,7 +10815,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4316215" y="7199216"/>
+        <a:off x="1546005" y="7199216"/>
         <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -7988,7 +10826,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4316215" y="7849414"/>
+          <a:off x="1546005" y="7849414"/>
           <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8055,7 +10893,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4316215" y="7849414"/>
+        <a:off x="1546005" y="7849414"/>
         <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -8066,7 +10904,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4316215" y="8499612"/>
+          <a:off x="1546005" y="8499612"/>
           <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8133,7 +10971,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4316215" y="8499612"/>
+        <a:off x="1546005" y="8499612"/>
         <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -8144,7 +10982,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4316215" y="9149810"/>
+          <a:off x="1546005" y="9149810"/>
           <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8211,7 +11049,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4316215" y="9149810"/>
+        <a:off x="1546005" y="9149810"/>
         <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -8222,7 +11060,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4316215" y="9800009"/>
+          <a:off x="1546005" y="9800009"/>
           <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8289,7 +11127,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4316215" y="9800009"/>
+        <a:off x="1546005" y="9800009"/>
         <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -8300,7 +11138,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4316215" y="10450207"/>
+          <a:off x="1546005" y="10450207"/>
           <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8367,7 +11205,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4316215" y="10450207"/>
+        <a:off x="1546005" y="10450207"/>
         <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -8378,7 +11216,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4316215" y="11100405"/>
+          <a:off x="1546005" y="11100405"/>
           <a:ext cx="915772" cy="457886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8445,7 +11283,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4316215" y="11100405"/>
+        <a:off x="1546005" y="11100405"/>
         <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -8500,6 +11338,84 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="900" kern="1200"/>
+            <a:t>Study and extend the project functionalities</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6155818" y="674308"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{EF5FA540-0E0E-4DAB-9B6C-D208314FD54A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2654089" y="1301644"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
         <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
@@ -8519,12 +11435,1494 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
-            <a:t>Phase 2</a:t>
+            <a:t>Select functionalities</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6155818" y="674308"/>
+        <a:off x="2654089" y="1301644"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{36A26CFF-BE05-462C-B683-B047991B55F6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2883032" y="1951843"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Search possible functionalities to implement</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2883032" y="1951843"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{33F90D4A-F3E1-49E7-8FFA-252A7E734E2D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2883032" y="2602041"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Find functionalities to suggest</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2883032" y="2602041"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{54634EED-05CC-43F4-BDFE-274E2FF21DE3}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2883032" y="3252239"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Voting for functionalities</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2883032" y="3252239"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{1273B1E2-95A6-45BF-86CB-AAF815FFC4CB}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3762173" y="1301644"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="900" kern="1200"/>
+            <a:t>Extend functionalities in the code base</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3762173" y="1301644"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{3F6A2980-7E03-40AD-8062-5147CA6F3829}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3991116" y="1951843"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Find where to put the todoList code</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3991116" y="1951843"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{8CDF392B-64BB-4E9D-9EB5-848672E12C6D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3991116" y="2602041"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Find where to put the taskFiles code</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3991116" y="2602041"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{653B4605-AFCE-481F-8C9A-0646055F2802}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3991116" y="3252239"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Starting to write code for todoList</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3991116" y="3252239"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C47F0D89-CB38-4FAE-BDE2-0E803834FDE3}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3991116" y="3902437"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Starting to write code for taskFiles</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3991116" y="3902437"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{596A12D5-0BF9-4DFF-BE75-EB1BC3A24E43}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3991116" y="4552635"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Continuing the todoList code</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3991116" y="4552635"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{585A59D5-287A-4DC3-9874-E9B368826906}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3991116" y="5202833"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Finishing the todoList code</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3991116" y="5202833"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{2956D8F6-824E-474D-9E23-ECB7F4BD0322}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3991116" y="5853031"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Continuing the taskFiles code</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3991116" y="5853031"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{CCE9ABAB-E83C-4917-84B7-E70352CE9D05}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3991116" y="6503229"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Finishing the taskFiles code</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3991116" y="6503229"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{A5979D81-FB2B-4758-A2C5-FB9DA526B14D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4870257" y="1301644"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Model Use Cases</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4870257" y="1301644"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C7A854AF-C5A9-46D3-97E9-5C77B4CCF454}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5099200" y="1951843"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Starting the Use Cases reports</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5099200" y="1951843"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{92D1FB71-DE68-4FA3-84B3-F766277FE8F2}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5099200" y="2602041"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Continuing the Use Cases reports</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5099200" y="2602041"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{4ED8115A-0B2D-41EA-A05F-6CB63AB57B2F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5099200" y="3252239"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Finishing the Use Cases reports</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5099200" y="3252239"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{403B3431-7799-4DB3-A6B4-860C1D8C3B5C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5978341" y="1301644"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Create Unit Tests</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5978341" y="1301644"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C0C96D0D-44F5-4742-B617-2957B2F6576C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7086425" y="1301644"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Calculate Code Metrics</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="7086425" y="1301644"/>
+        <a:ext cx="915772" cy="457886"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{2D7D72AB-C9D0-4BD5-9882-CC1A9E582E68}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="8194509" y="1301644"/>
+          <a:ext cx="915772" cy="457886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" kern="1200"/>
+            <a:t>Create YouTube video</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="8194509" y="1301644"/>
         <a:ext cx="915772" cy="457886"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -10717,13 +15115,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
+      <xdr:colOff>403860</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
@@ -11056,7 +15454,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
